--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>Reminiscence Stat Spreadsheet</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Lvl 99 stats</t>
   </si>
   <si>
@@ -95,6 +92,21 @@
   </si>
   <si>
     <t>Rel. Diff.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>White Mage</t>
+  </si>
+  <si>
+    <t>Black Mage</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Warrior</t>
   </si>
 </sst>
 </file>
@@ -134,6 +146,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,15 +155,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -158,23 +183,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,670 +666,1342 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f>E6*$D6</f>
         <v>7000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f>G6*$D6</f>
         <v>5600</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="I6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6*$D6</f>
+        <v>8400</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="3">
+        <f>K6*$D6</f>
+        <v>6300</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="3">
+        <f>M6*$D6</f>
+        <v>6300</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="P6" s="3">
+        <f>O6*$D6</f>
+        <v>7560.0000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>1500</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" ref="F7:H13" si="0">E7*$D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>1.2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="I7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J13" si="1">I7*$D7</f>
+        <v>1800</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" ref="L7:L13" si="2">K7*$D7</f>
+        <v>1800</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ref="N7:N13" si="3">M7*$D7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" ref="P7:P13" si="4">O7*$D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.95</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>0.7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="I8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>338.99999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>0.95</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>0.75</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="I9" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>1.2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="I10" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>300</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>0.9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>1.2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="I11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1.08</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="I12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>400</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>455.99999999999994</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>1.05</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="I13" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="2"/>
+        <v>459.99999999999994</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11">
+        <f>SUM(C6:C13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3">
-        <f>SUM(C6:C13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="E14" s="11">
         <f>SUM(E6:E13)-8</f>
         <v>-1.9800000000000004</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11">
         <f>SUM(G6:G13)-8</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="H14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="11">
+        <f>SUM(I6:I13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="11">
+        <f>SUM(K6:K13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="11">
+        <f>SUM(M6:M13)-8</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="11">
+        <f>SUM(O6:O13)-8</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="21" t="str">
+        <f>C4</f>
+        <v>Average</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="str">
+        <f>E4</f>
+        <v>Troublemaker</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="str">
+        <f>G4</f>
+        <v>Scholar</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="str">
+        <f>I4</f>
+        <v>White Mage</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21" t="str">
+        <f>K4</f>
+        <v>Black Mage</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21" t="str">
+        <f>M4</f>
+        <v>Archer</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21" t="str">
+        <f>O4</f>
+        <v>Warrior</v>
+      </c>
+      <c r="P27" s="21"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f>C6</f>
         <v>1</v>
       </c>
-      <c r="D29">
-        <f>D6/C17</f>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29:D36" si="5">D6/C17</f>
         <v>70</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <f>E6</f>
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <f>E29*$D29</f>
         <v>70</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <f>G6</f>
         <v>0.8</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <f>G29*$D29</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="I29" s="4">
+        <f>I6</f>
+        <v>1.2</v>
+      </c>
+      <c r="J29" s="3">
+        <f>I29*$D29</f>
+        <v>84</v>
+      </c>
+      <c r="K29" s="4">
+        <f>K6</f>
+        <v>0.9</v>
+      </c>
+      <c r="L29" s="3">
+        <f>K29*$D29</f>
+        <v>63</v>
+      </c>
+      <c r="M29" s="4">
+        <f>M6</f>
+        <v>0.9</v>
+      </c>
+      <c r="N29" s="3">
+        <f>M29*$D29</f>
+        <v>63</v>
+      </c>
+      <c r="O29" s="4">
+        <f>O6</f>
+        <v>1.08</v>
+      </c>
+      <c r="P29" s="3">
+        <f>O29*$D29</f>
+        <v>75.600000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ref="C30:C36" si="6">C7</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" ref="E30" si="7">E7</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30" si="8">E30*$D30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" ref="G30:I30" si="9">G7</f>
+        <v>1.2</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" ref="H30" si="10">G30*$D30</f>
+        <v>18</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" ref="J30:J36" si="11">I30*$D30</f>
+        <v>18</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30:L30" si="12">K7</f>
+        <v>1.2</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" ref="L30:L36" si="13">K30*$D30</f>
+        <v>18</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" ref="M30:N30" si="14">M7</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" ref="N30:N36" si="15">M30*$D30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" ref="O30:P30" si="16">O7</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" ref="P30:P36" si="17">O30*$D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:E36" si="1">C7</f>
+      <c r="C31" s="4">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D30">
-        <f>D7/C18</f>
+      <c r="D31" s="3">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" ref="E30" si="2">E7</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:H30" si="3">E30*$D30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" ref="G30" si="4">G7</f>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31" si="18">E8</f>
+        <v>0.95</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31" si="19">E31*$D31</f>
+        <v>14.25</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31:I31" si="20">G8</f>
+        <v>0.7</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31" si="21">G31*$D31</f>
+        <v>10.5</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="20"/>
+        <v>0.65</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="11"/>
+        <v>9.75</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" ref="K31:L31" si="22">K8</f>
+        <v>0.8</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" ref="M31:N31" si="23">M8</f>
+        <v>1.05</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="15"/>
+        <v>15.75</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" ref="O31:P31" si="24">O8</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="17"/>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32" si="25">E9</f>
+        <v>0.95</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32" si="26">E32*$D32</f>
+        <v>14.25</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:I32" si="27">G9</f>
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" ref="H32" si="28">G32*$D32</f>
+        <v>11.25</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="27"/>
+        <v>0.9</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="11"/>
+        <v>13.5</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" ref="K32:L32" si="29">K9</f>
+        <v>0.8</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32:N32" si="30">M9</f>
+        <v>0.85</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="15"/>
+        <v>12.75</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:P32" si="31">O9</f>
+        <v>1.06</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="17"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33" si="32">E10</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ref="F33" si="33">E33*$D33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" ref="G33:I33" si="34">G10</f>
         <v>1.2</v>
       </c>
-      <c r="H30">
-        <f t="shared" ref="H30" si="5">G30*$D30</f>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33" si="35">G33*$D33</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I33" s="4">
+        <f t="shared" si="34"/>
+        <v>1.05</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="11"/>
+        <v>15.75</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33:L33" si="36">K10</f>
+        <v>1.2</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" ref="M33:N33" si="37">M10</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" ref="O33:P33" si="38">O10</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34" si="39">E11</f>
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34" si="40">E34*$D34</f>
+        <v>13.5</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" ref="G34:I34" si="41">G11</f>
+        <v>1.2</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" ref="H34" si="42">G34*$D34</f>
+        <v>18</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="41"/>
+        <v>1.2</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" ref="K34:L34" si="43">K11</f>
+        <v>1.05</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" ref="M34:N34" si="44">M11</f>
+        <v>0.85</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="15"/>
+        <v>12.75</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" ref="O34:P34" si="45">O11</f>
+        <v>0.96</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="17"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" ref="E35" si="46">E12</f>
+        <v>1.08</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35" si="47">E35*$D35</f>
+        <v>21.6</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" ref="G35:I35" si="48">G12</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35" si="49">G35*$D35</f>
+        <v>20</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="48"/>
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="1"/>
+      <c r="K35" s="4">
+        <f t="shared" ref="K35:L35" si="50">K12</f>
+        <v>0.9</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35:N35" si="51">M12</f>
+        <v>1.2</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" ref="O35:P35" si="52">O12</f>
+        <v>0.92</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="17"/>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D31">
-        <f>D8/C19</f>
-        <v>15</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" ref="E31" si="6">E8</f>
-        <v>0.95</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:H31" si="7">E31*$D31</f>
-        <v>14.25</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" ref="G31" si="8">G8</f>
-        <v>0.7</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31" si="9">G31*$D31</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f>D9/C20</f>
-        <v>15</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" ref="E32" si="10">E9</f>
-        <v>0.95</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:H32" si="11">E32*$D32</f>
-        <v>14.25</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" ref="G32" si="12">G9</f>
-        <v>0.75</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ref="H32" si="13">G32*$D32</f>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f>D10/C21</f>
-        <v>15</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" ref="E33" si="14">E10</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33:H33" si="15">E33*$D33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" ref="G33" si="16">G10</f>
+      <c r="D36" s="5">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36" si="53">E13</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36" si="54">E36*$D36</f>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36:I36" si="55">G13</f>
+        <v>1.05</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" ref="H36" si="56">G36*$D36</f>
+        <v>21</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="55"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36:L36" si="57">K13</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" ref="M36:N36" si="58">M13</f>
         <v>1.2</v>
       </c>
-      <c r="H33">
-        <f t="shared" ref="H33" si="17">G33*$D33</f>
+      <c r="N36" s="5">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" ref="O36:P36" si="59">O13</f>
+        <v>0.9</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>D11/C22</f>
-        <v>15</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" ref="E34" si="18">E11</f>
-        <v>0.9</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34:H34" si="19">E34*$D34</f>
-        <v>13.5</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" ref="G34" si="20">G11</f>
-        <v>1.2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34" si="21">G34*$D34</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>D12/C23</f>
-        <v>20</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" ref="E35" si="22">E12</f>
-        <v>1.08</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35:H35" si="23">E35*$D35</f>
-        <v>21.6</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" ref="G35" si="24">G12</f>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ref="H35" si="25">G35*$D35</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f>D13/C24</f>
-        <v>20</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" ref="E36" si="26">E13</f>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:H36" si="27">E36*$D36</f>
-        <v>22.799999999999997</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" ref="G36" si="28">G13</f>
-        <v>1.05</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36" si="29">G36*$D36</f>
-        <v>21</v>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="11">
+        <f>SUM(C29:C36)-8</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="11">
+        <f>SUM(E29:E36)-8</f>
+        <v>-1.9800000000000004</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="11">
+        <f>SUM(G29:G36)-8</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="11">
+        <f>SUM(I29:I36)-8</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="11">
+        <f>SUM(K29:K36)-8</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="11">
+        <f>SUM(M29:M36)-8</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="11">
+        <f>SUM(O29:O36)-8</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="16">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -1159,6 +2009,7 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <f>E29*$D29</f>
+        <f>ROUND(E29*$D29,0)</f>
         <v>70</v>
       </c>
       <c r="G29" s="4">
@@ -1454,7 +1454,7 @@
         <v>0.8</v>
       </c>
       <c r="H29" s="3">
-        <f>G29*$D29</f>
+        <f>ROUND(G29*$D29,0)</f>
         <v>56</v>
       </c>
       <c r="I29" s="4">
@@ -1462,7 +1462,7 @@
         <v>1.2</v>
       </c>
       <c r="J29" s="3">
-        <f>I29*$D29</f>
+        <f>ROUND(I29*$D29,0)</f>
         <v>84</v>
       </c>
       <c r="K29" s="4">
@@ -1470,7 +1470,7 @@
         <v>0.9</v>
       </c>
       <c r="L29" s="3">
-        <f>K29*$D29</f>
+        <f>ROUND(K29*$D29,0)</f>
         <v>63</v>
       </c>
       <c r="M29" s="4">
@@ -1478,7 +1478,7 @@
         <v>0.9</v>
       </c>
       <c r="N29" s="3">
-        <f>M29*$D29</f>
+        <f>ROUND(M29*$D29,0)</f>
         <v>63</v>
       </c>
       <c r="O29" s="4">
@@ -1486,8 +1486,8 @@
         <v>1.08</v>
       </c>
       <c r="P29" s="3">
-        <f>O29*$D29</f>
-        <v>75.600000000000009</v>
+        <f>ROUND(O29*$D29,0)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ref="F30" si="8">E30*$D30</f>
+        <f t="shared" ref="F30:H36" si="8">ROUND(E30*$D30,0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="6">
@@ -1518,7 +1518,7 @@
         <v>1.2</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30" si="10">G30*$D30</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I30" s="6">
@@ -1526,31 +1526,31 @@
         <v>1.2</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30:J36" si="11">I30*$D30</f>
+        <f t="shared" ref="J30" si="10">ROUND(I30*$D30,0)</f>
         <v>18</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30:L30" si="12">K7</f>
+        <f t="shared" ref="K30:L30" si="11">K7</f>
         <v>1.2</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" ref="L30:L36" si="13">K30*$D30</f>
+        <f t="shared" ref="L30" si="12">ROUND(K30*$D30,0)</f>
         <v>18</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" ref="M30:N30" si="14">M7</f>
+        <f t="shared" ref="M30:N30" si="13">M7</f>
         <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30:N36" si="15">M30*$D30</f>
+        <f t="shared" ref="N30:P30" si="14">ROUND(M30*$D30,0)</f>
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" ref="O30:P30" si="16">O7</f>
+        <f t="shared" ref="O30:P30" si="15">O7</f>
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" ref="P30:P36" si="17">O30*$D30</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1570,52 +1570,52 @@
         <v>15</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31" si="18">E8</f>
+        <f t="shared" ref="E31" si="16">E8</f>
         <v>0.95</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ref="F31" si="19">E31*$D31</f>
-        <v>14.25</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31:I31" si="20">G8</f>
+        <f t="shared" ref="G31:I31" si="17">G8</f>
         <v>0.7</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" ref="H31" si="21">G31*$D31</f>
-        <v>10.5</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.65</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="11"/>
-        <v>9.75</v>
+        <f t="shared" ref="J31" si="18">ROUND(I31*$D31,0)</f>
+        <v>10</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" ref="K31:L31" si="22">K8</f>
+        <f t="shared" ref="K31:L31" si="19">K8</f>
         <v>0.8</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L31" si="20">ROUND(K31*$D31,0)</f>
         <v>12</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" ref="M31:N31" si="23">M8</f>
+        <f t="shared" ref="M31:N31" si="21">M8</f>
         <v>1.05</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="15"/>
-        <v>15.75</v>
+        <f t="shared" ref="N31:P31" si="22">ROUND(M31*$D31,0)</f>
+        <v>16</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" ref="O31:P31" si="24">O8</f>
+        <f t="shared" ref="O31:P31" si="23">O8</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="17"/>
-        <v>16.95</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1634,52 +1634,52 @@
         <v>15</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32" si="25">E9</f>
+        <f t="shared" ref="E32" si="24">E9</f>
         <v>0.95</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ref="F32" si="26">E32*$D32</f>
-        <v>14.25</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32:I32" si="27">G9</f>
+        <f t="shared" ref="G32:I32" si="25">G9</f>
         <v>0.75</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ref="H32" si="28">G32*$D32</f>
-        <v>11.25</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="11"/>
-        <v>13.5</v>
+        <f t="shared" ref="J32" si="26">ROUND(I32*$D32,0)</f>
+        <v>14</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ref="K32:L32" si="29">K9</f>
+        <f t="shared" ref="K32:L32" si="27">K9</f>
         <v>0.8</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L32" si="28">ROUND(K32*$D32,0)</f>
         <v>12</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32:N32" si="30">M9</f>
+        <f t="shared" ref="M32:N32" si="29">M9</f>
         <v>0.85</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="15"/>
-        <v>12.75</v>
+        <f t="shared" ref="N32:P32" si="30">ROUND(M32*$D32,0)</f>
+        <v>13</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" ref="O32:P32" si="31">O9</f>
         <v>1.06</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="17"/>
-        <v>15.9</v>
+        <f t="shared" si="30"/>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -1702,31 +1702,31 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" ref="F33" si="33">E33*$D33</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33:I33" si="34">G10</f>
+        <f t="shared" ref="G33:I33" si="33">G10</f>
         <v>1.2</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" ref="H33" si="35">G33*$D33</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1.05</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="11"/>
-        <v>15.75</v>
+        <f t="shared" ref="J33" si="34">ROUND(I33*$D33,0)</f>
+        <v>16</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33:L33" si="36">K10</f>
+        <f t="shared" ref="K33:L33" si="35">K10</f>
         <v>1.2</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L33" si="36">ROUND(K33*$D33,0)</f>
         <v>18</v>
       </c>
       <c r="M33" s="4">
@@ -1734,15 +1734,15 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="N33:P33" si="38">ROUND(M33*$D33,0)</f>
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" ref="O33:P33" si="38">O10</f>
+        <f t="shared" ref="O33:P33" si="39">O10</f>
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -1762,19 +1762,19 @@
         <v>15</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34" si="39">E11</f>
+        <f t="shared" ref="E34" si="40">E11</f>
         <v>0.9</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" ref="F34" si="40">E34*$D34</f>
-        <v>13.5</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" ref="G34:I34" si="41">G11</f>
         <v>1.2</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ref="H34" si="42">G34*$D34</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I34" s="6">
@@ -1782,7 +1782,7 @@
         <v>1.2</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J34" si="42">ROUND(I34*$D34,0)</f>
         <v>18</v>
       </c>
       <c r="K34" s="6">
@@ -1790,24 +1790,24 @@
         <v>1.05</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="13"/>
-        <v>15.75</v>
+        <f t="shared" ref="L34" si="44">ROUND(K34*$D34,0)</f>
+        <v>16</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" ref="M34:N34" si="44">M11</f>
+        <f t="shared" ref="M34:N34" si="45">M11</f>
         <v>0.85</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="15"/>
-        <v>12.75</v>
+        <f t="shared" ref="N34:P34" si="46">ROUND(M34*$D34,0)</f>
+        <v>13</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:P34" si="45">O11</f>
+        <f t="shared" ref="O34:P34" si="47">O11</f>
         <v>0.96</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="17"/>
-        <v>14.399999999999999</v>
+        <f t="shared" si="46"/>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -1826,52 +1826,52 @@
         <v>20</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35" si="46">E12</f>
+        <f t="shared" ref="E35" si="48">E12</f>
         <v>1.08</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" ref="F35" si="47">E35*$D35</f>
-        <v>21.6</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" ref="G35:I35" si="48">G12</f>
+        <f t="shared" ref="G35:I35" si="49">G12</f>
         <v>1</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" ref="H35" si="49">G35*$D35</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.7</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J35" si="50">ROUND(I35*$D35,0)</f>
         <v>14</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" ref="K35:L35" si="50">K12</f>
+        <f t="shared" ref="K35:L35" si="51">K12</f>
         <v>0.9</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L35" si="52">ROUND(K35*$D35,0)</f>
         <v>18</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" ref="M35:N35" si="51">M12</f>
+        <f t="shared" ref="M35:N35" si="53">M12</f>
         <v>1.2</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="N35:P35" si="54">ROUND(M35*$D35,0)</f>
         <v>24</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" ref="O35:P35" si="52">O12</f>
+        <f t="shared" ref="O35:P35" si="55">O12</f>
         <v>0.92</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="17"/>
-        <v>18.400000000000002</v>
+        <f t="shared" si="54"/>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -1890,51 +1890,51 @@
         <v>20</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ref="E36" si="53">E13</f>
+        <f t="shared" ref="E36" si="56">E13</f>
         <v>1.1399999999999999</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ref="F36" si="54">E36*$D36</f>
-        <v>22.799999999999997</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36:I36" si="55">G13</f>
+        <f t="shared" ref="G36:I36" si="57">G13</f>
         <v>1.05</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" ref="H36" si="56">G36*$D36</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J36" si="58">ROUND(I36*$D36,0)</f>
         <v>22</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="57">K13</f>
+        <f t="shared" ref="K36:L36" si="59">K13</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L36" si="60">ROUND(K36*$D36,0)</f>
         <v>23</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" ref="M36:N36" si="58">M13</f>
+        <f t="shared" ref="M36:N36" si="61">M13</f>
         <v>1.2</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="N36:P36" si="62">ROUND(M36*$D36,0)</f>
         <v>24</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36:P36" si="59">O13</f>
+        <f t="shared" ref="O36:P36" si="63">O13</f>
         <v>0.9</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>18</v>
       </c>
     </row>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t>Reminiscence Stat Spreadsheet</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Divisors from Lvl 99 to Lvl 1</t>
-  </si>
-  <si>
     <t>Lvl 1 stats</t>
   </si>
   <si>
@@ -107,6 +104,18 @@
   </si>
   <si>
     <t>Warrior</t>
+  </si>
+  <si>
+    <t>Stat Summary</t>
+  </si>
+  <si>
+    <t>Lvl 1</t>
+  </si>
+  <si>
+    <t>Lvl 99</t>
+  </si>
+  <si>
+    <t>Lvl 99 to Lvl 1 Divisors</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,13 +173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +239,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -232,32 +249,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -272,7 +273,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -281,22 +282,48 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -311,48 +338,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,27 +683,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -683,1333 +715,1930 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="20">
         <v>7000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="20">
         <f>E6*$D6</f>
         <v>7000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="19">
         <v>0.8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="20">
         <f>G6*$D6</f>
         <v>5600</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="19">
         <v>1.2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="20">
         <f>I6*$D6</f>
         <v>8400</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="19">
         <v>0.9</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="20">
         <f>K6*$D6</f>
         <v>6300</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="19">
         <v>0.9</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="20">
         <f>M6*$D6</f>
         <v>6300</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="19">
         <v>1.08</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="20">
         <f>O6*$D6</f>
         <v>7560.0000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="20">
         <v>1500</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" ref="F7:H13" si="0">E7*$D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="19">
         <v>1.2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="20">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="19">
         <v>1.2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="20">
         <f t="shared" ref="J7:J13" si="1">I7*$D7</f>
         <v>1800</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="19">
         <v>1.2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="20">
         <f t="shared" ref="L7:L13" si="2">K7*$D7</f>
         <v>1800</v>
       </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
         <f t="shared" ref="N7:N13" si="3">M7*$D7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
         <f t="shared" ref="P7:P13" si="4">O7*$D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="17">
         <v>300</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="16">
         <v>0.95</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="16">
         <v>0.7</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="16">
         <v>0.65</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="16">
         <v>0.8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="17">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="16">
         <v>1.05</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="16">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="17">
         <f t="shared" si="4"/>
         <v>338.99999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="17">
         <v>300</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="16">
         <v>0.95</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="16">
         <v>0.75</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="16">
         <v>0.9</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="17">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="16">
         <v>0.8</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="17">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="16">
         <v>0.85</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="16">
         <v>1.06</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="17">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="20">
         <v>300</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="19">
         <v>1.2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="19">
         <v>1.05</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="20">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="19">
         <v>1.2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="20">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="20">
         <v>300</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="19">
         <v>0.9</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="19">
         <v>1.2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="20">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="19">
         <v>1.2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="20">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="19">
         <v>1.05</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="20">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="19">
         <v>0.85</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="20">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="19">
         <v>0.96</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="20">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="17">
         <v>400</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="16">
         <v>1.08</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="16">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="17">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="16">
         <v>0.7</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="17">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="16">
         <v>0.9</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="17">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="16">
         <v>1.2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="17">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="16">
         <v>0.92</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="17">
         <f t="shared" si="4"/>
         <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="17">
         <v>400</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>455.99999999999994</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="16">
         <v>1.05</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="17">
         <f t="shared" si="1"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="17">
         <f t="shared" si="2"/>
         <v>459.99999999999994</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="16">
         <v>1.2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="17">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="16">
         <v>0.9</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="17">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUM(C6:C13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11">
-        <f>SUM(C6:C13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="E14" s="5">
         <f>SUM(E6:E13)-8</f>
         <v>-1.9800000000000004</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5">
         <f>SUM(G6:G13)-8</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5">
         <f>SUM(I6:I13)-8</f>
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="5">
         <f>SUM(K6:K13)-8</f>
         <v>0</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="L14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="5">
         <f>SUM(M6:M13)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="N14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="5">
         <f>SUM(O6:O13)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="P14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17">
-        <v>100</v>
-      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="21" t="str">
+      <c r="A18" s="1"/>
+      <c r="C18" s="13" t="str">
         <f>C4</f>
         <v>Average</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="str">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="str">
         <f>E4</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="str">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="str">
         <f>G4</f>
         <v>Scholar</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21" t="str">
+      <c r="H18" s="14"/>
+      <c r="I18" s="13" t="str">
         <f>I4</f>
         <v>White Mage</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21" t="str">
+      <c r="J18" s="14"/>
+      <c r="K18" s="13" t="str">
         <f>K4</f>
         <v>Black Mage</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="str">
+      <c r="L18" s="14"/>
+      <c r="M18" s="13" t="str">
         <f>M4</f>
         <v>Archer</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21" t="str">
+      <c r="N18" s="14"/>
+      <c r="O18" s="13" t="str">
         <f>O4</f>
         <v>Warrior</v>
       </c>
-      <c r="P27" s="21"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P19" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C20" s="19">
         <f>C6</f>
         <v>1</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" ref="D29:D36" si="5">D6/C17</f>
+      <c r="D20" s="20">
+        <f>D6/C32</f>
         <v>70</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E20" s="19">
         <f>E6</f>
         <v>1</v>
       </c>
-      <c r="F29" s="3">
-        <f>ROUND(E29*$D29,0)</f>
+      <c r="F20" s="20">
+        <f>ROUND(E20*$D20,0)</f>
         <v>70</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G20" s="19">
         <f>G6</f>
         <v>0.8</v>
       </c>
-      <c r="H29" s="3">
-        <f>ROUND(G29*$D29,0)</f>
+      <c r="H20" s="20">
+        <f>ROUND(G20*$D20,0)</f>
         <v>56</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I20" s="19">
         <f>I6</f>
         <v>1.2</v>
       </c>
-      <c r="J29" s="3">
-        <f>ROUND(I29*$D29,0)</f>
+      <c r="J20" s="20">
+        <f>ROUND(I20*$D20,0)</f>
         <v>84</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K20" s="19">
         <f>K6</f>
         <v>0.9</v>
       </c>
-      <c r="L29" s="3">
-        <f>ROUND(K29*$D29,0)</f>
+      <c r="L20" s="20">
+        <f>ROUND(K20*$D20,0)</f>
         <v>63</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M20" s="19">
         <f>M6</f>
         <v>0.9</v>
       </c>
-      <c r="N29" s="3">
-        <f>ROUND(M29*$D29,0)</f>
+      <c r="N20" s="20">
+        <f>ROUND(M20*$D20,0)</f>
         <v>63</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O20" s="19">
         <f>O6</f>
         <v>1.08</v>
       </c>
-      <c r="P29" s="3">
-        <f>ROUND(O29*$D29,0)</f>
+      <c r="P20" s="20">
+        <f>ROUND(O20*$D20,0)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" ref="C30:C36" si="6">C7</f>
+      <c r="C21" s="19">
+        <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="5"/>
+      <c r="D21" s="20">
+        <f>D7/C33</f>
         <v>15</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" ref="E30" si="7">E7</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ref="F30:H36" si="8">ROUND(E30*$D30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" ref="G30:I30" si="9">G7</f>
+      <c r="E21" s="19">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <f>ROUND(E21*$D21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <f>G7</f>
         <v>1.2</v>
       </c>
-      <c r="H30" s="5">
-        <f t="shared" si="8"/>
+      <c r="H21" s="20">
+        <f>ROUND(G21*$D21,0)</f>
         <v>18</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="9"/>
+      <c r="I21" s="19">
+        <f>I7</f>
         <v>1.2</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" ref="J30" si="10">ROUND(I30*$D30,0)</f>
+      <c r="J21" s="20">
+        <f>ROUND(I21*$D21,0)</f>
         <v>18</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" ref="K30:L30" si="11">K7</f>
+      <c r="K21" s="19">
+        <f>K7</f>
         <v>1.2</v>
       </c>
-      <c r="L30" s="5">
-        <f t="shared" ref="L30" si="12">ROUND(K30*$D30,0)</f>
+      <c r="L21" s="20">
+        <f>ROUND(K21*$D21,0)</f>
         <v>18</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" ref="M30:N30" si="13">M7</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" ref="N30:P30" si="14">ROUND(M30*$D30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" ref="O30:P30" si="15">O7</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="M21" s="19">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <f>ROUND(M21*$D21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="19">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="20">
+        <f>ROUND(O21*$D21,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16">
+        <f>C8</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="17">
+        <f>D8/C34</f>
+        <v>15</v>
+      </c>
+      <c r="E22" s="16">
+        <f>E8</f>
+        <v>0.95</v>
+      </c>
+      <c r="F22" s="17">
+        <f>ROUND(E22*$D22,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G22" s="16">
+        <f>G8</f>
+        <v>0.7</v>
+      </c>
+      <c r="H22" s="17">
+        <f>ROUND(G22*$D22,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I22" s="16">
+        <f>I8</f>
+        <v>0.65</v>
+      </c>
+      <c r="J22" s="17">
+        <f>ROUND(I22*$D22,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K22" s="16">
+        <f>K8</f>
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="17">
+        <f>ROUND(K22*$D22,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M22" s="16">
+        <f>M8</f>
+        <v>1.05</v>
+      </c>
+      <c r="N22" s="17">
+        <f>ROUND(M22*$D22,0)</f>
+        <v>16</v>
+      </c>
+      <c r="O22" s="16">
+        <f>O8</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P22" s="17">
+        <f>ROUND(O22*$D22,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C9</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <f>D9/C35</f>
+        <v>15</v>
+      </c>
+      <c r="E23" s="16">
+        <f>E9</f>
+        <v>0.95</v>
+      </c>
+      <c r="F23" s="17">
+        <f>ROUND(E23*$D23,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G23" s="16">
+        <f>G9</f>
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="17">
+        <f>ROUND(G23*$D23,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I23" s="16">
+        <f>I9</f>
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="17">
+        <f>ROUND(I23*$D23,0)</f>
+        <v>14</v>
+      </c>
+      <c r="K23" s="16">
+        <f>K9</f>
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="17">
+        <f>ROUND(K23*$D23,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M23" s="16">
+        <f>M9</f>
+        <v>0.85</v>
+      </c>
+      <c r="N23" s="17">
+        <f>ROUND(M23*$D23,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O23" s="16">
+        <f>O9</f>
+        <v>1.06</v>
+      </c>
+      <c r="P23" s="17">
+        <f>ROUND(O23*$D23,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <f>D10/C36</f>
+        <v>15</v>
+      </c>
+      <c r="E24" s="19">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <f>ROUND(E24*$D24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <f>G10</f>
+        <v>1.2</v>
+      </c>
+      <c r="H24" s="20">
+        <f>ROUND(G24*$D24,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I24" s="19">
+        <f>I10</f>
+        <v>1.05</v>
+      </c>
+      <c r="J24" s="20">
+        <f>ROUND(I24*$D24,0)</f>
+        <v>16</v>
+      </c>
+      <c r="K24" s="19">
+        <f>K10</f>
+        <v>1.2</v>
+      </c>
+      <c r="L24" s="20">
+        <f>ROUND(K24*$D24,0)</f>
+        <v>18</v>
+      </c>
+      <c r="M24" s="19">
+        <f>M10</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="20">
+        <f>ROUND(M24*$D24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
+        <f>O10</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="20">
+        <f>ROUND(O24*$D24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C11</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <f>D11/C37</f>
+        <v>15</v>
+      </c>
+      <c r="E25" s="19">
+        <f>E11</f>
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="20">
+        <f>ROUND(E25*$D25,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G25" s="19">
+        <f>G11</f>
+        <v>1.2</v>
+      </c>
+      <c r="H25" s="20">
+        <f>ROUND(G25*$D25,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I25" s="19">
+        <f>I11</f>
+        <v>1.2</v>
+      </c>
+      <c r="J25" s="20">
+        <f>ROUND(I25*$D25,0)</f>
+        <v>18</v>
+      </c>
+      <c r="K25" s="19">
+        <f>K11</f>
+        <v>1.05</v>
+      </c>
+      <c r="L25" s="20">
+        <f>ROUND(K25*$D25,0)</f>
+        <v>16</v>
+      </c>
+      <c r="M25" s="19">
+        <f>M11</f>
+        <v>0.85</v>
+      </c>
+      <c r="N25" s="20">
+        <f>ROUND(M25*$D25,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O25" s="19">
+        <f>O11</f>
+        <v>0.96</v>
+      </c>
+      <c r="P25" s="20">
+        <f>ROUND(O25*$D25,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <f>D12/C38</f>
+        <v>20</v>
+      </c>
+      <c r="E26" s="16">
+        <f>E12</f>
+        <v>1.08</v>
+      </c>
+      <c r="F26" s="17">
+        <f>ROUND(E26*$D26,0)</f>
+        <v>22</v>
+      </c>
+      <c r="G26" s="16">
+        <f>G12</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <f>ROUND(G26*$D26,0)</f>
+        <v>20</v>
+      </c>
+      <c r="I26" s="16">
+        <f>I12</f>
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="17">
+        <f>ROUND(I26*$D26,0)</f>
+        <v>14</v>
+      </c>
+      <c r="K26" s="16">
+        <f>K12</f>
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="17">
+        <f>ROUND(K26*$D26,0)</f>
+        <v>18</v>
+      </c>
+      <c r="M26" s="16">
+        <f>M12</f>
+        <v>1.2</v>
+      </c>
+      <c r="N26" s="17">
+        <f>ROUND(M26*$D26,0)</f>
+        <v>24</v>
+      </c>
+      <c r="O26" s="16">
+        <f>O12</f>
+        <v>0.92</v>
+      </c>
+      <c r="P26" s="17">
+        <f>ROUND(O26*$D26,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C13</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <f>D13/C39</f>
+        <v>20</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E13</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F27" s="17">
+        <f>ROUND(E27*$D27,0)</f>
+        <v>23</v>
+      </c>
+      <c r="G27" s="16">
+        <f>G13</f>
+        <v>1.05</v>
+      </c>
+      <c r="H27" s="17">
+        <f>ROUND(G27*$D27,0)</f>
+        <v>21</v>
+      </c>
+      <c r="I27" s="16">
+        <f>I13</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J27" s="17">
+        <f>ROUND(I27*$D27,0)</f>
+        <v>22</v>
+      </c>
+      <c r="K27" s="16">
+        <f>K13</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L27" s="17">
+        <f>ROUND(K27*$D27,0)</f>
+        <v>23</v>
+      </c>
+      <c r="M27" s="16">
+        <f>M13</f>
+        <v>1.2</v>
+      </c>
+      <c r="N27" s="17">
+        <f>ROUND(M27*$D27,0)</f>
+        <v>24</v>
+      </c>
+      <c r="O27" s="16">
+        <f>O13</f>
+        <v>0.9</v>
+      </c>
+      <c r="P27" s="17">
+        <f>ROUND(O27*$D27,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUM(C20:C27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUM(E20:E27)-8</f>
+        <v>-1.9800000000000004</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(G20:G27)-8</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="5">
+        <f>SUM(I20:I27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="5">
+        <f>SUM(K20:K27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="5">
+        <f>SUM(M20:M27)-8</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="5">
+        <f>SUM(O20:O27)-8</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="C43" s="13" t="str">
+        <f>C18</f>
+        <v>Average</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13" t="str">
+        <f t="shared" ref="E43:P43" si="5">E18</f>
+        <v>Troublemaker</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13" t="str">
+        <f t="shared" ref="G43:P43" si="6">G18</f>
+        <v>Scholar</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13" t="str">
+        <f t="shared" ref="I43:P43" si="7">I18</f>
+        <v>White Mage</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="13" t="str">
+        <f t="shared" ref="K43:P43" si="8">K18</f>
+        <v>Black Mage</v>
+      </c>
+      <c r="L43" s="14"/>
+      <c r="M43" s="13" t="str">
+        <f t="shared" ref="M43:P43" si="9">M18</f>
+        <v>Archer</v>
+      </c>
+      <c r="N43" s="14"/>
+      <c r="O43" s="13" t="str">
+        <f t="shared" ref="O43:P43" si="10">O18</f>
+        <v>Warrior</v>
+      </c>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="21">
+        <f>D20</f>
+        <v>70</v>
+      </c>
+      <c r="D45" s="20">
+        <f>D6</f>
+        <v>7000</v>
+      </c>
+      <c r="E45" s="21">
+        <f>F20</f>
+        <v>70</v>
+      </c>
+      <c r="F45" s="20">
+        <f>F6</f>
+        <v>7000</v>
+      </c>
+      <c r="G45" s="21">
+        <f>H20</f>
+        <v>56</v>
+      </c>
+      <c r="H45" s="20">
+        <f>H6</f>
+        <v>5600</v>
+      </c>
+      <c r="I45" s="21">
+        <f>J20</f>
+        <v>84</v>
+      </c>
+      <c r="J45" s="20">
+        <f>J6</f>
+        <v>8400</v>
+      </c>
+      <c r="K45" s="21">
+        <f>L20</f>
+        <v>63</v>
+      </c>
+      <c r="L45" s="20">
+        <f>L6</f>
+        <v>6300</v>
+      </c>
+      <c r="M45" s="21">
+        <f>N20</f>
+        <v>63</v>
+      </c>
+      <c r="N45" s="20">
+        <f>N6</f>
+        <v>6300</v>
+      </c>
+      <c r="O45" s="21">
+        <f>P20</f>
+        <v>76</v>
+      </c>
+      <c r="P45" s="20">
+        <f>P6</f>
+        <v>7560.0000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="21">
+        <f t="shared" ref="C46:E52" si="11">D21</f>
+        <v>15</v>
+      </c>
+      <c r="D46" s="20">
+        <f t="shared" ref="D46:F52" si="12">D7</f>
+        <v>1500</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" ref="G46:H46" si="13">H21</f>
+        <v>18</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" ref="H46" si="14">H7</f>
+        <v>1800</v>
+      </c>
+      <c r="I46" s="21">
+        <f t="shared" ref="I46:J46" si="15">J21</f>
+        <v>18</v>
+      </c>
+      <c r="J46" s="20">
+        <f t="shared" ref="J46" si="16">J7</f>
+        <v>1800</v>
+      </c>
+      <c r="K46" s="21">
+        <f t="shared" ref="K46:L46" si="17">L21</f>
+        <v>18</v>
+      </c>
+      <c r="L46" s="20">
+        <f t="shared" ref="L46" si="18">L7</f>
+        <v>1800</v>
+      </c>
+      <c r="M46" s="21">
+        <f t="shared" ref="M46:N46" si="19">N21</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="20">
+        <f t="shared" ref="N46" si="20">N7</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="21">
+        <f t="shared" ref="O46" si="21">P21</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="20">
+        <f t="shared" ref="P46" si="22">P7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="5"/>
+      <c r="C47" s="22">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" ref="E31" si="16">E8</f>
-        <v>0.95</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="8"/>
+      <c r="D47" s="17">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" ref="G31:I31" si="17">G8</f>
-        <v>0.7</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="8"/>
+      <c r="F47" s="17">
+        <f t="shared" si="12"/>
+        <v>285</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" ref="G47:H47" si="23">H22</f>
         <v>11</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="17"/>
-        <v>0.65</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" ref="J31" si="18">ROUND(I31*$D31,0)</f>
+      <c r="H47" s="17">
+        <f t="shared" ref="H47" si="24">H8</f>
+        <v>210</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" ref="I47:J47" si="25">J22</f>
         <v>10</v>
       </c>
-      <c r="K31" s="4">
-        <f t="shared" ref="K31:L31" si="19">K8</f>
-        <v>0.8</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" ref="L31" si="20">ROUND(K31*$D31,0)</f>
+      <c r="J47" s="17">
+        <f t="shared" ref="J47" si="26">J8</f>
+        <v>195</v>
+      </c>
+      <c r="K47" s="22">
+        <f t="shared" ref="K47:L47" si="27">L22</f>
         <v>12</v>
       </c>
-      <c r="M31" s="4">
-        <f t="shared" ref="M31:N31" si="21">M8</f>
-        <v>1.05</v>
-      </c>
-      <c r="N31" s="3">
-        <f t="shared" ref="N31:P31" si="22">ROUND(M31*$D31,0)</f>
+      <c r="L47" s="17">
+        <f t="shared" ref="L47" si="28">L8</f>
+        <v>240</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" ref="M47:N47" si="29">N22</f>
         <v>16</v>
       </c>
-      <c r="O31" s="4">
-        <f t="shared" ref="O31:P31" si="23">O8</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="22"/>
+      <c r="N47" s="17">
+        <f t="shared" ref="N47" si="30">N8</f>
+        <v>315</v>
+      </c>
+      <c r="O47" s="22">
+        <f t="shared" ref="O47" si="31">P22</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="P47" s="17">
+        <f t="shared" ref="P47" si="32">P8</f>
+        <v>338.99999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B48" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="5"/>
+      <c r="C48" s="22">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="E32" s="6">
-        <f t="shared" ref="E32" si="24">E9</f>
-        <v>0.95</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="8"/>
+      <c r="D48" s="17">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32:I32" si="25">G9</f>
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="8"/>
+      <c r="F48" s="17">
+        <f t="shared" si="12"/>
+        <v>285</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" ref="G48:H48" si="33">H23</f>
         <v>11</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="25"/>
-        <v>0.9</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" ref="J32" si="26">ROUND(I32*$D32,0)</f>
+      <c r="H48" s="17">
+        <f t="shared" ref="H48" si="34">H9</f>
+        <v>225</v>
+      </c>
+      <c r="I48" s="22">
+        <f t="shared" ref="I48:J48" si="35">J23</f>
         <v>14</v>
       </c>
-      <c r="K32" s="6">
-        <f t="shared" ref="K32:L32" si="27">K9</f>
-        <v>0.8</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" ref="L32" si="28">ROUND(K32*$D32,0)</f>
+      <c r="J48" s="17">
+        <f t="shared" ref="J48" si="36">J9</f>
+        <v>270</v>
+      </c>
+      <c r="K48" s="22">
+        <f t="shared" ref="K48:L48" si="37">L23</f>
         <v>12</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" ref="M32:N32" si="29">M9</f>
-        <v>0.85</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" ref="N32:P32" si="30">ROUND(M32*$D32,0)</f>
+      <c r="L48" s="17">
+        <f t="shared" ref="L48" si="38">L9</f>
+        <v>240</v>
+      </c>
+      <c r="M48" s="22">
+        <f t="shared" ref="M48:N48" si="39">N23</f>
         <v>13</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32:P32" si="31">O9</f>
-        <v>1.06</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="30"/>
+      <c r="N48" s="17">
+        <f t="shared" ref="N48" si="40">N9</f>
+        <v>255</v>
+      </c>
+      <c r="O48" s="22">
+        <f t="shared" ref="O48" si="41">P23</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="P48" s="17">
+        <f t="shared" ref="P48" si="42">P9</f>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="5"/>
+      <c r="C49" s="21">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" ref="E33" si="32">E10</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" ref="G33:I33" si="33">G10</f>
-        <v>1.2</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="8"/>
+      <c r="D49" s="20">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" ref="G49:H49" si="43">H24</f>
         <v>18</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" ref="J33" si="34">ROUND(I33*$D33,0)</f>
+      <c r="H49" s="20">
+        <f t="shared" ref="H49" si="44">H10</f>
+        <v>360</v>
+      </c>
+      <c r="I49" s="21">
+        <f t="shared" ref="I49:J49" si="45">J24</f>
         <v>16</v>
       </c>
-      <c r="K33" s="4">
-        <f t="shared" ref="K33:L33" si="35">K10</f>
-        <v>1.2</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" ref="L33" si="36">ROUND(K33*$D33,0)</f>
+      <c r="J49" s="20">
+        <f t="shared" ref="J49" si="46">J10</f>
+        <v>315</v>
+      </c>
+      <c r="K49" s="21">
+        <f t="shared" ref="K49:L49" si="47">L24</f>
         <v>18</v>
       </c>
-      <c r="M33" s="4">
-        <f t="shared" ref="M33:N33" si="37">M10</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <f t="shared" ref="N33:P33" si="38">ROUND(M33*$D33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" ref="O33:P33" si="39">O10</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="L49" s="20">
+        <f t="shared" ref="L49" si="48">L10</f>
+        <v>360</v>
+      </c>
+      <c r="M49" s="21">
+        <f t="shared" ref="M49:N49" si="49">N24</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="20">
+        <f t="shared" ref="N49" si="50">N10</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="21">
+        <f t="shared" ref="O49" si="51">P24</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="20">
+        <f t="shared" ref="P49" si="52">P10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B50" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="5"/>
+      <c r="C50" s="21">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34" si="40">E11</f>
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="8"/>
+      <c r="D50" s="20">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E50" s="21">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" ref="G34:I34" si="41">G11</f>
-        <v>1.2</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="8"/>
+      <c r="F50" s="20">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" ref="G50:H50" si="53">H25</f>
         <v>18</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="41"/>
-        <v>1.2</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" ref="J34" si="42">ROUND(I34*$D34,0)</f>
+      <c r="H50" s="20">
+        <f t="shared" ref="H50" si="54">H11</f>
+        <v>360</v>
+      </c>
+      <c r="I50" s="21">
+        <f t="shared" ref="I50:J50" si="55">J25</f>
         <v>18</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" ref="K34:L34" si="43">K11</f>
-        <v>1.05</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" ref="L34" si="44">ROUND(K34*$D34,0)</f>
+      <c r="J50" s="20">
+        <f t="shared" ref="J50" si="56">J11</f>
+        <v>360</v>
+      </c>
+      <c r="K50" s="21">
+        <f t="shared" ref="K50:L50" si="57">L25</f>
         <v>16</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" ref="M34:N34" si="45">M11</f>
-        <v>0.85</v>
-      </c>
-      <c r="N34" s="5">
-        <f t="shared" ref="N34:P34" si="46">ROUND(M34*$D34,0)</f>
+      <c r="L50" s="20">
+        <f t="shared" ref="L50" si="58">L11</f>
+        <v>315</v>
+      </c>
+      <c r="M50" s="21">
+        <f t="shared" ref="M50:N50" si="59">N25</f>
         <v>13</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" ref="O34:P34" si="47">O11</f>
-        <v>0.96</v>
-      </c>
-      <c r="P34" s="5">
-        <f t="shared" si="46"/>
+      <c r="N50" s="20">
+        <f t="shared" ref="N50" si="60">N11</f>
+        <v>255</v>
+      </c>
+      <c r="O50" s="21">
+        <f t="shared" ref="O50" si="61">P25</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="P50" s="20">
+        <f t="shared" ref="P50" si="62">P11</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="5"/>
+      <c r="C51" s="22">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="E35" s="4">
-        <f t="shared" ref="E35" si="48">E12</f>
-        <v>1.08</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="8"/>
+      <c r="D51" s="17">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="E51" s="22">
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="G35" s="4">
-        <f t="shared" ref="G35:I35" si="49">G12</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="8"/>
+      <c r="F51" s="17">
+        <f t="shared" si="12"/>
+        <v>432</v>
+      </c>
+      <c r="G51" s="22">
+        <f t="shared" ref="G51:H51" si="63">H26</f>
         <v>20</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" si="49"/>
-        <v>0.7</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" ref="J35" si="50">ROUND(I35*$D35,0)</f>
+      <c r="H51" s="17">
+        <f t="shared" ref="H51" si="64">H12</f>
+        <v>400</v>
+      </c>
+      <c r="I51" s="22">
+        <f t="shared" ref="I51:J51" si="65">J26</f>
         <v>14</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" ref="K35:L35" si="51">K12</f>
-        <v>0.9</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" ref="L35" si="52">ROUND(K35*$D35,0)</f>
+      <c r="J51" s="17">
+        <f t="shared" ref="J51" si="66">J12</f>
+        <v>280</v>
+      </c>
+      <c r="K51" s="22">
+        <f t="shared" ref="K51:L51" si="67">L26</f>
         <v>18</v>
       </c>
-      <c r="M35" s="4">
-        <f t="shared" ref="M35:N35" si="53">M12</f>
-        <v>1.2</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" ref="N35:P35" si="54">ROUND(M35*$D35,0)</f>
+      <c r="L51" s="17">
+        <f t="shared" ref="L51" si="68">L12</f>
+        <v>360</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" ref="M51:N51" si="69">N26</f>
         <v>24</v>
       </c>
-      <c r="O35" s="4">
-        <f t="shared" ref="O35:P35" si="55">O12</f>
-        <v>0.92</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="54"/>
+      <c r="N51" s="17">
+        <f t="shared" ref="N51" si="70">N12</f>
+        <v>480</v>
+      </c>
+      <c r="O51" s="22">
+        <f t="shared" ref="O51" si="71">P26</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="P51" s="17">
+        <f t="shared" ref="P51" si="72">P12</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="5"/>
+      <c r="C52" s="22">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" ref="E36" si="56">E13</f>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="8"/>
+      <c r="D52" s="17">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="E52" s="22">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" ref="G36:I36" si="57">G13</f>
-        <v>1.05</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="8"/>
+      <c r="F52" s="17">
+        <f t="shared" si="12"/>
+        <v>455.99999999999994</v>
+      </c>
+      <c r="G52" s="22">
+        <f t="shared" ref="G52:H52" si="73">H27</f>
         <v>21</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" si="57"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" ref="J36" si="58">ROUND(I36*$D36,0)</f>
+      <c r="H52" s="17">
+        <f t="shared" ref="H52" si="74">H13</f>
+        <v>420</v>
+      </c>
+      <c r="I52" s="22">
+        <f t="shared" ref="I52:J52" si="75">J27</f>
         <v>22</v>
       </c>
-      <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="59">K13</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" ref="L36" si="60">ROUND(K36*$D36,0)</f>
+      <c r="J52" s="17">
+        <f t="shared" ref="J52" si="76">J13</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="K52" s="22">
+        <f t="shared" ref="K52:L52" si="77">L27</f>
         <v>23</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" ref="M36:N36" si="61">M13</f>
-        <v>1.2</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" ref="N36:P36" si="62">ROUND(M36*$D36,0)</f>
+      <c r="L52" s="17">
+        <f t="shared" ref="L52" si="78">L13</f>
+        <v>459.99999999999994</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" ref="M52:N52" si="79">N27</f>
         <v>24</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" ref="O36:P36" si="63">O13</f>
-        <v>0.9</v>
-      </c>
-      <c r="P36" s="5">
-        <f t="shared" si="62"/>
+      <c r="N52" s="17">
+        <f t="shared" ref="N52" si="80">N13</f>
+        <v>480</v>
+      </c>
+      <c r="O52" s="22">
+        <f t="shared" ref="O52" si="81">P27</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="11">
-        <f>SUM(C29:C36)-8</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUM(E29:E36)-8</f>
-        <v>-1.9800000000000004</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="11">
-        <f>SUM(G29:G36)-8</f>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="11">
-        <f>SUM(I29:I36)-8</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="11">
-        <f>SUM(K29:K36)-8</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="11">
-        <f>SUM(M29:M36)-8</f>
-        <v>-1.9499999999999993</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O37" s="11">
-        <f>SUM(O29:O36)-8</f>
-        <v>-1.9499999999999993</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>26</v>
+      <c r="P52" s="17">
+        <f t="shared" ref="P52" si="82">P13</f>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
   <si>
     <t>Reminiscence Stat Spreadsheet</t>
   </si>
@@ -117,6 +117,12 @@
   <si>
     <t>Lvl 99 to Lvl 1 Divisors</t>
   </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>New Class</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -214,19 +220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -334,40 +327,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -378,10 +454,69 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,60 +833,92 @@
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+    <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="26"/>
+      <c r="K4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="26"/>
+      <c r="O4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="26"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -787,1836 +954,3679 @@
       <c r="P5" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="Q5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="37">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38">
         <v>7000</v>
       </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
         <f>E6*$D6</f>
         <v>7000</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>0.8</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <f>G6*$D6</f>
         <v>5600</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <v>1.2</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="16">
         <f>I6*$D6</f>
         <v>8400</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <v>0.9</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <f>K6*$D6</f>
         <v>6300</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="15">
         <v>0.9</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="16">
         <f>M6*$D6</f>
         <v>6300</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="15">
         <v>1.08</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="16">
         <f>O6*$D6</f>
         <v>7560.0000000000009</v>
       </c>
+      <c r="Q6" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R6" s="16">
+        <f>Q6*$D6</f>
+        <v>8049.9999999999991</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="16">
+        <f>S6*$D6</f>
+        <v>7000</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16">
+        <f>U6*$D6</f>
+        <v>7000</v>
+      </c>
+      <c r="W6" s="15">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16">
+        <f>W6*$D6</f>
+        <v>7000</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="16">
+        <f>Y6*$D6</f>
+        <v>7000</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16">
+        <f>AA6*$D6</f>
+        <v>7000</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="16">
+        <f>AC6*$D6</f>
+        <v>7000</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="16">
+        <f>AE6*$D6</f>
+        <v>7000</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="37">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38">
         <v>1500</v>
       </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
         <f t="shared" ref="F7:H13" si="0">E7*$D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>1.2</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>1.2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="16">
         <f t="shared" ref="J7:J13" si="1">I7*$D7</f>
         <v>1800</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <v>1.2</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="16">
         <f t="shared" ref="L7:L13" si="2">K7*$D7</f>
         <v>1800</v>
       </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" ref="N7:N13" si="3">M7*$D7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
         <f t="shared" ref="P7:P13" si="4">O7*$D7</f>
         <v>0</v>
       </c>
+      <c r="Q7" s="15">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" ref="R7:R13" si="5">Q7*$D7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" ref="T7:T13" si="6">S7*$D7</f>
+        <v>1500</v>
+      </c>
+      <c r="U7" s="15">
+        <v>1</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" ref="V7:V13" si="7">U7*$D7</f>
+        <v>1500</v>
+      </c>
+      <c r="W7" s="15">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" ref="X7:X13" si="8">W7*$D7</f>
+        <v>1500</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" ref="Z7:Z13" si="9">Y7*$D7</f>
+        <v>1500</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="16">
+        <f t="shared" ref="AB7:AB13" si="10">AA7*$D7</f>
+        <v>1500</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="16">
+        <f t="shared" ref="AD7:AD13" si="11">AC7*$D7</f>
+        <v>1500</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="16">
+        <f t="shared" ref="AF7:AF13" si="12">AE7*$D7</f>
+        <v>1500</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
-        <v>300</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="40">
+        <v>300</v>
+      </c>
+      <c r="E8" s="31">
         <v>0.95</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>0.7</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="12">
         <v>0.65</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="12">
         <v>0.8</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="12">
         <v>1.05</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="12">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <f t="shared" si="4"/>
         <v>338.99999999999994</v>
       </c>
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="U8" s="12">
+        <v>1</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="X8" s="13">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="13">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="13">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="13">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>300</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40">
+        <v>300</v>
+      </c>
+      <c r="E9" s="31">
         <v>0.95</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>0.75</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="12">
         <v>0.9</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="12">
         <v>0.8</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="12">
         <v>0.85</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="12">
         <v>1.06</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
+      <c r="Q9" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="U9" s="12">
+        <v>1</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="W9" s="12">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="13">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="13">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <v>300</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <v>300</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>1.2</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>1.05</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="16">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <v>1.2</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="16">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>1</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="U10" s="15">
+        <v>1</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="W10" s="15">
+        <v>1</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="16">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="16">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="16">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="20">
-        <v>300</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>300</v>
+      </c>
+      <c r="E11" s="30">
         <v>0.9</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>1.2</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>1.2</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="15">
         <v>1.05</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="16">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="15">
         <v>0.85</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="16">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="15">
         <v>0.96</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="16">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
+      <c r="Q11" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="U11" s="15">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="W11" s="15">
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="16">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="16">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="16">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="16">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40">
         <v>400</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="31">
         <v>1.08</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="12">
         <v>0.7</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="12">
         <v>0.9</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="13">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="12">
         <v>1.2</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="13">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="12">
         <v>0.92</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="13">
         <f t="shared" si="4"/>
         <v>368</v>
       </c>
+      <c r="Q12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="13">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="13">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="13">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="13">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="13">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40">
         <v>400</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="31">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>455.99999999999994</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>1.05</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <f t="shared" si="1"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="13">
         <f t="shared" si="2"/>
         <v>459.99999999999994</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="12">
         <v>1.2</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="13">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="12">
         <v>0.9</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="13">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
+      <c r="Q13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="W13" s="12">
+        <v>1</v>
+      </c>
+      <c r="X13" s="13">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="13">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="13">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="13">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="13">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="41">
         <f>SUM(C6:C13)-8</f>
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="32">
         <f>SUM(E6:E13)-8</f>
         <v>-1.9800000000000004</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f>SUM(G6:G13)-8</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f>SUM(I6:I13)-8</f>
         <v>0</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f>SUM(K6:K13)-8</f>
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f>SUM(M6:M13)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <f>SUM(O6:O13)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="Q14" s="4">
+        <f>SUM(Q6:Q13)-8</f>
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM(S6:S13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="4">
+        <f>SUM(U6:U13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W14" s="4">
+        <f>SUM(W6:W13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM(Y6:Y13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM(AA6:AA13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM(AC6:AC13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM(AE6:AE13)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="44" t="str">
         <f>C4</f>
         <v>Average</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="str">
+      <c r="D18" s="45"/>
+      <c r="E18" s="43" t="str">
         <f>E4</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="str">
+      <c r="F18" s="24"/>
+      <c r="G18" s="23" t="str">
         <f>G4</f>
         <v>Scholar</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13" t="str">
+      <c r="H18" s="24"/>
+      <c r="I18" s="23" t="str">
         <f>I4</f>
         <v>White Mage</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="13" t="str">
+      <c r="J18" s="24"/>
+      <c r="K18" s="23" t="str">
         <f>K4</f>
         <v>Black Mage</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13" t="str">
+      <c r="L18" s="24"/>
+      <c r="M18" s="23" t="str">
         <f>M4</f>
         <v>Archer</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="13" t="str">
+      <c r="N18" s="24"/>
+      <c r="O18" s="23" t="str">
         <f>O4</f>
         <v>Warrior</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="23" t="str">
+        <f>Q4</f>
+        <v>Sheep</v>
+      </c>
+      <c r="R18" s="24"/>
+      <c r="S18" s="23" t="str">
+        <f>S4</f>
+        <v>New Class</v>
+      </c>
+      <c r="T18" s="24"/>
+      <c r="U18" s="23" t="str">
+        <f>U4</f>
+        <v>New Class</v>
+      </c>
+      <c r="V18" s="24"/>
+      <c r="W18" s="23" t="str">
+        <f>W4</f>
+        <v>New Class</v>
+      </c>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="23" t="str">
+        <f>Y4</f>
+        <v>New Class</v>
+      </c>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="23" t="str">
+        <f>AA4</f>
+        <v>New Class</v>
+      </c>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="23" t="str">
+        <f>AC4</f>
+        <v>New Class</v>
+      </c>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="23" t="str">
+        <f>AE4</f>
+        <v>New Class</v>
+      </c>
+      <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="Q19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="19">
-        <f>C6</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D6/C32</f>
+      <c r="C20" s="37">
+        <f t="shared" ref="C20:C27" si="13">C6</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:D27" si="14">D6/C32</f>
         <v>70</v>
       </c>
-      <c r="E20" s="19">
-        <f>E6</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="20">
-        <f>ROUND(E20*$D20,0)</f>
+      <c r="E20" s="30">
+        <f t="shared" ref="E20:E27" si="15">E6</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:F27" si="16">ROUND(E20*$D20,0)</f>
         <v>70</v>
       </c>
-      <c r="G20" s="19">
-        <f>G6</f>
+      <c r="G20" s="15">
+        <f t="shared" ref="G20:G27" si="17">G6</f>
         <v>0.8</v>
       </c>
-      <c r="H20" s="20">
-        <f>ROUND(G20*$D20,0)</f>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20:H27" si="18">ROUND(G20*$D20,0)</f>
         <v>56</v>
       </c>
-      <c r="I20" s="19">
-        <f>I6</f>
+      <c r="I20" s="15">
+        <f t="shared" ref="I20:I27" si="19">I6</f>
         <v>1.2</v>
       </c>
-      <c r="J20" s="20">
-        <f>ROUND(I20*$D20,0)</f>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20:J27" si="20">ROUND(I20*$D20,0)</f>
         <v>84</v>
       </c>
-      <c r="K20" s="19">
-        <f>K6</f>
+      <c r="K20" s="15">
+        <f t="shared" ref="K20:K27" si="21">K6</f>
         <v>0.9</v>
       </c>
-      <c r="L20" s="20">
-        <f>ROUND(K20*$D20,0)</f>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20:L27" si="22">ROUND(K20*$D20,0)</f>
         <v>63</v>
       </c>
-      <c r="M20" s="19">
-        <f>M6</f>
+      <c r="M20" s="15">
+        <f t="shared" ref="M20:M27" si="23">M6</f>
         <v>0.9</v>
       </c>
-      <c r="N20" s="20">
-        <f>ROUND(M20*$D20,0)</f>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20:N27" si="24">ROUND(M20*$D20,0)</f>
         <v>63</v>
       </c>
-      <c r="O20" s="19">
-        <f>O6</f>
+      <c r="O20" s="15">
+        <f t="shared" ref="O20:Q27" si="25">O6</f>
         <v>1.08</v>
       </c>
-      <c r="P20" s="20">
-        <f>ROUND(O20*$D20,0)</f>
+      <c r="P20" s="16">
+        <f t="shared" ref="P20:R27" si="26">ROUND(O20*$D20,0)</f>
         <v>76</v>
       </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="25"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="26"/>
+        <v>81</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" ref="S20:T20" si="27">S6</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" ref="T20:V20" si="28">ROUND(S20*$D20,0)</f>
+        <v>70</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" ref="U20:V20" si="29">U6</f>
+        <v>1</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="28"/>
+        <v>70</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" ref="W20:X20" si="30">W6</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" ref="X20" si="31">ROUND(W20*$D20,0)</f>
+        <v>70</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" ref="Y20:Z20" si="32">Y6</f>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20:AB20" si="33">ROUND(Y20*$D20,0)</f>
+        <v>70</v>
+      </c>
+      <c r="AA20" s="15">
+        <f t="shared" ref="AA20:AB20" si="34">AA6</f>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="33"/>
+        <v>70</v>
+      </c>
+      <c r="AC20" s="15">
+        <f t="shared" ref="AC20:AD20" si="35">AC6</f>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" ref="AD20" si="36">ROUND(AC20*$D20,0)</f>
+        <v>70</v>
+      </c>
+      <c r="AE20" s="15">
+        <f t="shared" ref="AE20:AF20" si="37">AE6</f>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" ref="AF20" si="38">ROUND(AE20*$D20,0)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="19">
-        <f>C7</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D7/C33</f>
-        <v>15</v>
-      </c>
-      <c r="E21" s="19">
-        <f>E7</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="20">
-        <f>ROUND(E21*$D21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <f>G7</f>
+      <c r="C21" s="37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
-      <c r="H21" s="20">
-        <f>ROUND(G21*$D21,0)</f>
+      <c r="H21" s="16">
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I21" s="19">
-        <f>I7</f>
+      <c r="I21" s="15">
+        <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
-      <c r="J21" s="20">
-        <f>ROUND(I21*$D21,0)</f>
+      <c r="J21" s="16">
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K21" s="19">
-        <f>K7</f>
+      <c r="K21" s="15">
+        <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
-      <c r="L21" s="20">
-        <f>ROUND(K21*$D21,0)</f>
+      <c r="L21" s="16">
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M21" s="19">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="20">
-        <f>ROUND(M21*$D21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <f>O7</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="20">
-        <f>ROUND(O21*$D21,0)</f>
-        <v>0</v>
+      <c r="M21" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" ref="S21:T21" si="39">S7</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="16">
+        <f t="shared" ref="T21:V21" si="40">ROUND(S21*$D21,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" ref="U21:V21" si="41">U7</f>
+        <v>1</v>
+      </c>
+      <c r="V21" s="16">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" ref="W21:X21" si="42">W7</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" ref="X21" si="43">ROUND(W21*$D21,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" ref="Y21:Z21" si="44">Y7</f>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" ref="Z21:AB21" si="45">ROUND(Y21*$D21,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA21" s="15">
+        <f t="shared" ref="AA21:AB21" si="46">AA7</f>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="AC21" s="15">
+        <f t="shared" ref="AC21:AD21" si="47">AC7</f>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="16">
+        <f t="shared" ref="AD21" si="48">ROUND(AC21*$D21,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE21" s="15">
+        <f t="shared" ref="AE21:AF21" si="49">AE7</f>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="16">
+        <f t="shared" ref="AF21" si="50">ROUND(AE21*$D21,0)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="16">
-        <f>C8</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="17">
-        <f>D8/C34</f>
-        <v>15</v>
-      </c>
-      <c r="E22" s="16">
-        <f>E8</f>
+      <c r="C22" s="39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
-      <c r="F22" s="17">
-        <f>ROUND(E22*$D22,0)</f>
+      <c r="F22" s="13">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="G22" s="16">
-        <f>G8</f>
+      <c r="G22" s="12">
+        <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
-      <c r="H22" s="17">
-        <f>ROUND(G22*$D22,0)</f>
+      <c r="H22" s="13">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="I22" s="16">
-        <f>I8</f>
+      <c r="I22" s="12">
+        <f t="shared" si="19"/>
         <v>0.65</v>
       </c>
-      <c r="J22" s="17">
-        <f>ROUND(I22*$D22,0)</f>
+      <c r="J22" s="13">
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="K22" s="16">
-        <f>K8</f>
+      <c r="K22" s="12">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="L22" s="17">
-        <f>ROUND(K22*$D22,0)</f>
+      <c r="L22" s="13">
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="M22" s="16">
-        <f>M8</f>
+      <c r="M22" s="12">
+        <f t="shared" si="23"/>
         <v>1.05</v>
       </c>
-      <c r="N22" s="17">
-        <f>ROUND(M22*$D22,0)</f>
+      <c r="N22" s="13">
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="O22" s="16">
-        <f>O8</f>
+      <c r="O22" s="12">
+        <f t="shared" si="25"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="P22" s="17">
-        <f>ROUND(O22*$D22,0)</f>
+      <c r="P22" s="13">
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="13">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S22" s="12">
+        <f t="shared" ref="S22:T22" si="51">S8</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="13">
+        <f t="shared" ref="T22:V22" si="52">ROUND(S22*$D22,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" ref="U22:V22" si="53">U8</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="13">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" ref="W22:X22" si="54">W8</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="13">
+        <f t="shared" ref="X22" si="55">ROUND(W22*$D22,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y22" s="12">
+        <f t="shared" ref="Y22:Z22" si="56">Y8</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="13">
+        <f t="shared" ref="Z22:AB22" si="57">ROUND(Y22*$D22,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA22" s="12">
+        <f t="shared" ref="AA22:AB22" si="58">AA8</f>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="AC22" s="12">
+        <f t="shared" ref="AC22:AD22" si="59">AC8</f>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="13">
+        <f t="shared" ref="AD22" si="60">ROUND(AC22*$D22,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE22" s="12">
+        <f t="shared" ref="AE22:AF22" si="61">AE8</f>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="13">
+        <f t="shared" ref="AF22" si="62">ROUND(AE22*$D22,0)</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16">
-        <f>C9</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="17">
-        <f>D9/C35</f>
-        <v>15</v>
-      </c>
-      <c r="E23" s="16">
-        <f>E9</f>
+      <c r="C23" s="39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
-      <c r="F23" s="17">
-        <f>ROUND(E23*$D23,0)</f>
+      <c r="F23" s="13">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="G23" s="16">
-        <f>G9</f>
+      <c r="G23" s="12">
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="H23" s="17">
-        <f>ROUND(G23*$D23,0)</f>
+      <c r="H23" s="13">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="I23" s="16">
-        <f>I9</f>
+      <c r="I23" s="12">
+        <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
-      <c r="J23" s="17">
-        <f>ROUND(I23*$D23,0)</f>
+      <c r="J23" s="13">
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K23" s="16">
-        <f>K9</f>
+      <c r="K23" s="12">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="L23" s="17">
-        <f>ROUND(K23*$D23,0)</f>
+      <c r="L23" s="13">
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="M23" s="16">
-        <f>M9</f>
+      <c r="M23" s="12">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="N23" s="17">
-        <f>ROUND(M23*$D23,0)</f>
+      <c r="N23" s="13">
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="O23" s="16">
-        <f>O9</f>
+      <c r="O23" s="12">
+        <f t="shared" si="25"/>
         <v>1.06</v>
       </c>
-      <c r="P23" s="17">
-        <f>ROUND(O23*$D23,0)</f>
+      <c r="P23" s="13">
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R23" s="13">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S23" s="12">
+        <f t="shared" ref="S23:T23" si="63">S9</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="13">
+        <f t="shared" ref="T23:V23" si="64">ROUND(S23*$D23,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" ref="U23:V23" si="65">U9</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="13">
+        <f t="shared" si="64"/>
+        <v>15</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" ref="W23:X23" si="66">W9</f>
+        <v>1</v>
+      </c>
+      <c r="X23" s="13">
+        <f t="shared" ref="X23" si="67">ROUND(W23*$D23,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y23" s="12">
+        <f t="shared" ref="Y23:Z23" si="68">Y9</f>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" ref="Z23:AB23" si="69">ROUND(Y23*$D23,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA23" s="12">
+        <f t="shared" ref="AA23:AB23" si="70">AA9</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="69"/>
+        <v>15</v>
+      </c>
+      <c r="AC23" s="12">
+        <f t="shared" ref="AC23:AD23" si="71">AC9</f>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="13">
+        <f t="shared" ref="AD23" si="72">ROUND(AC23*$D23,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE23" s="12">
+        <f t="shared" ref="AE23:AF23" si="73">AE9</f>
+        <v>1</v>
+      </c>
+      <c r="AF23" s="13">
+        <f t="shared" ref="AF23" si="74">ROUND(AE23*$D23,0)</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="20">
-        <f>D10/C36</f>
-        <v>15</v>
-      </c>
-      <c r="E24" s="19">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="20">
-        <f>ROUND(E24*$D24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <f>G10</f>
+      <c r="C24" s="37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
-      <c r="H24" s="20">
-        <f>ROUND(G24*$D24,0)</f>
+      <c r="H24" s="16">
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I24" s="19">
-        <f>I10</f>
+      <c r="I24" s="15">
+        <f t="shared" si="19"/>
         <v>1.05</v>
       </c>
-      <c r="J24" s="20">
-        <f>ROUND(I24*$D24,0)</f>
+      <c r="J24" s="16">
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K24" s="19">
-        <f>K10</f>
+      <c r="K24" s="15">
+        <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
-      <c r="L24" s="20">
-        <f>ROUND(K24*$D24,0)</f>
+      <c r="L24" s="16">
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M24" s="19">
-        <f>M10</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="20">
-        <f>ROUND(M24*$D24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="19">
-        <f>O10</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="20">
-        <f>ROUND(O24*$D24,0)</f>
-        <v>0</v>
+      <c r="M24" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <f t="shared" ref="S24:T24" si="75">S10</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" ref="T24:V24" si="76">ROUND(S24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U24" s="15">
+        <f t="shared" ref="U24:V24" si="77">U10</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="76"/>
+        <v>15</v>
+      </c>
+      <c r="W24" s="15">
+        <f t="shared" ref="W24:X24" si="78">W10</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" ref="X24" si="79">ROUND(W24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y24" s="15">
+        <f t="shared" ref="Y24:Z24" si="80">Y10</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" ref="Z24:AB24" si="81">ROUND(Y24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA24" s="15">
+        <f t="shared" ref="AA24:AB24" si="82">AA10</f>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="AC24" s="15">
+        <f t="shared" ref="AC24:AD24" si="83">AC10</f>
+        <v>1</v>
+      </c>
+      <c r="AD24" s="16">
+        <f t="shared" ref="AD24" si="84">ROUND(AC24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE24" s="15">
+        <f t="shared" ref="AE24:AF24" si="85">AE10</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="16">
+        <f t="shared" ref="AF24" si="86">ROUND(AE24*$D24,0)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="19">
-        <f>C11</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="20">
-        <f>D11/C37</f>
-        <v>15</v>
-      </c>
-      <c r="E25" s="19">
-        <f>E11</f>
+      <c r="C25" s="37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
-      <c r="F25" s="20">
-        <f>ROUND(E25*$D25,0)</f>
+      <c r="F25" s="16">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="G25" s="19">
-        <f>G11</f>
+      <c r="G25" s="15">
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
-      <c r="H25" s="20">
-        <f>ROUND(G25*$D25,0)</f>
+      <c r="H25" s="16">
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I25" s="19">
-        <f>I11</f>
+      <c r="I25" s="15">
+        <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
-      <c r="J25" s="20">
-        <f>ROUND(I25*$D25,0)</f>
+      <c r="J25" s="16">
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K25" s="19">
-        <f>K11</f>
+      <c r="K25" s="15">
+        <f t="shared" si="21"/>
         <v>1.05</v>
       </c>
-      <c r="L25" s="20">
-        <f>ROUND(K25*$D25,0)</f>
+      <c r="L25" s="16">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="M25" s="19">
-        <f>M11</f>
+      <c r="M25" s="15">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="N25" s="20">
-        <f>ROUND(M25*$D25,0)</f>
+      <c r="N25" s="16">
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="O25" s="19">
-        <f>O11</f>
+      <c r="O25" s="15">
+        <f t="shared" si="25"/>
         <v>0.96</v>
       </c>
-      <c r="P25" s="20">
-        <f>ROUND(O25*$D25,0)</f>
+      <c r="P25" s="16">
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+      <c r="R25" s="16">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" ref="S25:T25" si="87">S11</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" ref="T25:V25" si="88">ROUND(S25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" ref="U25:V25" si="89">U11</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="16">
+        <f t="shared" si="88"/>
+        <v>15</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" ref="W25:X25" si="90">W11</f>
+        <v>1</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" ref="X25" si="91">ROUND(W25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y25" s="15">
+        <f t="shared" ref="Y25:Z25" si="92">Y11</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" ref="Z25:AB25" si="93">ROUND(Y25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA25" s="15">
+        <f t="shared" ref="AA25:AB25" si="94">AA11</f>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="93"/>
+        <v>15</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" ref="AC25:AD25" si="95">AC11</f>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="16">
+        <f t="shared" ref="AD25" si="96">ROUND(AC25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE25" s="15">
+        <f t="shared" ref="AE25:AF25" si="97">AE11</f>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="16">
+        <f t="shared" ref="AF25" si="98">ROUND(AE25*$D25,0)</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="16">
-        <f>C12</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="17">
-        <f>D12/C38</f>
+      <c r="C26" s="39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="E26" s="16">
-        <f>E12</f>
+      <c r="E26" s="31">
+        <f t="shared" si="15"/>
         <v>1.08</v>
       </c>
-      <c r="F26" s="17">
-        <f>ROUND(E26*$D26,0)</f>
+      <c r="F26" s="13">
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
-      <c r="G26" s="16">
-        <f>G12</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="17">
-        <f>ROUND(G26*$D26,0)</f>
+      <c r="G26" s="12">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="I26" s="16">
-        <f>I12</f>
+      <c r="I26" s="12">
+        <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
-      <c r="J26" s="17">
-        <f>ROUND(I26*$D26,0)</f>
+      <c r="J26" s="13">
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K26" s="16">
-        <f>K12</f>
+      <c r="K26" s="12">
+        <f t="shared" si="21"/>
         <v>0.9</v>
       </c>
-      <c r="L26" s="17">
-        <f>ROUND(K26*$D26,0)</f>
+      <c r="L26" s="13">
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M26" s="16">
-        <f>M12</f>
+      <c r="M26" s="12">
+        <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
-      <c r="N26" s="17">
-        <f>ROUND(M26*$D26,0)</f>
+      <c r="N26" s="13">
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="O26" s="16">
-        <f>O12</f>
+      <c r="O26" s="12">
+        <f t="shared" si="25"/>
         <v>0.92</v>
       </c>
-      <c r="P26" s="17">
-        <f>ROUND(O26*$D26,0)</f>
+      <c r="P26" s="13">
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="R26" s="13">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="S26" s="12">
+        <f t="shared" ref="S26:T26" si="99">S12</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="13">
+        <f t="shared" ref="T26:V26" si="100">ROUND(S26*$D26,0)</f>
+        <v>20</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" ref="U26:V26" si="101">U12</f>
+        <v>1</v>
+      </c>
+      <c r="V26" s="13">
+        <f t="shared" si="100"/>
+        <v>20</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" ref="W26:X26" si="102">W12</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="13">
+        <f t="shared" ref="X26" si="103">ROUND(W26*$D26,0)</f>
+        <v>20</v>
+      </c>
+      <c r="Y26" s="12">
+        <f t="shared" ref="Y26:Z26" si="104">Y12</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="13">
+        <f t="shared" ref="Z26:AB26" si="105">ROUND(Y26*$D26,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA26" s="12">
+        <f t="shared" ref="AA26:AB26" si="106">AA12</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="13">
+        <f t="shared" si="105"/>
+        <v>20</v>
+      </c>
+      <c r="AC26" s="12">
+        <f t="shared" ref="AC26:AD26" si="107">AC12</f>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="13">
+        <f t="shared" ref="AD26" si="108">ROUND(AC26*$D26,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AE26" s="12">
+        <f t="shared" ref="AE26:AF26" si="109">AE12</f>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="13">
+        <f t="shared" ref="AF26" si="110">ROUND(AE26*$D26,0)</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="16">
-        <f>C13</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="17">
-        <f>D13/C39</f>
+      <c r="C27" s="39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="E27" s="16">
-        <f>E13</f>
+      <c r="E27" s="31">
+        <f t="shared" si="15"/>
         <v>1.1399999999999999</v>
       </c>
-      <c r="F27" s="17">
-        <f>ROUND(E27*$D27,0)</f>
+      <c r="F27" s="13">
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="G27" s="16">
-        <f>G13</f>
+      <c r="G27" s="12">
+        <f t="shared" si="17"/>
         <v>1.05</v>
       </c>
-      <c r="H27" s="17">
-        <f>ROUND(G27*$D27,0)</f>
+      <c r="H27" s="13">
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="I27" s="16">
-        <f>I13</f>
+      <c r="I27" s="12">
+        <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J27" s="17">
-        <f>ROUND(I27*$D27,0)</f>
+      <c r="J27" s="13">
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="K27" s="16">
-        <f>K13</f>
+      <c r="K27" s="12">
+        <f t="shared" si="21"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="L27" s="17">
-        <f>ROUND(K27*$D27,0)</f>
+      <c r="L27" s="13">
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="M27" s="16">
-        <f>M13</f>
+      <c r="M27" s="12">
+        <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
-      <c r="N27" s="17">
-        <f>ROUND(M27*$D27,0)</f>
+      <c r="N27" s="13">
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="O27" s="16">
-        <f>O13</f>
+      <c r="O27" s="12">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="P27" s="17">
-        <f>ROUND(O27*$D27,0)</f>
+      <c r="P27" s="13">
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="S27" s="12">
+        <f t="shared" ref="S27:T27" si="111">S13</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="13">
+        <f t="shared" ref="T27:V27" si="112">ROUND(S27*$D27,0)</f>
+        <v>20</v>
+      </c>
+      <c r="U27" s="12">
+        <f t="shared" ref="U27:V27" si="113">U13</f>
+        <v>1</v>
+      </c>
+      <c r="V27" s="13">
+        <f t="shared" si="112"/>
+        <v>20</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" ref="W27:X27" si="114">W13</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="13">
+        <f t="shared" ref="X27" si="115">ROUND(W27*$D27,0)</f>
+        <v>20</v>
+      </c>
+      <c r="Y27" s="12">
+        <f t="shared" ref="Y27:Z27" si="116">Y13</f>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="13">
+        <f t="shared" ref="Z27:AB27" si="117">ROUND(Y27*$D27,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" ref="AA27:AB27" si="118">AA13</f>
+        <v>1</v>
+      </c>
+      <c r="AB27" s="13">
+        <f t="shared" si="117"/>
+        <v>20</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" ref="AC27:AD27" si="119">AC13</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="13">
+        <f t="shared" ref="AD27" si="120">ROUND(AC27*$D27,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AE27" s="12">
+        <f t="shared" ref="AE27:AF27" si="121">AE13</f>
+        <v>1</v>
+      </c>
+      <c r="AF27" s="13">
+        <f t="shared" ref="AF27" si="122">ROUND(AE27*$D27,0)</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="41">
         <f>SUM(C20:C27)-8</f>
         <v>0</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="32">
         <f>SUM(E20:E27)-8</f>
         <v>-1.9800000000000004</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f>SUM(G20:G27)-8</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f>SUM(I20:I27)-8</f>
         <v>0</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <f>SUM(K20:K27)-8</f>
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <f>SUM(M20:M27)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <f>SUM(O20:O27)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="Q28" s="4">
+        <f>SUM(Q20:Q27)-8</f>
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="4">
+        <f>SUM(S20:S27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" s="4">
+        <f>SUM(U20:U27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="4">
+        <f>SUM(W20:W27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>SUM(Y20:Y27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="4">
+        <f>SUM(AA20:AA27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" s="4">
+        <f>SUM(AC20:AC27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE28" s="4">
+        <f>SUM(AE20:AE27)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="20"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="C43" s="13" t="str">
+      <c r="C43" s="44" t="str">
         <f>C18</f>
         <v>Average</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13" t="str">
-        <f t="shared" ref="E43:P43" si="5">E18</f>
+      <c r="D43" s="45"/>
+      <c r="E43" s="43" t="str">
+        <f t="shared" ref="E43" si="123">E18</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13" t="str">
-        <f t="shared" ref="G43:P43" si="6">G18</f>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23" t="str">
+        <f t="shared" ref="G43" si="124">G18</f>
         <v>Scholar</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="13" t="str">
-        <f t="shared" ref="I43:P43" si="7">I18</f>
+      <c r="H43" s="24"/>
+      <c r="I43" s="23" t="str">
+        <f t="shared" ref="I43" si="125">I18</f>
         <v>White Mage</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="13" t="str">
-        <f t="shared" ref="K43:P43" si="8">K18</f>
+      <c r="J43" s="24"/>
+      <c r="K43" s="23" t="str">
+        <f t="shared" ref="K43" si="126">K18</f>
         <v>Black Mage</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="13" t="str">
-        <f t="shared" ref="M43:P43" si="9">M18</f>
+      <c r="L43" s="24"/>
+      <c r="M43" s="23" t="str">
+        <f t="shared" ref="M43" si="127">M18</f>
         <v>Archer</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="13" t="str">
-        <f t="shared" ref="O43:P43" si="10">O18</f>
+      <c r="N43" s="24"/>
+      <c r="O43" s="23" t="str">
+        <f t="shared" ref="O43:S43" si="128">O18</f>
         <v>Warrior</v>
       </c>
-      <c r="P43" s="14"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="23" t="str">
+        <f t="shared" si="128"/>
+        <v>Sheep</v>
+      </c>
+      <c r="R43" s="24"/>
+      <c r="S43" s="23" t="str">
+        <f t="shared" si="128"/>
+        <v>New Class</v>
+      </c>
+      <c r="T43" s="24"/>
+      <c r="U43" s="23" t="str">
+        <f t="shared" ref="U43:V43" si="129">U18</f>
+        <v>New Class</v>
+      </c>
+      <c r="V43" s="24"/>
+      <c r="W43" s="23" t="str">
+        <f t="shared" ref="W43:X43" si="130">W18</f>
+        <v>New Class</v>
+      </c>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="23" t="str">
+        <f t="shared" ref="Y43:Z43" si="131">Y18</f>
+        <v>New Class</v>
+      </c>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="23" t="str">
+        <f t="shared" ref="AA43:AB43" si="132">AA18</f>
+        <v>New Class</v>
+      </c>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="23" t="str">
+        <f t="shared" ref="AC43:AD43" si="133">AC18</f>
+        <v>New Class</v>
+      </c>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="23" t="str">
+        <f t="shared" ref="AE43:AF43" si="134">AE18</f>
+        <v>New Class</v>
+      </c>
+      <c r="AF43" s="24"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C44" s="10" t="s">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C44" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="47" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="N44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="10" t="s">
+      <c r="O44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="P44" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="Q44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF44" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="50">
         <f>D20</f>
         <v>70</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="38">
         <f>D6</f>
         <v>7000</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="48">
         <f>F20</f>
         <v>70</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="16">
         <f>F6</f>
         <v>7000</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="17">
         <f>H20</f>
         <v>56</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="16">
         <f>H6</f>
         <v>5600</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="17">
         <f>J20</f>
         <v>84</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="16">
         <f>J6</f>
         <v>8400</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="17">
         <f>L20</f>
         <v>63</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="16">
         <f>L6</f>
         <v>6300</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="17">
         <f>N20</f>
         <v>63</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="16">
         <f>N6</f>
         <v>6300</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="17">
         <f>P20</f>
         <v>76</v>
       </c>
-      <c r="P45" s="20">
+      <c r="P45" s="16">
         <f>P6</f>
         <v>7560.0000000000009</v>
       </c>
+      <c r="Q45" s="17">
+        <f>R20</f>
+        <v>81</v>
+      </c>
+      <c r="R45" s="16">
+        <f>R6</f>
+        <v>8049.9999999999991</v>
+      </c>
+      <c r="S45" s="17">
+        <f>T20</f>
+        <v>70</v>
+      </c>
+      <c r="T45" s="16">
+        <f>T6</f>
+        <v>7000</v>
+      </c>
+      <c r="U45" s="17">
+        <f>V20</f>
+        <v>70</v>
+      </c>
+      <c r="V45" s="16">
+        <f>V6</f>
+        <v>7000</v>
+      </c>
+      <c r="W45" s="17">
+        <f>X20</f>
+        <v>70</v>
+      </c>
+      <c r="X45" s="16">
+        <f>X6</f>
+        <v>7000</v>
+      </c>
+      <c r="Y45" s="17">
+        <f>Z20</f>
+        <v>70</v>
+      </c>
+      <c r="Z45" s="16">
+        <f>Z6</f>
+        <v>7000</v>
+      </c>
+      <c r="AA45" s="17">
+        <f>AB20</f>
+        <v>70</v>
+      </c>
+      <c r="AB45" s="16">
+        <f>AB6</f>
+        <v>7000</v>
+      </c>
+      <c r="AC45" s="17">
+        <f>AD20</f>
+        <v>70</v>
+      </c>
+      <c r="AD45" s="16">
+        <f>AD6</f>
+        <v>7000</v>
+      </c>
+      <c r="AE45" s="17">
+        <f>AF20</f>
+        <v>70</v>
+      </c>
+      <c r="AF45" s="16">
+        <f>AF6</f>
+        <v>7000</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="21">
-        <f t="shared" ref="C46:E52" si="11">D21</f>
-        <v>15</v>
-      </c>
-      <c r="D46" s="20">
-        <f t="shared" ref="D46:F52" si="12">D7</f>
+      <c r="C46" s="50">
+        <f t="shared" ref="C46:E52" si="135">D21</f>
+        <v>15</v>
+      </c>
+      <c r="D46" s="38">
+        <f t="shared" ref="D46:F52" si="136">D7</f>
         <v>1500</v>
       </c>
-      <c r="E46" s="21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="21">
-        <f t="shared" ref="G46:H46" si="13">H21</f>
+      <c r="E46" s="48">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" ref="G46" si="137">H21</f>
         <v>18</v>
       </c>
-      <c r="H46" s="20">
-        <f t="shared" ref="H46" si="14">H7</f>
+      <c r="H46" s="16">
+        <f t="shared" ref="H46" si="138">H7</f>
         <v>1800</v>
       </c>
-      <c r="I46" s="21">
-        <f t="shared" ref="I46:J46" si="15">J21</f>
+      <c r="I46" s="17">
+        <f t="shared" ref="I46" si="139">J21</f>
         <v>18</v>
       </c>
-      <c r="J46" s="20">
-        <f t="shared" ref="J46" si="16">J7</f>
+      <c r="J46" s="16">
+        <f t="shared" ref="J46" si="140">J7</f>
         <v>1800</v>
       </c>
-      <c r="K46" s="21">
-        <f t="shared" ref="K46:L46" si="17">L21</f>
+      <c r="K46" s="17">
+        <f t="shared" ref="K46" si="141">L21</f>
         <v>18</v>
       </c>
-      <c r="L46" s="20">
-        <f t="shared" ref="L46" si="18">L7</f>
+      <c r="L46" s="16">
+        <f t="shared" ref="L46" si="142">L7</f>
         <v>1800</v>
       </c>
-      <c r="M46" s="21">
-        <f t="shared" ref="M46:N46" si="19">N21</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="20">
-        <f t="shared" ref="N46" si="20">N7</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="21">
-        <f t="shared" ref="O46" si="21">P21</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="20">
-        <f t="shared" ref="P46" si="22">P7</f>
-        <v>0</v>
+      <c r="M46" s="17">
+        <f t="shared" ref="M46" si="143">N21</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="16">
+        <f t="shared" ref="N46" si="144">N7</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="17">
+        <f t="shared" ref="O46" si="145">P21</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="16">
+        <f t="shared" ref="P46:R46" si="146">P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="17">
+        <f t="shared" ref="Q46:Q52" si="147">R21</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="16">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="17">
+        <f t="shared" ref="S46:S52" si="148">T21</f>
+        <v>15</v>
+      </c>
+      <c r="T46" s="16">
+        <f t="shared" ref="T46:V46" si="149">T7</f>
+        <v>1500</v>
+      </c>
+      <c r="U46" s="17">
+        <f t="shared" ref="U46:U52" si="150">V21</f>
+        <v>15</v>
+      </c>
+      <c r="V46" s="16">
+        <f t="shared" si="149"/>
+        <v>1500</v>
+      </c>
+      <c r="W46" s="17">
+        <f t="shared" ref="W46:W52" si="151">X21</f>
+        <v>15</v>
+      </c>
+      <c r="X46" s="16">
+        <f t="shared" ref="X46" si="152">X7</f>
+        <v>1500</v>
+      </c>
+      <c r="Y46" s="17">
+        <f t="shared" ref="Y46:Y52" si="153">Z21</f>
+        <v>15</v>
+      </c>
+      <c r="Z46" s="16">
+        <f t="shared" ref="Z46:AB46" si="154">Z7</f>
+        <v>1500</v>
+      </c>
+      <c r="AA46" s="17">
+        <f t="shared" ref="AA46:AA52" si="155">AB21</f>
+        <v>15</v>
+      </c>
+      <c r="AB46" s="16">
+        <f t="shared" si="154"/>
+        <v>1500</v>
+      </c>
+      <c r="AC46" s="17">
+        <f t="shared" ref="AC46:AC52" si="156">AD21</f>
+        <v>15</v>
+      </c>
+      <c r="AD46" s="16">
+        <f t="shared" ref="AD46" si="157">AD7</f>
+        <v>1500</v>
+      </c>
+      <c r="AE46" s="17">
+        <f t="shared" ref="AE46:AE52" si="158">AF21</f>
+        <v>15</v>
+      </c>
+      <c r="AF46" s="16">
+        <f t="shared" ref="AF46" si="159">AF7</f>
+        <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="22">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="D47" s="17">
-        <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="E47" s="22">
-        <f t="shared" si="11"/>
+      <c r="C47" s="51">
+        <f t="shared" si="135"/>
+        <v>15</v>
+      </c>
+      <c r="D47" s="40">
+        <f t="shared" si="136"/>
+        <v>300</v>
+      </c>
+      <c r="E47" s="49">
+        <f t="shared" si="135"/>
         <v>14</v>
       </c>
-      <c r="F47" s="17">
-        <f t="shared" si="12"/>
+      <c r="F47" s="13">
+        <f t="shared" si="136"/>
         <v>285</v>
       </c>
-      <c r="G47" s="22">
-        <f t="shared" ref="G47:H47" si="23">H22</f>
+      <c r="G47" s="18">
+        <f t="shared" ref="G47" si="160">H22</f>
         <v>11</v>
       </c>
-      <c r="H47" s="17">
-        <f t="shared" ref="H47" si="24">H8</f>
+      <c r="H47" s="13">
+        <f t="shared" ref="H47" si="161">H8</f>
         <v>210</v>
       </c>
-      <c r="I47" s="22">
-        <f t="shared" ref="I47:J47" si="25">J22</f>
+      <c r="I47" s="18">
+        <f t="shared" ref="I47" si="162">J22</f>
         <v>10</v>
       </c>
-      <c r="J47" s="17">
-        <f t="shared" ref="J47" si="26">J8</f>
+      <c r="J47" s="13">
+        <f t="shared" ref="J47" si="163">J8</f>
         <v>195</v>
       </c>
-      <c r="K47" s="22">
-        <f t="shared" ref="K47:L47" si="27">L22</f>
+      <c r="K47" s="18">
+        <f t="shared" ref="K47" si="164">L22</f>
         <v>12</v>
       </c>
-      <c r="L47" s="17">
-        <f t="shared" ref="L47" si="28">L8</f>
+      <c r="L47" s="13">
+        <f t="shared" ref="L47" si="165">L8</f>
         <v>240</v>
       </c>
-      <c r="M47" s="22">
-        <f t="shared" ref="M47:N47" si="29">N22</f>
+      <c r="M47" s="18">
+        <f t="shared" ref="M47" si="166">N22</f>
         <v>16</v>
       </c>
-      <c r="N47" s="17">
-        <f t="shared" ref="N47" si="30">N8</f>
+      <c r="N47" s="13">
+        <f t="shared" ref="N47" si="167">N8</f>
         <v>315</v>
       </c>
-      <c r="O47" s="22">
-        <f t="shared" ref="O47" si="31">P22</f>
+      <c r="O47" s="18">
+        <f t="shared" ref="O47" si="168">P22</f>
         <v>17</v>
       </c>
-      <c r="P47" s="17">
-        <f t="shared" ref="P47" si="32">P8</f>
+      <c r="P47" s="13">
+        <f t="shared" ref="P47:R47" si="169">P8</f>
         <v>338.99999999999994</v>
       </c>
+      <c r="Q47" s="18">
+        <f t="shared" si="147"/>
+        <v>15</v>
+      </c>
+      <c r="R47" s="13">
+        <f t="shared" si="169"/>
+        <v>300</v>
+      </c>
+      <c r="S47" s="18">
+        <f t="shared" si="148"/>
+        <v>15</v>
+      </c>
+      <c r="T47" s="13">
+        <f t="shared" ref="T47:V47" si="170">T8</f>
+        <v>300</v>
+      </c>
+      <c r="U47" s="18">
+        <f t="shared" si="150"/>
+        <v>15</v>
+      </c>
+      <c r="V47" s="13">
+        <f t="shared" si="170"/>
+        <v>300</v>
+      </c>
+      <c r="W47" s="18">
+        <f t="shared" si="151"/>
+        <v>15</v>
+      </c>
+      <c r="X47" s="13">
+        <f t="shared" ref="X47" si="171">X8</f>
+        <v>300</v>
+      </c>
+      <c r="Y47" s="18">
+        <f t="shared" si="153"/>
+        <v>15</v>
+      </c>
+      <c r="Z47" s="13">
+        <f t="shared" ref="Z47:AB47" si="172">Z8</f>
+        <v>300</v>
+      </c>
+      <c r="AA47" s="18">
+        <f t="shared" si="155"/>
+        <v>15</v>
+      </c>
+      <c r="AB47" s="13">
+        <f t="shared" si="172"/>
+        <v>300</v>
+      </c>
+      <c r="AC47" s="18">
+        <f t="shared" si="156"/>
+        <v>15</v>
+      </c>
+      <c r="AD47" s="13">
+        <f t="shared" ref="AD47" si="173">AD8</f>
+        <v>300</v>
+      </c>
+      <c r="AE47" s="18">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="AF47" s="13">
+        <f t="shared" ref="AF47" si="174">AF8</f>
+        <v>300</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="22">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="D48" s="17">
-        <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="E48" s="22">
-        <f t="shared" si="11"/>
+      <c r="C48" s="51">
+        <f t="shared" si="135"/>
+        <v>15</v>
+      </c>
+      <c r="D48" s="40">
+        <f t="shared" si="136"/>
+        <v>300</v>
+      </c>
+      <c r="E48" s="49">
+        <f t="shared" si="135"/>
         <v>14</v>
       </c>
-      <c r="F48" s="17">
-        <f t="shared" si="12"/>
+      <c r="F48" s="13">
+        <f t="shared" si="136"/>
         <v>285</v>
       </c>
-      <c r="G48" s="22">
-        <f t="shared" ref="G48:H48" si="33">H23</f>
+      <c r="G48" s="18">
+        <f t="shared" ref="G48" si="175">H23</f>
         <v>11</v>
       </c>
-      <c r="H48" s="17">
-        <f t="shared" ref="H48" si="34">H9</f>
+      <c r="H48" s="13">
+        <f t="shared" ref="H48" si="176">H9</f>
         <v>225</v>
       </c>
-      <c r="I48" s="22">
-        <f t="shared" ref="I48:J48" si="35">J23</f>
+      <c r="I48" s="18">
+        <f t="shared" ref="I48" si="177">J23</f>
         <v>14</v>
       </c>
-      <c r="J48" s="17">
-        <f t="shared" ref="J48" si="36">J9</f>
+      <c r="J48" s="13">
+        <f t="shared" ref="J48" si="178">J9</f>
         <v>270</v>
       </c>
-      <c r="K48" s="22">
-        <f t="shared" ref="K48:L48" si="37">L23</f>
+      <c r="K48" s="18">
+        <f t="shared" ref="K48" si="179">L23</f>
         <v>12</v>
       </c>
-      <c r="L48" s="17">
-        <f t="shared" ref="L48" si="38">L9</f>
+      <c r="L48" s="13">
+        <f t="shared" ref="L48" si="180">L9</f>
         <v>240</v>
       </c>
-      <c r="M48" s="22">
-        <f t="shared" ref="M48:N48" si="39">N23</f>
+      <c r="M48" s="18">
+        <f t="shared" ref="M48" si="181">N23</f>
         <v>13</v>
       </c>
-      <c r="N48" s="17">
-        <f t="shared" ref="N48" si="40">N9</f>
+      <c r="N48" s="13">
+        <f t="shared" ref="N48" si="182">N9</f>
         <v>255</v>
       </c>
-      <c r="O48" s="22">
-        <f t="shared" ref="O48" si="41">P23</f>
+      <c r="O48" s="18">
+        <f t="shared" ref="O48" si="183">P23</f>
         <v>16</v>
       </c>
-      <c r="P48" s="17">
-        <f t="shared" ref="P48" si="42">P9</f>
+      <c r="P48" s="13">
+        <f t="shared" ref="P48:R48" si="184">P9</f>
         <v>318</v>
       </c>
+      <c r="Q48" s="18">
+        <f t="shared" si="147"/>
+        <v>19</v>
+      </c>
+      <c r="R48" s="13">
+        <f t="shared" si="184"/>
+        <v>375</v>
+      </c>
+      <c r="S48" s="18">
+        <f t="shared" si="148"/>
+        <v>15</v>
+      </c>
+      <c r="T48" s="13">
+        <f t="shared" ref="T48:V48" si="185">T9</f>
+        <v>300</v>
+      </c>
+      <c r="U48" s="18">
+        <f t="shared" si="150"/>
+        <v>15</v>
+      </c>
+      <c r="V48" s="13">
+        <f t="shared" si="185"/>
+        <v>300</v>
+      </c>
+      <c r="W48" s="18">
+        <f t="shared" si="151"/>
+        <v>15</v>
+      </c>
+      <c r="X48" s="13">
+        <f t="shared" ref="X48" si="186">X9</f>
+        <v>300</v>
+      </c>
+      <c r="Y48" s="18">
+        <f t="shared" si="153"/>
+        <v>15</v>
+      </c>
+      <c r="Z48" s="13">
+        <f t="shared" ref="Z48:AB48" si="187">Z9</f>
+        <v>300</v>
+      </c>
+      <c r="AA48" s="18">
+        <f t="shared" si="155"/>
+        <v>15</v>
+      </c>
+      <c r="AB48" s="13">
+        <f t="shared" si="187"/>
+        <v>300</v>
+      </c>
+      <c r="AC48" s="18">
+        <f t="shared" si="156"/>
+        <v>15</v>
+      </c>
+      <c r="AD48" s="13">
+        <f t="shared" ref="AD48" si="188">AD9</f>
+        <v>300</v>
+      </c>
+      <c r="AE48" s="18">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="AF48" s="13">
+        <f t="shared" ref="AF48" si="189">AF9</f>
+        <v>300</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="18" t="s">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="21">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="D49" s="20">
-        <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="21">
-        <f t="shared" ref="G49:H49" si="43">H24</f>
+      <c r="C49" s="50">
+        <f t="shared" si="135"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="38">
+        <f t="shared" si="136"/>
+        <v>300</v>
+      </c>
+      <c r="E49" s="48">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" ref="G49" si="190">H24</f>
         <v>18</v>
       </c>
-      <c r="H49" s="20">
-        <f t="shared" ref="H49" si="44">H10</f>
+      <c r="H49" s="16">
+        <f t="shared" ref="H49" si="191">H10</f>
         <v>360</v>
       </c>
-      <c r="I49" s="21">
-        <f t="shared" ref="I49:J49" si="45">J24</f>
+      <c r="I49" s="17">
+        <f t="shared" ref="I49" si="192">J24</f>
         <v>16</v>
       </c>
-      <c r="J49" s="20">
-        <f t="shared" ref="J49" si="46">J10</f>
+      <c r="J49" s="16">
+        <f t="shared" ref="J49" si="193">J10</f>
         <v>315</v>
       </c>
-      <c r="K49" s="21">
-        <f t="shared" ref="K49:L49" si="47">L24</f>
+      <c r="K49" s="17">
+        <f t="shared" ref="K49" si="194">L24</f>
         <v>18</v>
       </c>
-      <c r="L49" s="20">
-        <f t="shared" ref="L49" si="48">L10</f>
+      <c r="L49" s="16">
+        <f t="shared" ref="L49" si="195">L10</f>
         <v>360</v>
       </c>
-      <c r="M49" s="21">
-        <f t="shared" ref="M49:N49" si="49">N24</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="20">
-        <f t="shared" ref="N49" si="50">N10</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="21">
-        <f t="shared" ref="O49" si="51">P24</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="20">
-        <f t="shared" ref="P49" si="52">P10</f>
-        <v>0</v>
+      <c r="M49" s="17">
+        <f t="shared" ref="M49" si="196">N24</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <f t="shared" ref="N49" si="197">N10</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="17">
+        <f t="shared" ref="O49" si="198">P24</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="16">
+        <f t="shared" ref="P49:R49" si="199">P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="16">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="17">
+        <f t="shared" si="148"/>
+        <v>15</v>
+      </c>
+      <c r="T49" s="16">
+        <f t="shared" ref="T49:V49" si="200">T10</f>
+        <v>300</v>
+      </c>
+      <c r="U49" s="17">
+        <f t="shared" si="150"/>
+        <v>15</v>
+      </c>
+      <c r="V49" s="16">
+        <f t="shared" si="200"/>
+        <v>300</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="151"/>
+        <v>15</v>
+      </c>
+      <c r="X49" s="16">
+        <f t="shared" ref="X49" si="201">X10</f>
+        <v>300</v>
+      </c>
+      <c r="Y49" s="17">
+        <f t="shared" si="153"/>
+        <v>15</v>
+      </c>
+      <c r="Z49" s="16">
+        <f t="shared" ref="Z49:AB49" si="202">Z10</f>
+        <v>300</v>
+      </c>
+      <c r="AA49" s="17">
+        <f t="shared" si="155"/>
+        <v>15</v>
+      </c>
+      <c r="AB49" s="16">
+        <f t="shared" si="202"/>
+        <v>300</v>
+      </c>
+      <c r="AC49" s="17">
+        <f t="shared" si="156"/>
+        <v>15</v>
+      </c>
+      <c r="AD49" s="16">
+        <f t="shared" ref="AD49" si="203">AD10</f>
+        <v>300</v>
+      </c>
+      <c r="AE49" s="17">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="AF49" s="16">
+        <f t="shared" ref="AF49" si="204">AF10</f>
+        <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="21">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="D50" s="20">
-        <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="E50" s="21">
-        <f t="shared" si="11"/>
+      <c r="C50" s="50">
+        <f t="shared" si="135"/>
+        <v>15</v>
+      </c>
+      <c r="D50" s="38">
+        <f t="shared" si="136"/>
+        <v>300</v>
+      </c>
+      <c r="E50" s="48">
+        <f t="shared" si="135"/>
         <v>14</v>
       </c>
-      <c r="F50" s="20">
-        <f t="shared" si="12"/>
+      <c r="F50" s="16">
+        <f t="shared" si="136"/>
         <v>270</v>
       </c>
-      <c r="G50" s="21">
-        <f t="shared" ref="G50:H50" si="53">H25</f>
+      <c r="G50" s="17">
+        <f t="shared" ref="G50" si="205">H25</f>
         <v>18</v>
       </c>
-      <c r="H50" s="20">
-        <f t="shared" ref="H50" si="54">H11</f>
+      <c r="H50" s="16">
+        <f t="shared" ref="H50" si="206">H11</f>
         <v>360</v>
       </c>
-      <c r="I50" s="21">
-        <f t="shared" ref="I50:J50" si="55">J25</f>
+      <c r="I50" s="17">
+        <f t="shared" ref="I50" si="207">J25</f>
         <v>18</v>
       </c>
-      <c r="J50" s="20">
-        <f t="shared" ref="J50" si="56">J11</f>
+      <c r="J50" s="16">
+        <f t="shared" ref="J50" si="208">J11</f>
         <v>360</v>
       </c>
-      <c r="K50" s="21">
-        <f t="shared" ref="K50:L50" si="57">L25</f>
+      <c r="K50" s="17">
+        <f t="shared" ref="K50" si="209">L25</f>
         <v>16</v>
       </c>
-      <c r="L50" s="20">
-        <f t="shared" ref="L50" si="58">L11</f>
+      <c r="L50" s="16">
+        <f t="shared" ref="L50" si="210">L11</f>
         <v>315</v>
       </c>
-      <c r="M50" s="21">
-        <f t="shared" ref="M50:N50" si="59">N25</f>
+      <c r="M50" s="17">
+        <f t="shared" ref="M50" si="211">N25</f>
         <v>13</v>
       </c>
-      <c r="N50" s="20">
-        <f t="shared" ref="N50" si="60">N11</f>
+      <c r="N50" s="16">
+        <f t="shared" ref="N50" si="212">N11</f>
         <v>255</v>
       </c>
-      <c r="O50" s="21">
-        <f t="shared" ref="O50" si="61">P25</f>
+      <c r="O50" s="17">
+        <f t="shared" ref="O50" si="213">P25</f>
         <v>14</v>
       </c>
-      <c r="P50" s="20">
-        <f t="shared" ref="P50" si="62">P11</f>
+      <c r="P50" s="16">
+        <f t="shared" ref="P50:R50" si="214">P11</f>
         <v>288</v>
       </c>
+      <c r="Q50" s="17">
+        <f t="shared" si="147"/>
+        <v>18</v>
+      </c>
+      <c r="R50" s="16">
+        <f t="shared" si="214"/>
+        <v>360</v>
+      </c>
+      <c r="S50" s="17">
+        <f t="shared" si="148"/>
+        <v>15</v>
+      </c>
+      <c r="T50" s="16">
+        <f t="shared" ref="T50:V50" si="215">T11</f>
+        <v>300</v>
+      </c>
+      <c r="U50" s="17">
+        <f t="shared" si="150"/>
+        <v>15</v>
+      </c>
+      <c r="V50" s="16">
+        <f t="shared" si="215"/>
+        <v>300</v>
+      </c>
+      <c r="W50" s="17">
+        <f t="shared" si="151"/>
+        <v>15</v>
+      </c>
+      <c r="X50" s="16">
+        <f t="shared" ref="X50" si="216">X11</f>
+        <v>300</v>
+      </c>
+      <c r="Y50" s="17">
+        <f t="shared" si="153"/>
+        <v>15</v>
+      </c>
+      <c r="Z50" s="16">
+        <f t="shared" ref="Z50:AB50" si="217">Z11</f>
+        <v>300</v>
+      </c>
+      <c r="AA50" s="17">
+        <f t="shared" si="155"/>
+        <v>15</v>
+      </c>
+      <c r="AB50" s="16">
+        <f t="shared" si="217"/>
+        <v>300</v>
+      </c>
+      <c r="AC50" s="17">
+        <f t="shared" si="156"/>
+        <v>15</v>
+      </c>
+      <c r="AD50" s="16">
+        <f t="shared" ref="AD50" si="218">AD11</f>
+        <v>300</v>
+      </c>
+      <c r="AE50" s="17">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="AF50" s="16">
+        <f t="shared" ref="AF50" si="219">AF11</f>
+        <v>300</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="22">
-        <f t="shared" si="11"/>
+      <c r="C51" s="51">
+        <f t="shared" si="135"/>
         <v>20</v>
       </c>
-      <c r="D51" s="17">
-        <f t="shared" si="12"/>
+      <c r="D51" s="40">
+        <f t="shared" si="136"/>
         <v>400</v>
       </c>
-      <c r="E51" s="22">
-        <f t="shared" si="11"/>
+      <c r="E51" s="49">
+        <f t="shared" si="135"/>
         <v>22</v>
       </c>
-      <c r="F51" s="17">
-        <f t="shared" si="12"/>
+      <c r="F51" s="13">
+        <f t="shared" si="136"/>
         <v>432</v>
       </c>
-      <c r="G51" s="22">
-        <f t="shared" ref="G51:H51" si="63">H26</f>
+      <c r="G51" s="18">
+        <f t="shared" ref="G51" si="220">H26</f>
         <v>20</v>
       </c>
-      <c r="H51" s="17">
-        <f t="shared" ref="H51" si="64">H12</f>
+      <c r="H51" s="13">
+        <f t="shared" ref="H51" si="221">H12</f>
         <v>400</v>
       </c>
-      <c r="I51" s="22">
-        <f t="shared" ref="I51:J51" si="65">J26</f>
+      <c r="I51" s="18">
+        <f t="shared" ref="I51" si="222">J26</f>
         <v>14</v>
       </c>
-      <c r="J51" s="17">
-        <f t="shared" ref="J51" si="66">J12</f>
+      <c r="J51" s="13">
+        <f t="shared" ref="J51" si="223">J12</f>
         <v>280</v>
       </c>
-      <c r="K51" s="22">
-        <f t="shared" ref="K51:L51" si="67">L26</f>
+      <c r="K51" s="18">
+        <f t="shared" ref="K51" si="224">L26</f>
         <v>18</v>
       </c>
-      <c r="L51" s="17">
-        <f t="shared" ref="L51" si="68">L12</f>
+      <c r="L51" s="13">
+        <f t="shared" ref="L51" si="225">L12</f>
         <v>360</v>
       </c>
-      <c r="M51" s="22">
-        <f t="shared" ref="M51:N51" si="69">N26</f>
+      <c r="M51" s="18">
+        <f t="shared" ref="M51" si="226">N26</f>
         <v>24</v>
       </c>
-      <c r="N51" s="17">
-        <f t="shared" ref="N51" si="70">N12</f>
+      <c r="N51" s="13">
+        <f t="shared" ref="N51" si="227">N12</f>
         <v>480</v>
       </c>
-      <c r="O51" s="22">
-        <f t="shared" ref="O51" si="71">P26</f>
+      <c r="O51" s="18">
+        <f t="shared" ref="O51" si="228">P26</f>
         <v>18</v>
       </c>
-      <c r="P51" s="17">
-        <f t="shared" ref="P51" si="72">P12</f>
+      <c r="P51" s="13">
+        <f t="shared" ref="P51:R51" si="229">P12</f>
         <v>368</v>
       </c>
+      <c r="Q51" s="18">
+        <f t="shared" si="147"/>
+        <v>16</v>
+      </c>
+      <c r="R51" s="13">
+        <f t="shared" si="229"/>
+        <v>320</v>
+      </c>
+      <c r="S51" s="18">
+        <f t="shared" si="148"/>
+        <v>20</v>
+      </c>
+      <c r="T51" s="13">
+        <f t="shared" ref="T51:V51" si="230">T12</f>
+        <v>400</v>
+      </c>
+      <c r="U51" s="18">
+        <f t="shared" si="150"/>
+        <v>20</v>
+      </c>
+      <c r="V51" s="13">
+        <f t="shared" si="230"/>
+        <v>400</v>
+      </c>
+      <c r="W51" s="18">
+        <f t="shared" si="151"/>
+        <v>20</v>
+      </c>
+      <c r="X51" s="13">
+        <f t="shared" ref="X51" si="231">X12</f>
+        <v>400</v>
+      </c>
+      <c r="Y51" s="18">
+        <f t="shared" si="153"/>
+        <v>20</v>
+      </c>
+      <c r="Z51" s="13">
+        <f t="shared" ref="Z51:AB51" si="232">Z12</f>
+        <v>400</v>
+      </c>
+      <c r="AA51" s="18">
+        <f t="shared" si="155"/>
+        <v>20</v>
+      </c>
+      <c r="AB51" s="13">
+        <f t="shared" si="232"/>
+        <v>400</v>
+      </c>
+      <c r="AC51" s="18">
+        <f t="shared" si="156"/>
+        <v>20</v>
+      </c>
+      <c r="AD51" s="13">
+        <f t="shared" ref="AD51" si="233">AD12</f>
+        <v>400</v>
+      </c>
+      <c r="AE51" s="18">
+        <f t="shared" si="158"/>
+        <v>20</v>
+      </c>
+      <c r="AF51" s="13">
+        <f t="shared" ref="AF51" si="234">AF12</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="22">
-        <f t="shared" si="11"/>
+      <c r="C52" s="52">
+        <f t="shared" si="135"/>
         <v>20</v>
       </c>
-      <c r="D52" s="17">
-        <f t="shared" si="12"/>
+      <c r="D52" s="53">
+        <f t="shared" si="136"/>
         <v>400</v>
       </c>
-      <c r="E52" s="22">
-        <f t="shared" si="11"/>
+      <c r="E52" s="49">
+        <f t="shared" si="135"/>
         <v>23</v>
       </c>
-      <c r="F52" s="17">
-        <f t="shared" si="12"/>
+      <c r="F52" s="13">
+        <f t="shared" si="136"/>
         <v>455.99999999999994</v>
       </c>
-      <c r="G52" s="22">
-        <f t="shared" ref="G52:H52" si="73">H27</f>
+      <c r="G52" s="18">
+        <f t="shared" ref="G52" si="235">H27</f>
         <v>21</v>
       </c>
-      <c r="H52" s="17">
-        <f t="shared" ref="H52" si="74">H13</f>
+      <c r="H52" s="13">
+        <f t="shared" ref="H52" si="236">H13</f>
         <v>420</v>
       </c>
-      <c r="I52" s="22">
-        <f t="shared" ref="I52:J52" si="75">J27</f>
+      <c r="I52" s="18">
+        <f t="shared" ref="I52" si="237">J27</f>
         <v>22</v>
       </c>
-      <c r="J52" s="17">
-        <f t="shared" ref="J52" si="76">J13</f>
+      <c r="J52" s="13">
+        <f t="shared" ref="J52" si="238">J13</f>
         <v>440.00000000000006</v>
       </c>
-      <c r="K52" s="22">
-        <f t="shared" ref="K52:L52" si="77">L27</f>
+      <c r="K52" s="18">
+        <f t="shared" ref="K52" si="239">L27</f>
         <v>23</v>
       </c>
-      <c r="L52" s="17">
-        <f t="shared" ref="L52" si="78">L13</f>
+      <c r="L52" s="13">
+        <f t="shared" ref="L52" si="240">L13</f>
         <v>459.99999999999994</v>
       </c>
-      <c r="M52" s="22">
-        <f t="shared" ref="M52:N52" si="79">N27</f>
+      <c r="M52" s="18">
+        <f t="shared" ref="M52" si="241">N27</f>
         <v>24</v>
       </c>
-      <c r="N52" s="17">
-        <f t="shared" ref="N52" si="80">N13</f>
+      <c r="N52" s="13">
+        <f t="shared" ref="N52" si="242">N13</f>
         <v>480</v>
       </c>
-      <c r="O52" s="22">
-        <f t="shared" ref="O52" si="81">P27</f>
+      <c r="O52" s="18">
+        <f t="shared" ref="O52" si="243">P27</f>
         <v>18</v>
       </c>
-      <c r="P52" s="17">
-        <f t="shared" ref="P52" si="82">P13</f>
+      <c r="P52" s="13">
+        <f t="shared" ref="P52:R52" si="244">P13</f>
         <v>360</v>
+      </c>
+      <c r="Q52" s="18">
+        <f t="shared" si="147"/>
+        <v>18</v>
+      </c>
+      <c r="R52" s="13">
+        <f t="shared" si="244"/>
+        <v>360</v>
+      </c>
+      <c r="S52" s="18">
+        <f t="shared" si="148"/>
+        <v>20</v>
+      </c>
+      <c r="T52" s="13">
+        <f t="shared" ref="T52:V52" si="245">T13</f>
+        <v>400</v>
+      </c>
+      <c r="U52" s="18">
+        <f t="shared" si="150"/>
+        <v>20</v>
+      </c>
+      <c r="V52" s="13">
+        <f t="shared" si="245"/>
+        <v>400</v>
+      </c>
+      <c r="W52" s="18">
+        <f t="shared" si="151"/>
+        <v>20</v>
+      </c>
+      <c r="X52" s="13">
+        <f t="shared" ref="X52" si="246">X13</f>
+        <v>400</v>
+      </c>
+      <c r="Y52" s="18">
+        <f t="shared" si="153"/>
+        <v>20</v>
+      </c>
+      <c r="Z52" s="13">
+        <f t="shared" ref="Z52:AB52" si="247">Z13</f>
+        <v>400</v>
+      </c>
+      <c r="AA52" s="18">
+        <f t="shared" si="155"/>
+        <v>20</v>
+      </c>
+      <c r="AB52" s="13">
+        <f t="shared" si="247"/>
+        <v>400</v>
+      </c>
+      <c r="AC52" s="18">
+        <f t="shared" si="156"/>
+        <v>20</v>
+      </c>
+      <c r="AD52" s="13">
+        <f t="shared" ref="AD52" si="248">AD13</f>
+        <v>400</v>
+      </c>
+      <c r="AE52" s="18">
+        <f t="shared" si="158"/>
+        <v>20</v>
+      </c>
+      <c r="AF52" s="13">
+        <f t="shared" ref="AF52" si="249">AF13</f>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="46">
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
@@ -2628,17 +4638,6 @@
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="O43:P43"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
   <si>
     <t>Reminiscence Stat Spreadsheet</t>
   </si>
@@ -123,12 +123,19 @@
   <si>
     <t>New Class</t>
   </si>
+  <si>
+    <t>Instructions:</t>
+  </si>
+  <si>
+    <t>In the Lvl 99 section, enter in percentages
+relative to the Average class.  This will generate stat values at Lvl 99 and Lvl 1 to be used in the class creation section of the database.  For advanced tweaking, change the percentages at Lvl 1 as well (not advised)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +176,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -420,11 +440,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +580,24 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,13 +899,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,3810 +915,3839 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
-    <row r="3" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+    <row r="2" spans="1:32" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF4" s="26"/>
+    <row r="3" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="4" spans="1:32" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="37">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <f>E6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="16">
-        <f>G6*$D6</f>
-        <v>5600</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="J6" s="16">
-        <f>I6*$D6</f>
-        <v>8400</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="L6" s="16">
-        <f>K6*$D6</f>
-        <v>6300</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="N6" s="16">
-        <f>M6*$D6</f>
-        <v>6300</v>
-      </c>
-      <c r="O6" s="15">
-        <v>1.08</v>
-      </c>
-      <c r="P6" s="16">
-        <f>O6*$D6</f>
-        <v>7560.0000000000009</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="R6" s="16">
-        <f>Q6*$D6</f>
-        <v>8049.9999999999991</v>
-      </c>
-      <c r="S6" s="15">
-        <v>1</v>
-      </c>
-      <c r="T6" s="16">
-        <f>S6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="U6" s="15">
-        <v>1</v>
-      </c>
-      <c r="V6" s="16">
-        <f>U6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="W6" s="15">
-        <v>1</v>
-      </c>
-      <c r="X6" s="16">
-        <f>W6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="16">
-        <f>Y6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="16">
-        <f>AA6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="16">
-        <f>AC6*$D6</f>
-        <v>7000</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="16">
-        <f>AE6*$D6</f>
-        <v>7000</v>
-      </c>
+    <row r="6" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="C7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF7" s="27"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="38">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <f>E9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="17">
+        <f>G9*$D9</f>
+        <v>5600</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="17">
+        <f>I9*$D9</f>
+        <v>8400</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="17">
+        <f>K9*$D9</f>
+        <v>6300</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="17">
+        <f>M9*$D9</f>
+        <v>6300</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="P9" s="17">
+        <f>O9*$D9</f>
+        <v>7560.0000000000009</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R9" s="17">
+        <f>Q9*$D9</f>
+        <v>8049.9999999999991</v>
+      </c>
+      <c r="S9" s="16">
+        <v>1</v>
+      </c>
+      <c r="T9" s="17">
+        <f>S9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="U9" s="16">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <f>U9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="W9" s="16">
+        <v>1</v>
+      </c>
+      <c r="X9" s="17">
+        <f>W9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="17">
+        <f>Y9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="17">
+        <f>AA9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="17">
+        <f>AC9*$D9</f>
+        <v>7000</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="17">
+        <f>AE9*$D9</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="C10" s="38">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
         <v>1500</v>
       </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" ref="F7:H13" si="0">E7*$D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="E10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:H16" si="0">E10*$D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
         <v>1.2</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I10" s="16">
         <v>1.2</v>
       </c>
-      <c r="J7" s="16">
-        <f t="shared" ref="J7:J13" si="1">I7*$D7</f>
+      <c r="J10" s="17">
+        <f t="shared" ref="J10:J16" si="1">I10*$D10</f>
         <v>1800</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K10" s="16">
         <v>1.2</v>
       </c>
-      <c r="L7" s="16">
-        <f t="shared" ref="L7:L13" si="2">K7*$D7</f>
+      <c r="L10" s="17">
+        <f t="shared" ref="L10:L16" si="2">K10*$D10</f>
         <v>1800</v>
       </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" ref="N7:N13" si="3">M7*$D7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <f t="shared" ref="P7:P13" si="4">O7*$D7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <f t="shared" ref="R7:R13" si="5">Q7*$D7</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="15">
-        <v>1</v>
-      </c>
-      <c r="T7" s="16">
-        <f t="shared" ref="T7:T13" si="6">S7*$D7</f>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" ref="N10:N16" si="3">M10*$D10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" ref="P10:P16" si="4">O10*$D10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" ref="R10:R16" si="5">Q10*$D10</f>
         <v>1500</v>
       </c>
-      <c r="U7" s="15">
-        <v>1</v>
-      </c>
-      <c r="V7" s="16">
-        <f t="shared" ref="V7:V13" si="7">U7*$D7</f>
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" ref="T10:T16" si="6">S10*$D10</f>
         <v>1500</v>
       </c>
-      <c r="W7" s="15">
-        <v>1</v>
-      </c>
-      <c r="X7" s="16">
-        <f t="shared" ref="X7:X13" si="8">W7*$D7</f>
+      <c r="U10" s="16">
+        <v>1</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" ref="V10:V16" si="7">U10*$D10</f>
         <v>1500</v>
       </c>
-      <c r="Y7" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="16">
-        <f t="shared" ref="Z7:Z13" si="9">Y7*$D7</f>
+      <c r="W10" s="16">
+        <v>1</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" ref="X10:X16" si="8">W10*$D10</f>
         <v>1500</v>
       </c>
-      <c r="AA7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="16">
-        <f t="shared" ref="AB7:AB13" si="10">AA7*$D7</f>
+      <c r="Y10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="17">
+        <f t="shared" ref="Z10:Z16" si="9">Y10*$D10</f>
         <v>1500</v>
       </c>
-      <c r="AC7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="16">
-        <f t="shared" ref="AD7:AD13" si="11">AC7*$D7</f>
+      <c r="AA10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="17">
+        <f t="shared" ref="AB10:AB16" si="10">AA10*$D10</f>
         <v>1500</v>
       </c>
-      <c r="AE7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="16">
-        <f t="shared" ref="AF7:AF13" si="12">AE7*$D7</f>
+      <c r="AC10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="17">
+        <f t="shared" ref="AD10:AD16" si="11">AC10*$D10</f>
         <v>1500</v>
       </c>
+      <c r="AE10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="17">
+        <f t="shared" ref="AF10:AF16" si="12">AE10*$D10</f>
+        <v>1500</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39">
-        <v>1</v>
-      </c>
-      <c r="D8" s="40">
-        <v>300</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="41">
+        <v>300</v>
+      </c>
+      <c r="E11" s="32">
         <v>0.95</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G11" s="13">
         <v>0.7</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I11" s="13">
         <v>0.65</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K11" s="13">
         <v>0.8</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L11" s="14">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M11" s="13">
         <v>1.05</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N11" s="14">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O11" s="13">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P11" s="14">
         <f t="shared" si="4"/>
         <v>338.99999999999994</v>
       </c>
-      <c r="Q8" s="12">
-        <v>1</v>
-      </c>
-      <c r="R8" s="13">
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="14">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="S8" s="12">
-        <v>1</v>
-      </c>
-      <c r="T8" s="13">
+      <c r="S11" s="13">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U8" s="12">
-        <v>1</v>
-      </c>
-      <c r="V8" s="13">
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+      <c r="V11" s="14">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="W8" s="12">
-        <v>1</v>
-      </c>
-      <c r="X8" s="13">
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="Y8" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="13">
+      <c r="Y11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="14">
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="AA8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="13">
+      <c r="AA11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="14">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="AC8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="13">
+      <c r="AC11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="14">
         <f t="shared" si="11"/>
         <v>300</v>
       </c>
-      <c r="AE8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="13">
+      <c r="AE11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="14">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="39">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40">
-        <v>300</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="C12" s="40">
+        <v>1</v>
+      </c>
+      <c r="D12" s="41">
+        <v>300</v>
+      </c>
+      <c r="E12" s="32">
         <v>0.95</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G12" s="13">
         <v>0.75</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I12" s="13">
         <v>0.9</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J12" s="14">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K12" s="13">
         <v>0.8</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L12" s="14">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M12" s="13">
         <v>0.85</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N12" s="14">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O12" s="13">
         <v>1.06</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P12" s="14">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q12" s="13">
         <v>1.25</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R12" s="14">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="S9" s="12">
-        <v>1</v>
-      </c>
-      <c r="T9" s="13">
+      <c r="S12" s="13">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U9" s="12">
-        <v>1</v>
-      </c>
-      <c r="V9" s="13">
+      <c r="U12" s="13">
+        <v>1</v>
+      </c>
+      <c r="V12" s="14">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="W9" s="12">
-        <v>1</v>
-      </c>
-      <c r="X9" s="13">
+      <c r="W12" s="13">
+        <v>1</v>
+      </c>
+      <c r="X12" s="14">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="Y9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="13">
+      <c r="Y12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="14">
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="AA9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="13">
+      <c r="AA12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="14">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="AC9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="13">
+      <c r="AC12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="14">
         <f t="shared" si="11"/>
         <v>300</v>
       </c>
-      <c r="AE9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="13">
+      <c r="AE12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="14">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="27" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="37">
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
-        <v>300</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="C13" s="38">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>300</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G13" s="16">
         <v>1.2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I13" s="16">
         <v>1.05</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J13" s="17">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K13" s="16">
         <v>1.2</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L13" s="17">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
+      <c r="Q13" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="R13" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>1</v>
-      </c>
-      <c r="T10" s="16">
+        <v>285</v>
+      </c>
+      <c r="S13" s="16">
+        <v>1</v>
+      </c>
+      <c r="T13" s="17">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U10" s="15">
-        <v>1</v>
-      </c>
-      <c r="V10" s="16">
+      <c r="U13" s="16">
+        <v>1</v>
+      </c>
+      <c r="V13" s="17">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="W10" s="15">
-        <v>1</v>
-      </c>
-      <c r="X10" s="16">
+      <c r="W13" s="16">
+        <v>1</v>
+      </c>
+      <c r="X13" s="17">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="Y10" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="16">
+      <c r="Y13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="17">
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="AA10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="16">
+      <c r="AA13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="17">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="AC10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="16">
+      <c r="AC13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="17">
         <f t="shared" si="11"/>
         <v>300</v>
       </c>
-      <c r="AE10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="16">
+      <c r="AE13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="17">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="37">
-        <v>1</v>
-      </c>
-      <c r="D11" s="38">
-        <v>300</v>
-      </c>
-      <c r="E11" s="30">
+      <c r="C14" s="38">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>300</v>
+      </c>
+      <c r="E14" s="31">
         <v>0.9</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G14" s="16">
         <v>1.2</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I14" s="16">
         <v>1.2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J14" s="17">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K14" s="16">
         <v>1.05</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L14" s="17">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M14" s="16">
         <v>0.85</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N14" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O14" s="16">
         <v>0.96</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P14" s="17">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q14" s="16">
         <v>1.2</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R14" s="17">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="S11" s="15">
-        <v>1</v>
-      </c>
-      <c r="T11" s="16">
+      <c r="S14" s="16">
+        <v>1</v>
+      </c>
+      <c r="T14" s="17">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U11" s="15">
-        <v>1</v>
-      </c>
-      <c r="V11" s="16">
+      <c r="U14" s="16">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="W11" s="15">
-        <v>1</v>
-      </c>
-      <c r="X11" s="16">
+      <c r="W14" s="16">
+        <v>1</v>
+      </c>
+      <c r="X14" s="17">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="Y11" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="16">
+      <c r="Y14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="17">
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="AA11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="16">
+      <c r="AA14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="17">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="AC11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="16">
+      <c r="AC14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="17">
         <f t="shared" si="11"/>
         <v>300</v>
       </c>
-      <c r="AE11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="16">
+      <c r="AE14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="17">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40">
+      <c r="C15" s="40">
+        <v>1</v>
+      </c>
+      <c r="D15" s="41">
         <v>400</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E15" s="32">
         <v>1.08</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I15" s="13">
         <v>0.7</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J15" s="14">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K15" s="13">
         <v>0.9</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L15" s="14">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M15" s="13">
         <v>1.2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N15" s="14">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O15" s="13">
         <v>0.92</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P15" s="14">
         <f t="shared" si="4"/>
         <v>368</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q15" s="13">
         <v>0.8</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R15" s="14">
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
-      <c r="S12" s="12">
-        <v>1</v>
-      </c>
-      <c r="T12" s="13">
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+      <c r="T15" s="14">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="U12" s="12">
-        <v>1</v>
-      </c>
-      <c r="V12" s="13">
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="14">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="W12" s="12">
-        <v>1</v>
-      </c>
-      <c r="X12" s="13">
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+      <c r="X15" s="14">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="Y12" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="13">
+      <c r="Y15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="14">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="AA12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="13">
+      <c r="AA15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="14">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="AC12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="13">
+      <c r="AC15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="14">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="AE12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="13">
+      <c r="AE15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="14">
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="39">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="41">
         <v>400</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E16" s="32">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>455.99999999999994</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G16" s="13">
         <v>1.05</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J16" s="14">
         <f t="shared" si="1"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K16" s="13">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L16" s="14">
         <f t="shared" si="2"/>
         <v>459.99999999999994</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M16" s="13">
         <v>1.2</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N16" s="14">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O16" s="13">
         <v>0.9</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P16" s="14">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q16" s="13">
         <v>0.9</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R16" s="14">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="S13" s="12">
-        <v>1</v>
-      </c>
-      <c r="T13" s="13">
+      <c r="S16" s="13">
+        <v>1</v>
+      </c>
+      <c r="T16" s="14">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="U13" s="12">
-        <v>1</v>
-      </c>
-      <c r="V13" s="13">
+      <c r="U16" s="13">
+        <v>1</v>
+      </c>
+      <c r="V16" s="14">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="W13" s="12">
-        <v>1</v>
-      </c>
-      <c r="X13" s="13">
+      <c r="W16" s="13">
+        <v>1</v>
+      </c>
+      <c r="X16" s="14">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="Y13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="13">
+      <c r="Y16" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="14">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="AA13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="13">
+      <c r="AA16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="14">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="AC13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="13">
+      <c r="AC16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="AE13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="13">
+      <c r="AE16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="14">
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="41">
-        <f>SUM(C6:C13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="C17" s="42">
+        <f>SUM(C9:C16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="32">
-        <f>SUM(E6:E13)-8</f>
+      <c r="E17" s="33">
+        <f>SUM(E9:E16)-8</f>
         <v>-1.9800000000000004</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="4">
-        <f>SUM(G6:G13)-8</f>
+      <c r="G17" s="4">
+        <f>SUM(G9:G16)-8</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="4">
-        <f>SUM(I6:I13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I17" s="4">
+        <f>SUM(I9:I16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="4">
-        <f>SUM(K6:K13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="K17" s="4">
+        <f>SUM(K9:K16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="4">
-        <f>SUM(M6:M13)-8</f>
+      <c r="M17" s="4">
+        <f>SUM(M9:M16)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="4">
-        <f>SUM(O6:O13)-8</f>
+      <c r="O17" s="4">
+        <f>SUM(O9:O16)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="4">
-        <f>SUM(Q6:Q13)-8</f>
-        <v>-1.7000000000000002</v>
-      </c>
-      <c r="R14" s="5" t="s">
+      <c r="Q17" s="4">
+        <f>SUM(Q9:Q16)-8</f>
+        <v>0.25</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="4">
-        <f>SUM(S6:S13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="5" t="s">
+      <c r="S17" s="4">
+        <f>SUM(S9:S16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="4">
-        <f>SUM(U6:U13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="5" t="s">
+      <c r="U17" s="4">
+        <f>SUM(U9:U16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="4">
-        <f>SUM(W6:W13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="5" t="s">
+      <c r="W17" s="4">
+        <f>SUM(W9:W16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="4">
-        <f>SUM(Y6:Y13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Y17" s="4">
+        <f>SUM(Y9:Y16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" s="4">
-        <f>SUM(AA6:AA13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AA17" s="4">
+        <f>SUM(AA9:AA16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AC14" s="4">
-        <f>SUM(AC6:AC13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AC17" s="4">
+        <f>SUM(AC9:AC16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AE14" s="4">
-        <f>SUM(AE6:AE13)-8</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AE17" s="4">
+        <f>SUM(AE9:AE16)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="20" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B20" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="44" t="str">
-        <f>C4</f>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" s="45" t="str">
+        <f>C7</f>
         <v>Average</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="43" t="str">
-        <f>E4</f>
+      <c r="D21" s="46"/>
+      <c r="E21" s="44" t="str">
+        <f>E7</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="23" t="str">
-        <f>G4</f>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24" t="str">
+        <f>G7</f>
         <v>Scholar</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23" t="str">
-        <f>I4</f>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24" t="str">
+        <f>I7</f>
         <v>White Mage</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="23" t="str">
-        <f>K4</f>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24" t="str">
+        <f>K7</f>
         <v>Black Mage</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="23" t="str">
-        <f>M4</f>
+      <c r="L21" s="25"/>
+      <c r="M21" s="24" t="str">
+        <f>M7</f>
         <v>Archer</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23" t="str">
-        <f>O4</f>
+      <c r="N21" s="25"/>
+      <c r="O21" s="24" t="str">
+        <f>O7</f>
         <v>Warrior</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="23" t="str">
-        <f>Q4</f>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="24" t="str">
+        <f>Q7</f>
         <v>Sheep</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="23" t="str">
-        <f>S4</f>
+      <c r="R21" s="25"/>
+      <c r="S21" s="24" t="str">
+        <f>S7</f>
         <v>New Class</v>
       </c>
-      <c r="T18" s="24"/>
-      <c r="U18" s="23" t="str">
-        <f>U4</f>
+      <c r="T21" s="25"/>
+      <c r="U21" s="24" t="str">
+        <f>U7</f>
         <v>New Class</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="23" t="str">
-        <f>W4</f>
+      <c r="V21" s="25"/>
+      <c r="W21" s="24" t="str">
+        <f>W7</f>
         <v>New Class</v>
       </c>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="23" t="str">
-        <f>Y4</f>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="24" t="str">
+        <f>Y7</f>
         <v>New Class</v>
       </c>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="23" t="str">
-        <f>AA4</f>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="24" t="str">
+        <f>AA7</f>
         <v>New Class</v>
       </c>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="23" t="str">
-        <f>AC4</f>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="24" t="str">
+        <f>AC7</f>
         <v>New Class</v>
       </c>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="23" t="str">
-        <f>AE4</f>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="24" t="str">
+        <f>AE7</f>
         <v>New Class</v>
       </c>
-      <c r="AF18" s="24"/>
+      <c r="AF21" s="25"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C19" s="46" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D22" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z19" s="9" t="s">
+      <c r="Z22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AA19" s="9" t="s">
+      <c r="AA22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB19" s="9" t="s">
+      <c r="AB22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC19" s="9" t="s">
+      <c r="AC22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AD22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE19" s="9" t="s">
+      <c r="AE22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AF19" s="9" t="s">
+      <c r="AF22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="37">
-        <f t="shared" ref="C20:C27" si="13">C6</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" ref="D20:D27" si="14">D6/C32</f>
+      <c r="C23" s="38">
+        <f t="shared" ref="C23:C30" si="13">C9</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" ref="D23:D30" si="14">D9/C35</f>
         <v>70</v>
       </c>
-      <c r="E20" s="30">
-        <f t="shared" ref="E20:E27" si="15">E6</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" ref="F20:F27" si="16">ROUND(E20*$D20,0)</f>
+      <c r="E23" s="31">
+        <f t="shared" ref="E23:E30" si="15">E9</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" ref="F23:F30" si="16">ROUND(E23*$D23,0)</f>
         <v>70</v>
       </c>
-      <c r="G20" s="15">
-        <f t="shared" ref="G20:G27" si="17">G6</f>
+      <c r="G23" s="16">
+        <f t="shared" ref="G23:G30" si="17">G9</f>
         <v>0.8</v>
       </c>
-      <c r="H20" s="16">
-        <f t="shared" ref="H20:H27" si="18">ROUND(G20*$D20,0)</f>
+      <c r="H23" s="17">
+        <f t="shared" ref="H23:H30" si="18">ROUND(G23*$D23,0)</f>
         <v>56</v>
       </c>
-      <c r="I20" s="15">
-        <f t="shared" ref="I20:I27" si="19">I6</f>
+      <c r="I23" s="16">
+        <f t="shared" ref="I23:I30" si="19">I9</f>
         <v>1.2</v>
       </c>
-      <c r="J20" s="16">
-        <f t="shared" ref="J20:J27" si="20">ROUND(I20*$D20,0)</f>
+      <c r="J23" s="17">
+        <f t="shared" ref="J23:J30" si="20">ROUND(I23*$D23,0)</f>
         <v>84</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" ref="K20:K27" si="21">K6</f>
+      <c r="K23" s="16">
+        <f t="shared" ref="K23:K30" si="21">K9</f>
         <v>0.9</v>
       </c>
-      <c r="L20" s="16">
-        <f t="shared" ref="L20:L27" si="22">ROUND(K20*$D20,0)</f>
+      <c r="L23" s="17">
+        <f t="shared" ref="L23:L30" si="22">ROUND(K23*$D23,0)</f>
         <v>63</v>
       </c>
-      <c r="M20" s="15">
-        <f t="shared" ref="M20:M27" si="23">M6</f>
+      <c r="M23" s="16">
+        <f t="shared" ref="M23:M30" si="23">M9</f>
         <v>0.9</v>
       </c>
-      <c r="N20" s="16">
-        <f t="shared" ref="N20:N27" si="24">ROUND(M20*$D20,0)</f>
+      <c r="N23" s="17">
+        <f t="shared" ref="N23:N30" si="24">ROUND(M23*$D23,0)</f>
         <v>63</v>
       </c>
-      <c r="O20" s="15">
-        <f t="shared" ref="O20:Q27" si="25">O6</f>
+      <c r="O23" s="16">
+        <f t="shared" ref="O23:Q30" si="25">O9</f>
         <v>1.08</v>
       </c>
-      <c r="P20" s="16">
-        <f t="shared" ref="P20:R27" si="26">ROUND(O20*$D20,0)</f>
+      <c r="P23" s="17">
+        <f t="shared" ref="P23:R30" si="26">ROUND(O23*$D23,0)</f>
         <v>76</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q23" s="16">
         <f t="shared" si="25"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R23" s="17">
         <f t="shared" si="26"/>
         <v>81</v>
       </c>
-      <c r="S20" s="15">
-        <f t="shared" ref="S20:T20" si="27">S6</f>
-        <v>1</v>
-      </c>
-      <c r="T20" s="16">
-        <f t="shared" ref="T20:V20" si="28">ROUND(S20*$D20,0)</f>
+      <c r="S23" s="16">
+        <f t="shared" ref="S23:T23" si="27">S9</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" ref="T23:V23" si="28">ROUND(S23*$D23,0)</f>
         <v>70</v>
       </c>
-      <c r="U20" s="15">
-        <f t="shared" ref="U20:V20" si="29">U6</f>
-        <v>1</v>
-      </c>
-      <c r="V20" s="16">
+      <c r="U23" s="16">
+        <f t="shared" ref="U23:V23" si="29">U9</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="17">
         <f t="shared" si="28"/>
         <v>70</v>
       </c>
-      <c r="W20" s="15">
-        <f t="shared" ref="W20:X20" si="30">W6</f>
-        <v>1</v>
-      </c>
-      <c r="X20" s="16">
-        <f t="shared" ref="X20" si="31">ROUND(W20*$D20,0)</f>
+      <c r="W23" s="16">
+        <f t="shared" ref="W23:X23" si="30">W9</f>
+        <v>1</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" ref="X23" si="31">ROUND(W23*$D23,0)</f>
         <v>70</v>
       </c>
-      <c r="Y20" s="15">
-        <f t="shared" ref="Y20:Z20" si="32">Y6</f>
-        <v>1</v>
-      </c>
-      <c r="Z20" s="16">
-        <f t="shared" ref="Z20:AB20" si="33">ROUND(Y20*$D20,0)</f>
+      <c r="Y23" s="16">
+        <f t="shared" ref="Y23:Z23" si="32">Y9</f>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="17">
+        <f t="shared" ref="Z23:AB23" si="33">ROUND(Y23*$D23,0)</f>
         <v>70</v>
       </c>
-      <c r="AA20" s="15">
-        <f t="shared" ref="AA20:AB20" si="34">AA6</f>
-        <v>1</v>
-      </c>
-      <c r="AB20" s="16">
+      <c r="AA23" s="16">
+        <f t="shared" ref="AA23:AB23" si="34">AA9</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="17">
         <f t="shared" si="33"/>
         <v>70</v>
       </c>
-      <c r="AC20" s="15">
-        <f t="shared" ref="AC20:AD20" si="35">AC6</f>
-        <v>1</v>
-      </c>
-      <c r="AD20" s="16">
-        <f t="shared" ref="AD20" si="36">ROUND(AC20*$D20,0)</f>
+      <c r="AC23" s="16">
+        <f t="shared" ref="AC23:AD23" si="35">AC9</f>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="17">
+        <f t="shared" ref="AD23" si="36">ROUND(AC23*$D23,0)</f>
         <v>70</v>
       </c>
-      <c r="AE20" s="15">
-        <f t="shared" ref="AE20:AF20" si="37">AE6</f>
-        <v>1</v>
-      </c>
-      <c r="AF20" s="16">
-        <f t="shared" ref="AF20" si="38">ROUND(AE20*$D20,0)</f>
+      <c r="AE23" s="16">
+        <f t="shared" ref="AE23:AF23" si="37">AE9</f>
+        <v>1</v>
+      </c>
+      <c r="AF23" s="17">
+        <f t="shared" ref="AF23" si="38">ROUND(AE23*$D23,0)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C24" s="38">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D24" s="39">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E24" s="31">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F24" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G24" s="16">
         <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H24" s="17">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I24" s="16">
         <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J24" s="17">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K24" s="16">
         <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L24" s="17">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M24" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N24" s="17">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O24" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P24" s="17">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q24" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="16">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="15">
-        <f t="shared" ref="S21:T21" si="39">S7</f>
-        <v>1</v>
-      </c>
-      <c r="T21" s="16">
-        <f t="shared" ref="T21:V21" si="40">ROUND(S21*$D21,0)</f>
-        <v>15</v>
-      </c>
-      <c r="U21" s="15">
-        <f t="shared" ref="U21:V21" si="41">U7</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="16">
+        <v>15</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" ref="S24:T24" si="39">S10</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" ref="T24:V24" si="40">ROUND(S24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" ref="U24:V24" si="41">U10</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="17">
         <f t="shared" si="40"/>
         <v>15</v>
       </c>
-      <c r="W21" s="15">
-        <f t="shared" ref="W21:X21" si="42">W7</f>
-        <v>1</v>
-      </c>
-      <c r="X21" s="16">
-        <f t="shared" ref="X21" si="43">ROUND(W21*$D21,0)</f>
-        <v>15</v>
-      </c>
-      <c r="Y21" s="15">
-        <f t="shared" ref="Y21:Z21" si="44">Y7</f>
-        <v>1</v>
-      </c>
-      <c r="Z21" s="16">
-        <f t="shared" ref="Z21:AB21" si="45">ROUND(Y21*$D21,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AA21" s="15">
-        <f t="shared" ref="AA21:AB21" si="46">AA7</f>
-        <v>1</v>
-      </c>
-      <c r="AB21" s="16">
+      <c r="W24" s="16">
+        <f t="shared" ref="W24:X24" si="42">W10</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" ref="X24" si="43">ROUND(W24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y24" s="16">
+        <f t="shared" ref="Y24:Z24" si="44">Y10</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="17">
+        <f t="shared" ref="Z24:AB24" si="45">ROUND(Y24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" ref="AA24:AB24" si="46">AA10</f>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="17">
         <f t="shared" si="45"/>
         <v>15</v>
       </c>
-      <c r="AC21" s="15">
-        <f t="shared" ref="AC21:AD21" si="47">AC7</f>
-        <v>1</v>
-      </c>
-      <c r="AD21" s="16">
-        <f t="shared" ref="AD21" si="48">ROUND(AC21*$D21,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AE21" s="15">
-        <f t="shared" ref="AE21:AF21" si="49">AE7</f>
-        <v>1</v>
-      </c>
-      <c r="AF21" s="16">
-        <f t="shared" ref="AF21" si="50">ROUND(AE21*$D21,0)</f>
+      <c r="AC24" s="16">
+        <f t="shared" ref="AC24:AD24" si="47">AC10</f>
+        <v>1</v>
+      </c>
+      <c r="AD24" s="17">
+        <f t="shared" ref="AD24" si="48">ROUND(AC24*$D24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE24" s="16">
+        <f t="shared" ref="AE24:AF24" si="49">AE10</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="17">
+        <f t="shared" ref="AF24" si="50">ROUND(AE24*$D24,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B25" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C25" s="40">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D25" s="41">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E25" s="32">
         <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F25" s="14">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G25" s="13">
         <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H25" s="14">
         <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I25" s="13">
         <f t="shared" si="19"/>
         <v>0.65</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J25" s="14">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K25" s="13">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L25" s="14">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M25" s="13">
         <f t="shared" si="23"/>
         <v>1.05</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N25" s="14">
         <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O25" s="13">
         <f t="shared" si="25"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P25" s="14">
         <f t="shared" si="26"/>
         <v>17</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q25" s="13">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R25" s="14">
         <f t="shared" si="26"/>
         <v>15</v>
       </c>
-      <c r="S22" s="12">
-        <f t="shared" ref="S22:T22" si="51">S8</f>
-        <v>1</v>
-      </c>
-      <c r="T22" s="13">
-        <f t="shared" ref="T22:V22" si="52">ROUND(S22*$D22,0)</f>
-        <v>15</v>
-      </c>
-      <c r="U22" s="12">
-        <f t="shared" ref="U22:V22" si="53">U8</f>
-        <v>1</v>
-      </c>
-      <c r="V22" s="13">
+      <c r="S25" s="13">
+        <f t="shared" ref="S25:T25" si="51">S11</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" ref="T25:V25" si="52">ROUND(S25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U25" s="13">
+        <f t="shared" ref="U25:V25" si="53">U11</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="14">
         <f t="shared" si="52"/>
         <v>15</v>
       </c>
-      <c r="W22" s="12">
-        <f t="shared" ref="W22:X22" si="54">W8</f>
-        <v>1</v>
-      </c>
-      <c r="X22" s="13">
-        <f t="shared" ref="X22" si="55">ROUND(W22*$D22,0)</f>
-        <v>15</v>
-      </c>
-      <c r="Y22" s="12">
-        <f t="shared" ref="Y22:Z22" si="56">Y8</f>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="13">
-        <f t="shared" ref="Z22:AB22" si="57">ROUND(Y22*$D22,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AA22" s="12">
-        <f t="shared" ref="AA22:AB22" si="58">AA8</f>
-        <v>1</v>
-      </c>
-      <c r="AB22" s="13">
+      <c r="W25" s="13">
+        <f t="shared" ref="W25:X25" si="54">W11</f>
+        <v>1</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" ref="X25" si="55">ROUND(W25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y25" s="13">
+        <f t="shared" ref="Y25:Z25" si="56">Y11</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="14">
+        <f t="shared" ref="Z25:AB25" si="57">ROUND(Y25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" ref="AA25:AB25" si="58">AA11</f>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="14">
         <f t="shared" si="57"/>
         <v>15</v>
       </c>
-      <c r="AC22" s="12">
-        <f t="shared" ref="AC22:AD22" si="59">AC8</f>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="13">
-        <f t="shared" ref="AD22" si="60">ROUND(AC22*$D22,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AE22" s="12">
-        <f t="shared" ref="AE22:AF22" si="61">AE8</f>
-        <v>1</v>
-      </c>
-      <c r="AF22" s="13">
-        <f t="shared" ref="AF22" si="62">ROUND(AE22*$D22,0)</f>
+      <c r="AC25" s="13">
+        <f t="shared" ref="AC25:AD25" si="59">AC11</f>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="14">
+        <f t="shared" ref="AD25" si="60">ROUND(AC25*$D25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE25" s="13">
+        <f t="shared" ref="AE25:AF25" si="61">AE11</f>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="14">
+        <f t="shared" ref="AF25" si="62">ROUND(AE25*$D25,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C26" s="40">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D26" s="41">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E26" s="32">
         <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F26" s="14">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G26" s="13">
         <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H26" s="14">
         <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I26" s="13">
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J26" s="14">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K26" s="13">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L26" s="14">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M26" s="13">
         <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N26" s="14">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O26" s="13">
         <f t="shared" si="25"/>
         <v>1.06</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P26" s="14">
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q26" s="13">
         <f t="shared" si="25"/>
         <v>1.25</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R26" s="14">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
-      <c r="S23" s="12">
-        <f t="shared" ref="S23:T23" si="63">S9</f>
-        <v>1</v>
-      </c>
-      <c r="T23" s="13">
-        <f t="shared" ref="T23:V23" si="64">ROUND(S23*$D23,0)</f>
-        <v>15</v>
-      </c>
-      <c r="U23" s="12">
-        <f t="shared" ref="U23:V23" si="65">U9</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="13">
+      <c r="S26" s="13">
+        <f t="shared" ref="S26:T26" si="63">S12</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="14">
+        <f t="shared" ref="T26:V26" si="64">ROUND(S26*$D26,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U26" s="13">
+        <f t="shared" ref="U26:V26" si="65">U12</f>
+        <v>1</v>
+      </c>
+      <c r="V26" s="14">
         <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="W23" s="12">
-        <f t="shared" ref="W23:X23" si="66">W9</f>
-        <v>1</v>
-      </c>
-      <c r="X23" s="13">
-        <f t="shared" ref="X23" si="67">ROUND(W23*$D23,0)</f>
-        <v>15</v>
-      </c>
-      <c r="Y23" s="12">
-        <f t="shared" ref="Y23:Z23" si="68">Y9</f>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="13">
-        <f t="shared" ref="Z23:AB23" si="69">ROUND(Y23*$D23,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AA23" s="12">
-        <f t="shared" ref="AA23:AB23" si="70">AA9</f>
-        <v>1</v>
-      </c>
-      <c r="AB23" s="13">
+      <c r="W26" s="13">
+        <f t="shared" ref="W26:X26" si="66">W12</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="14">
+        <f t="shared" ref="X26" si="67">ROUND(W26*$D26,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y26" s="13">
+        <f t="shared" ref="Y26:Z26" si="68">Y12</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="14">
+        <f t="shared" ref="Z26:AB26" si="69">ROUND(Y26*$D26,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" ref="AA26:AB26" si="70">AA12</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="14">
         <f t="shared" si="69"/>
         <v>15</v>
       </c>
-      <c r="AC23" s="12">
-        <f t="shared" ref="AC23:AD23" si="71">AC9</f>
-        <v>1</v>
-      </c>
-      <c r="AD23" s="13">
-        <f t="shared" ref="AD23" si="72">ROUND(AC23*$D23,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AE23" s="12">
-        <f t="shared" ref="AE23:AF23" si="73">AE9</f>
-        <v>1</v>
-      </c>
-      <c r="AF23" s="13">
-        <f t="shared" ref="AF23" si="74">ROUND(AE23*$D23,0)</f>
+      <c r="AC26" s="13">
+        <f t="shared" ref="AC26:AD26" si="71">AC12</f>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="14">
+        <f t="shared" ref="AD26" si="72">ROUND(AC26*$D26,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE26" s="13">
+        <f t="shared" ref="AE26:AF26" si="73">AE12</f>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="14">
+        <f t="shared" ref="AF26" si="74">ROUND(AE26*$D26,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="27" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C27" s="38">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D27" s="39">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E27" s="31">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F27" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G27" s="16">
         <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H27" s="17">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I27" s="16">
         <f t="shared" si="19"/>
         <v>1.05</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J27" s="17">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K27" s="16">
         <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L27" s="17">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M27" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N27" s="17">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O27" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P27" s="17">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q27" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="R27" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="15">
-        <f t="shared" ref="S24:T24" si="75">S10</f>
-        <v>1</v>
-      </c>
-      <c r="T24" s="16">
-        <f t="shared" ref="T24:V24" si="76">ROUND(S24*$D24,0)</f>
-        <v>15</v>
-      </c>
-      <c r="U24" s="15">
-        <f t="shared" ref="U24:V24" si="77">U10</f>
-        <v>1</v>
-      </c>
-      <c r="V24" s="16">
+        <v>14</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" ref="S27:T27" si="75">S13</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" ref="T27:V27" si="76">ROUND(S27*$D27,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" ref="U27:V27" si="77">U13</f>
+        <v>1</v>
+      </c>
+      <c r="V27" s="17">
         <f t="shared" si="76"/>
         <v>15</v>
       </c>
-      <c r="W24" s="15">
-        <f t="shared" ref="W24:X24" si="78">W10</f>
-        <v>1</v>
-      </c>
-      <c r="X24" s="16">
-        <f t="shared" ref="X24" si="79">ROUND(W24*$D24,0)</f>
-        <v>15</v>
-      </c>
-      <c r="Y24" s="15">
-        <f t="shared" ref="Y24:Z24" si="80">Y10</f>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="16">
-        <f t="shared" ref="Z24:AB24" si="81">ROUND(Y24*$D24,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AA24" s="15">
-        <f t="shared" ref="AA24:AB24" si="82">AA10</f>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="16">
+      <c r="W27" s="16">
+        <f t="shared" ref="W27:X27" si="78">W13</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="17">
+        <f t="shared" ref="X27" si="79">ROUND(W27*$D27,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y27" s="16">
+        <f t="shared" ref="Y27:Z27" si="80">Y13</f>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="17">
+        <f t="shared" ref="Z27:AB27" si="81">ROUND(Y27*$D27,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" ref="AA27:AB27" si="82">AA13</f>
+        <v>1</v>
+      </c>
+      <c r="AB27" s="17">
         <f t="shared" si="81"/>
         <v>15</v>
       </c>
-      <c r="AC24" s="15">
-        <f t="shared" ref="AC24:AD24" si="83">AC10</f>
-        <v>1</v>
-      </c>
-      <c r="AD24" s="16">
-        <f t="shared" ref="AD24" si="84">ROUND(AC24*$D24,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AE24" s="15">
-        <f t="shared" ref="AE24:AF24" si="85">AE10</f>
-        <v>1</v>
-      </c>
-      <c r="AF24" s="16">
-        <f t="shared" ref="AF24" si="86">ROUND(AE24*$D24,0)</f>
+      <c r="AC27" s="16">
+        <f t="shared" ref="AC27:AD27" si="83">AC13</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="17">
+        <f t="shared" ref="AD27" si="84">ROUND(AC27*$D27,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE27" s="16">
+        <f t="shared" ref="AE27:AF27" si="85">AE13</f>
+        <v>1</v>
+      </c>
+      <c r="AF27" s="17">
+        <f t="shared" ref="AF27" si="86">ROUND(AE27*$D27,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C28" s="38">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D28" s="39">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E28" s="31">
         <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F28" s="17">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G28" s="16">
         <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H28" s="17">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I28" s="16">
         <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J28" s="17">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K28" s="16">
         <f t="shared" si="21"/>
         <v>1.05</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L28" s="17">
         <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M28" s="16">
         <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N28" s="17">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O28" s="16">
         <f t="shared" si="25"/>
         <v>0.96</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P28" s="17">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q28" s="16">
         <f t="shared" si="25"/>
         <v>1.2</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R28" s="17">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="S25" s="15">
-        <f t="shared" ref="S25:T25" si="87">S11</f>
-        <v>1</v>
-      </c>
-      <c r="T25" s="16">
-        <f t="shared" ref="T25:V25" si="88">ROUND(S25*$D25,0)</f>
-        <v>15</v>
-      </c>
-      <c r="U25" s="15">
-        <f t="shared" ref="U25:V25" si="89">U11</f>
-        <v>1</v>
-      </c>
-      <c r="V25" s="16">
+      <c r="S28" s="16">
+        <f t="shared" ref="S28:T28" si="87">S14</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="17">
+        <f t="shared" ref="T28:V28" si="88">ROUND(S28*$D28,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" ref="U28:V28" si="89">U14</f>
+        <v>1</v>
+      </c>
+      <c r="V28" s="17">
         <f t="shared" si="88"/>
         <v>15</v>
       </c>
-      <c r="W25" s="15">
-        <f t="shared" ref="W25:X25" si="90">W11</f>
-        <v>1</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" ref="X25" si="91">ROUND(W25*$D25,0)</f>
-        <v>15</v>
-      </c>
-      <c r="Y25" s="15">
-        <f t="shared" ref="Y25:Z25" si="92">Y11</f>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="16">
-        <f t="shared" ref="Z25:AB25" si="93">ROUND(Y25*$D25,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AA25" s="15">
-        <f t="shared" ref="AA25:AB25" si="94">AA11</f>
-        <v>1</v>
-      </c>
-      <c r="AB25" s="16">
+      <c r="W28" s="16">
+        <f t="shared" ref="W28:X28" si="90">W14</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="17">
+        <f t="shared" ref="X28" si="91">ROUND(W28*$D28,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Y28" s="16">
+        <f t="shared" ref="Y28:Z28" si="92">Y14</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="17">
+        <f t="shared" ref="Z28:AB28" si="93">ROUND(Y28*$D28,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" ref="AA28:AB28" si="94">AA14</f>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="17">
         <f t="shared" si="93"/>
         <v>15</v>
       </c>
-      <c r="AC25" s="15">
-        <f t="shared" ref="AC25:AD25" si="95">AC11</f>
-        <v>1</v>
-      </c>
-      <c r="AD25" s="16">
-        <f t="shared" ref="AD25" si="96">ROUND(AC25*$D25,0)</f>
-        <v>15</v>
-      </c>
-      <c r="AE25" s="15">
-        <f t="shared" ref="AE25:AF25" si="97">AE11</f>
-        <v>1</v>
-      </c>
-      <c r="AF25" s="16">
-        <f t="shared" ref="AF25" si="98">ROUND(AE25*$D25,0)</f>
+      <c r="AC28" s="16">
+        <f t="shared" ref="AC28:AD28" si="95">AC14</f>
+        <v>1</v>
+      </c>
+      <c r="AD28" s="17">
+        <f t="shared" ref="AD28" si="96">ROUND(AC28*$D28,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AE28" s="16">
+        <f t="shared" ref="AE28:AF28" si="97">AE14</f>
+        <v>1</v>
+      </c>
+      <c r="AF28" s="17">
+        <f t="shared" ref="AF28" si="98">ROUND(AE28*$D28,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C29" s="40">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D29" s="41">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E29" s="32">
         <f t="shared" si="15"/>
         <v>1.08</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F29" s="14">
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G29" s="13">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H29" s="14">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I29" s="13">
         <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J29" s="14">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K29" s="13">
         <f t="shared" si="21"/>
         <v>0.9</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L29" s="14">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M29" s="13">
         <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N29" s="14">
         <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O29" s="13">
         <f t="shared" si="25"/>
         <v>0.92</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P29" s="14">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q29" s="13">
         <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R29" s="14">
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="S26" s="12">
-        <f t="shared" ref="S26:T26" si="99">S12</f>
-        <v>1</v>
-      </c>
-      <c r="T26" s="13">
-        <f t="shared" ref="T26:V26" si="100">ROUND(S26*$D26,0)</f>
+      <c r="S29" s="13">
+        <f t="shared" ref="S29:T29" si="99">S15</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" ref="T29:V29" si="100">ROUND(S29*$D29,0)</f>
         <v>20</v>
       </c>
-      <c r="U26" s="12">
-        <f t="shared" ref="U26:V26" si="101">U12</f>
-        <v>1</v>
-      </c>
-      <c r="V26" s="13">
+      <c r="U29" s="13">
+        <f t="shared" ref="U29:V29" si="101">U15</f>
+        <v>1</v>
+      </c>
+      <c r="V29" s="14">
         <f t="shared" si="100"/>
         <v>20</v>
       </c>
-      <c r="W26" s="12">
-        <f t="shared" ref="W26:X26" si="102">W12</f>
-        <v>1</v>
-      </c>
-      <c r="X26" s="13">
-        <f t="shared" ref="X26" si="103">ROUND(W26*$D26,0)</f>
+      <c r="W29" s="13">
+        <f t="shared" ref="W29:X29" si="102">W15</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="14">
+        <f t="shared" ref="X29" si="103">ROUND(W29*$D29,0)</f>
         <v>20</v>
       </c>
-      <c r="Y26" s="12">
-        <f t="shared" ref="Y26:Z26" si="104">Y12</f>
-        <v>1</v>
-      </c>
-      <c r="Z26" s="13">
-        <f t="shared" ref="Z26:AB26" si="105">ROUND(Y26*$D26,0)</f>
+      <c r="Y29" s="13">
+        <f t="shared" ref="Y29:Z29" si="104">Y15</f>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="14">
+        <f t="shared" ref="Z29:AB29" si="105">ROUND(Y29*$D29,0)</f>
         <v>20</v>
       </c>
-      <c r="AA26" s="12">
-        <f t="shared" ref="AA26:AB26" si="106">AA12</f>
-        <v>1</v>
-      </c>
-      <c r="AB26" s="13">
+      <c r="AA29" s="13">
+        <f t="shared" ref="AA29:AB29" si="106">AA15</f>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="14">
         <f t="shared" si="105"/>
         <v>20</v>
       </c>
-      <c r="AC26" s="12">
-        <f t="shared" ref="AC26:AD26" si="107">AC12</f>
-        <v>1</v>
-      </c>
-      <c r="AD26" s="13">
-        <f t="shared" ref="AD26" si="108">ROUND(AC26*$D26,0)</f>
+      <c r="AC29" s="13">
+        <f t="shared" ref="AC29:AD29" si="107">AC15</f>
+        <v>1</v>
+      </c>
+      <c r="AD29" s="14">
+        <f t="shared" ref="AD29" si="108">ROUND(AC29*$D29,0)</f>
         <v>20</v>
       </c>
-      <c r="AE26" s="12">
-        <f t="shared" ref="AE26:AF26" si="109">AE12</f>
-        <v>1</v>
-      </c>
-      <c r="AF26" s="13">
-        <f t="shared" ref="AF26" si="110">ROUND(AE26*$D26,0)</f>
+      <c r="AE29" s="13">
+        <f t="shared" ref="AE29:AF29" si="109">AE15</f>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="14">
+        <f t="shared" ref="AF29" si="110">ROUND(AE29*$D29,0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C30" s="40">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D30" s="41">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E30" s="32">
         <f t="shared" si="15"/>
         <v>1.1399999999999999</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F30" s="14">
         <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G30" s="13">
         <f t="shared" si="17"/>
         <v>1.05</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H30" s="14">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I30" s="13">
         <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J30" s="14">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K30" s="13">
         <f t="shared" si="21"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L30" s="14">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M30" s="13">
         <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N30" s="14">
         <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O30" s="13">
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P30" s="14">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q30" s="13">
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R30" s="14">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="S27" s="12">
-        <f t="shared" ref="S27:T27" si="111">S13</f>
-        <v>1</v>
-      </c>
-      <c r="T27" s="13">
-        <f t="shared" ref="T27:V27" si="112">ROUND(S27*$D27,0)</f>
+      <c r="S30" s="13">
+        <f t="shared" ref="S30:T30" si="111">S16</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="14">
+        <f t="shared" ref="T30:V30" si="112">ROUND(S30*$D30,0)</f>
         <v>20</v>
       </c>
-      <c r="U27" s="12">
-        <f t="shared" ref="U27:V27" si="113">U13</f>
-        <v>1</v>
-      </c>
-      <c r="V27" s="13">
+      <c r="U30" s="13">
+        <f t="shared" ref="U30:V30" si="113">U16</f>
+        <v>1</v>
+      </c>
+      <c r="V30" s="14">
         <f t="shared" si="112"/>
         <v>20</v>
       </c>
-      <c r="W27" s="12">
-        <f t="shared" ref="W27:X27" si="114">W13</f>
-        <v>1</v>
-      </c>
-      <c r="X27" s="13">
-        <f t="shared" ref="X27" si="115">ROUND(W27*$D27,0)</f>
+      <c r="W30" s="13">
+        <f t="shared" ref="W30:X30" si="114">W16</f>
+        <v>1</v>
+      </c>
+      <c r="X30" s="14">
+        <f t="shared" ref="X30" si="115">ROUND(W30*$D30,0)</f>
         <v>20</v>
       </c>
-      <c r="Y27" s="12">
-        <f t="shared" ref="Y27:Z27" si="116">Y13</f>
-        <v>1</v>
-      </c>
-      <c r="Z27" s="13">
-        <f t="shared" ref="Z27:AB27" si="117">ROUND(Y27*$D27,0)</f>
+      <c r="Y30" s="13">
+        <f t="shared" ref="Y30:Z30" si="116">Y16</f>
+        <v>1</v>
+      </c>
+      <c r="Z30" s="14">
+        <f t="shared" ref="Z30:AB30" si="117">ROUND(Y30*$D30,0)</f>
         <v>20</v>
       </c>
-      <c r="AA27" s="12">
-        <f t="shared" ref="AA27:AB27" si="118">AA13</f>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="13">
+      <c r="AA30" s="13">
+        <f t="shared" ref="AA30:AB30" si="118">AA16</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="14">
         <f t="shared" si="117"/>
         <v>20</v>
       </c>
-      <c r="AC27" s="12">
-        <f t="shared" ref="AC27:AD27" si="119">AC13</f>
-        <v>1</v>
-      </c>
-      <c r="AD27" s="13">
-        <f t="shared" ref="AD27" si="120">ROUND(AC27*$D27,0)</f>
+      <c r="AC30" s="13">
+        <f t="shared" ref="AC30:AD30" si="119">AC16</f>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="14">
+        <f t="shared" ref="AD30" si="120">ROUND(AC30*$D30,0)</f>
         <v>20</v>
       </c>
-      <c r="AE27" s="12">
-        <f t="shared" ref="AE27:AF27" si="121">AE13</f>
-        <v>1</v>
-      </c>
-      <c r="AF27" s="13">
-        <f t="shared" ref="AF27" si="122">ROUND(AE27*$D27,0)</f>
+      <c r="AE30" s="13">
+        <f t="shared" ref="AE30:AF30" si="121">AE16</f>
+        <v>1</v>
+      </c>
+      <c r="AF30" s="14">
+        <f t="shared" ref="AF30" si="122">ROUND(AE30*$D30,0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="41">
-        <f>SUM(C20:C27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="42" t="s">
+      <c r="C31" s="42">
+        <f>SUM(C23:C30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="32">
-        <f>SUM(E20:E27)-8</f>
+      <c r="E31" s="33">
+        <f>SUM(E23:E30)-8</f>
         <v>-1.9800000000000004</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="4">
-        <f>SUM(G20:G27)-8</f>
+      <c r="G31" s="4">
+        <f>SUM(G23:G30)-8</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="4">
-        <f>SUM(I20:I27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="I31" s="4">
+        <f>SUM(I23:I30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="4">
-        <f>SUM(K20:K27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="K31" s="4">
+        <f>SUM(K23:K30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="4">
-        <f>SUM(M20:M27)-8</f>
+      <c r="M31" s="4">
+        <f>SUM(M23:M30)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="4">
-        <f>SUM(O20:O27)-8</f>
+      <c r="O31" s="4">
+        <f>SUM(O23:O30)-8</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="4">
-        <f>SUM(Q20:Q27)-8</f>
-        <v>-1.7000000000000002</v>
-      </c>
-      <c r="R28" s="5" t="s">
+      <c r="Q31" s="4">
+        <f>SUM(Q23:Q30)-8</f>
+        <v>0.25</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S28" s="4">
-        <f>SUM(S20:S27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="5" t="s">
+      <c r="S31" s="4">
+        <f>SUM(S23:S30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U28" s="4">
-        <f>SUM(U20:U27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="5" t="s">
+      <c r="U31" s="4">
+        <f>SUM(U23:U30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W28" s="4">
-        <f>SUM(W20:W27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="5" t="s">
+      <c r="W31" s="4">
+        <f>SUM(W23:W30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y28" s="4">
-        <f>SUM(Y20:Y27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Y31" s="4">
+        <f>SUM(Y23:Y30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="4">
-        <f>SUM(AA20:AA27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5" t="s">
+      <c r="AA31" s="4">
+        <f>SUM(AA23:AA30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AC28" s="4">
-        <f>SUM(AC20:AC27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AC31" s="4">
+        <f>SUM(AC23:AC30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AE28" s="4">
-        <f>SUM(AE20:AE27)-8</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="5" t="s">
+      <c r="AE31" s="4">
+        <f>SUM(AE23:AE30)-8</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="6">
-        <v>20</v>
-      </c>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>6</v>
+      <c r="B35" s="22" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
-        <v>7</v>
+      <c r="B36" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
-        <v>8</v>
+      <c r="B37" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="C37" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
-        <v>9</v>
+      <c r="B38" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C42" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B45" s="1"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="C43" s="44" t="str">
-        <f>C18</f>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="C46" s="45" t="str">
+        <f>C21</f>
         <v>Average</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="43" t="str">
-        <f t="shared" ref="E43" si="123">E18</f>
+      <c r="D46" s="46"/>
+      <c r="E46" s="44" t="str">
+        <f t="shared" ref="E46" si="123">E21</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="23" t="str">
-        <f t="shared" ref="G43" si="124">G18</f>
+      <c r="F46" s="25"/>
+      <c r="G46" s="24" t="str">
+        <f t="shared" ref="G46" si="124">G21</f>
         <v>Scholar</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="23" t="str">
-        <f t="shared" ref="I43" si="125">I18</f>
+      <c r="H46" s="25"/>
+      <c r="I46" s="24" t="str">
+        <f t="shared" ref="I46" si="125">I21</f>
         <v>White Mage</v>
       </c>
-      <c r="J43" s="24"/>
-      <c r="K43" s="23" t="str">
-        <f t="shared" ref="K43" si="126">K18</f>
+      <c r="J46" s="25"/>
+      <c r="K46" s="24" t="str">
+        <f t="shared" ref="K46" si="126">K21</f>
         <v>Black Mage</v>
       </c>
-      <c r="L43" s="24"/>
-      <c r="M43" s="23" t="str">
-        <f t="shared" ref="M43" si="127">M18</f>
+      <c r="L46" s="25"/>
+      <c r="M46" s="24" t="str">
+        <f t="shared" ref="M46" si="127">M21</f>
         <v>Archer</v>
       </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="23" t="str">
-        <f t="shared" ref="O43:S43" si="128">O18</f>
+      <c r="N46" s="25"/>
+      <c r="O46" s="24" t="str">
+        <f t="shared" ref="O46:S46" si="128">O21</f>
         <v>Warrior</v>
       </c>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="23" t="str">
+      <c r="P46" s="25"/>
+      <c r="Q46" s="24" t="str">
         <f t="shared" si="128"/>
         <v>Sheep</v>
       </c>
-      <c r="R43" s="24"/>
-      <c r="S43" s="23" t="str">
+      <c r="R46" s="25"/>
+      <c r="S46" s="24" t="str">
         <f t="shared" si="128"/>
         <v>New Class</v>
       </c>
-      <c r="T43" s="24"/>
-      <c r="U43" s="23" t="str">
-        <f t="shared" ref="U43:V43" si="129">U18</f>
+      <c r="T46" s="25"/>
+      <c r="U46" s="24" t="str">
+        <f t="shared" ref="U46:V46" si="129">U21</f>
         <v>New Class</v>
       </c>
-      <c r="V43" s="24"/>
-      <c r="W43" s="23" t="str">
-        <f t="shared" ref="W43:X43" si="130">W18</f>
+      <c r="V46" s="25"/>
+      <c r="W46" s="24" t="str">
+        <f t="shared" ref="W46:X46" si="130">W21</f>
         <v>New Class</v>
       </c>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="23" t="str">
-        <f t="shared" ref="Y43:Z43" si="131">Y18</f>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="24" t="str">
+        <f t="shared" ref="Y46:Z46" si="131">Y21</f>
         <v>New Class</v>
       </c>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="23" t="str">
-        <f t="shared" ref="AA43:AB43" si="132">AA18</f>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="24" t="str">
+        <f t="shared" ref="AA46:AB46" si="132">AA21</f>
         <v>New Class</v>
       </c>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="23" t="str">
-        <f t="shared" ref="AC43:AD43" si="133">AC18</f>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="24" t="str">
+        <f t="shared" ref="AC46:AD46" si="133">AC21</f>
         <v>New Class</v>
       </c>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="23" t="str">
-        <f t="shared" ref="AE43:AF43" si="134">AE18</f>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="24" t="str">
+        <f t="shared" ref="AE46:AF46" si="134">AE21</f>
         <v>New Class</v>
       </c>
-      <c r="AF43" s="24"/>
+      <c r="AF46" s="25"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C44" s="46" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D47" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="O47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="P47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q44" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="S47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T44" s="9" t="s">
+      <c r="T47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="9" t="s">
+      <c r="U47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="V44" s="9" t="s">
+      <c r="V47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W44" s="9" t="s">
+      <c r="W47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="X44" s="9" t="s">
+      <c r="X47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y44" s="9" t="s">
+      <c r="Y47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z44" s="9" t="s">
+      <c r="Z47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AA44" s="9" t="s">
+      <c r="AA47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AB44" s="9" t="s">
+      <c r="AB47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AC44" s="9" t="s">
+      <c r="AC47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AD44" s="9" t="s">
+      <c r="AD47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AE44" s="9" t="s">
+      <c r="AE47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF44" s="9" t="s">
+      <c r="AF47" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="50">
-        <f>D20</f>
+      <c r="C48" s="51">
+        <f>D23</f>
         <v>70</v>
       </c>
-      <c r="D45" s="38">
-        <f>D6</f>
+      <c r="D48" s="39">
+        <f>D9</f>
         <v>7000</v>
       </c>
-      <c r="E45" s="48">
-        <f>F20</f>
+      <c r="E48" s="49">
+        <f>F23</f>
         <v>70</v>
       </c>
-      <c r="F45" s="16">
-        <f>F6</f>
+      <c r="F48" s="17">
+        <f>F9</f>
         <v>7000</v>
       </c>
-      <c r="G45" s="17">
-        <f>H20</f>
+      <c r="G48" s="18">
+        <f>H23</f>
         <v>56</v>
       </c>
-      <c r="H45" s="16">
-        <f>H6</f>
+      <c r="H48" s="17">
+        <f>H9</f>
         <v>5600</v>
       </c>
-      <c r="I45" s="17">
-        <f>J20</f>
+      <c r="I48" s="18">
+        <f>J23</f>
         <v>84</v>
       </c>
-      <c r="J45" s="16">
-        <f>J6</f>
+      <c r="J48" s="17">
+        <f>J9</f>
         <v>8400</v>
       </c>
-      <c r="K45" s="17">
-        <f>L20</f>
+      <c r="K48" s="18">
+        <f>L23</f>
         <v>63</v>
       </c>
-      <c r="L45" s="16">
-        <f>L6</f>
+      <c r="L48" s="17">
+        <f>L9</f>
         <v>6300</v>
       </c>
-      <c r="M45" s="17">
-        <f>N20</f>
+      <c r="M48" s="18">
+        <f>N23</f>
         <v>63</v>
       </c>
-      <c r="N45" s="16">
-        <f>N6</f>
+      <c r="N48" s="17">
+        <f>N9</f>
         <v>6300</v>
       </c>
-      <c r="O45" s="17">
-        <f>P20</f>
+      <c r="O48" s="18">
+        <f>P23</f>
         <v>76</v>
       </c>
-      <c r="P45" s="16">
-        <f>P6</f>
+      <c r="P48" s="17">
+        <f>P9</f>
         <v>7560.0000000000009</v>
       </c>
-      <c r="Q45" s="17">
-        <f>R20</f>
+      <c r="Q48" s="18">
+        <f>R23</f>
         <v>81</v>
       </c>
-      <c r="R45" s="16">
-        <f>R6</f>
+      <c r="R48" s="17">
+        <f>R9</f>
         <v>8049.9999999999991</v>
       </c>
-      <c r="S45" s="17">
-        <f>T20</f>
+      <c r="S48" s="18">
+        <f>T23</f>
         <v>70</v>
       </c>
-      <c r="T45" s="16">
-        <f>T6</f>
+      <c r="T48" s="17">
+        <f>T9</f>
         <v>7000</v>
       </c>
-      <c r="U45" s="17">
-        <f>V20</f>
+      <c r="U48" s="18">
+        <f>V23</f>
         <v>70</v>
       </c>
-      <c r="V45" s="16">
-        <f>V6</f>
+      <c r="V48" s="17">
+        <f>V9</f>
         <v>7000</v>
       </c>
-      <c r="W45" s="17">
-        <f>X20</f>
+      <c r="W48" s="18">
+        <f>X23</f>
         <v>70</v>
       </c>
-      <c r="X45" s="16">
-        <f>X6</f>
+      <c r="X48" s="17">
+        <f>X9</f>
         <v>7000</v>
       </c>
-      <c r="Y45" s="17">
-        <f>Z20</f>
+      <c r="Y48" s="18">
+        <f>Z23</f>
         <v>70</v>
       </c>
-      <c r="Z45" s="16">
-        <f>Z6</f>
+      <c r="Z48" s="17">
+        <f>Z9</f>
         <v>7000</v>
       </c>
-      <c r="AA45" s="17">
-        <f>AB20</f>
+      <c r="AA48" s="18">
+        <f>AB23</f>
         <v>70</v>
       </c>
-      <c r="AB45" s="16">
-        <f>AB6</f>
+      <c r="AB48" s="17">
+        <f>AB9</f>
         <v>7000</v>
       </c>
-      <c r="AC45" s="17">
-        <f>AD20</f>
+      <c r="AC48" s="18">
+        <f>AD23</f>
         <v>70</v>
       </c>
-      <c r="AD45" s="16">
-        <f>AD6</f>
+      <c r="AD48" s="17">
+        <f>AD9</f>
         <v>7000</v>
       </c>
-      <c r="AE45" s="17">
-        <f>AF20</f>
+      <c r="AE48" s="18">
+        <f>AF23</f>
         <v>70</v>
       </c>
-      <c r="AF45" s="16">
-        <f>AF6</f>
+      <c r="AF48" s="17">
+        <f>AF9</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="50">
-        <f t="shared" ref="C46:E52" si="135">D21</f>
-        <v>15</v>
-      </c>
-      <c r="D46" s="38">
-        <f t="shared" ref="D46:F52" si="136">D7</f>
+      <c r="C49" s="51">
+        <f t="shared" ref="C49:E55" si="135">D24</f>
+        <v>15</v>
+      </c>
+      <c r="D49" s="39">
+        <f t="shared" ref="D49:F55" si="136">D10</f>
         <v>1500</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E49" s="49">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F49" s="17">
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
-      <c r="G46" s="17">
-        <f t="shared" ref="G46" si="137">H21</f>
+      <c r="G49" s="18">
+        <f t="shared" ref="G49" si="137">H24</f>
         <v>18</v>
       </c>
-      <c r="H46" s="16">
-        <f t="shared" ref="H46" si="138">H7</f>
+      <c r="H49" s="17">
+        <f t="shared" ref="H49" si="138">H10</f>
         <v>1800</v>
       </c>
-      <c r="I46" s="17">
-        <f t="shared" ref="I46" si="139">J21</f>
+      <c r="I49" s="18">
+        <f t="shared" ref="I49" si="139">J24</f>
         <v>18</v>
       </c>
-      <c r="J46" s="16">
-        <f t="shared" ref="J46" si="140">J7</f>
+      <c r="J49" s="17">
+        <f t="shared" ref="J49" si="140">J10</f>
         <v>1800</v>
       </c>
-      <c r="K46" s="17">
-        <f t="shared" ref="K46" si="141">L21</f>
+      <c r="K49" s="18">
+        <f t="shared" ref="K49" si="141">L24</f>
         <v>18</v>
       </c>
-      <c r="L46" s="16">
-        <f t="shared" ref="L46" si="142">L7</f>
+      <c r="L49" s="17">
+        <f t="shared" ref="L49" si="142">L10</f>
         <v>1800</v>
       </c>
-      <c r="M46" s="17">
-        <f t="shared" ref="M46" si="143">N21</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="16">
-        <f t="shared" ref="N46" si="144">N7</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
-        <f t="shared" ref="O46" si="145">P21</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="16">
-        <f t="shared" ref="P46:R46" si="146">P7</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="17">
-        <f t="shared" ref="Q46:Q52" si="147">R21</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="16">
+      <c r="M49" s="18">
+        <f t="shared" ref="M49" si="143">N24</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <f t="shared" ref="N49" si="144">N10</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
+        <f t="shared" ref="O49" si="145">P24</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="17">
+        <f t="shared" ref="P49:R49" si="146">P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
+        <f t="shared" ref="Q49:Q55" si="147">R24</f>
+        <v>15</v>
+      </c>
+      <c r="R49" s="17">
         <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="17">
-        <f t="shared" ref="S46:S52" si="148">T21</f>
-        <v>15</v>
-      </c>
-      <c r="T46" s="16">
-        <f t="shared" ref="T46:V46" si="149">T7</f>
         <v>1500</v>
       </c>
-      <c r="U46" s="17">
-        <f t="shared" ref="U46:U52" si="150">V21</f>
-        <v>15</v>
-      </c>
-      <c r="V46" s="16">
+      <c r="S49" s="18">
+        <f t="shared" ref="S49:S55" si="148">T24</f>
+        <v>15</v>
+      </c>
+      <c r="T49" s="17">
+        <f t="shared" ref="T49:V49" si="149">T10</f>
+        <v>1500</v>
+      </c>
+      <c r="U49" s="18">
+        <f t="shared" ref="U49:U55" si="150">V24</f>
+        <v>15</v>
+      </c>
+      <c r="V49" s="17">
         <f t="shared" si="149"/>
         <v>1500</v>
       </c>
-      <c r="W46" s="17">
-        <f t="shared" ref="W46:W52" si="151">X21</f>
-        <v>15</v>
-      </c>
-      <c r="X46" s="16">
-        <f t="shared" ref="X46" si="152">X7</f>
+      <c r="W49" s="18">
+        <f t="shared" ref="W49:W55" si="151">X24</f>
+        <v>15</v>
+      </c>
+      <c r="X49" s="17">
+        <f t="shared" ref="X49" si="152">X10</f>
         <v>1500</v>
       </c>
-      <c r="Y46" s="17">
-        <f t="shared" ref="Y46:Y52" si="153">Z21</f>
-        <v>15</v>
-      </c>
-      <c r="Z46" s="16">
-        <f t="shared" ref="Z46:AB46" si="154">Z7</f>
+      <c r="Y49" s="18">
+        <f t="shared" ref="Y49:Y55" si="153">Z24</f>
+        <v>15</v>
+      </c>
+      <c r="Z49" s="17">
+        <f t="shared" ref="Z49:AB49" si="154">Z10</f>
         <v>1500</v>
       </c>
-      <c r="AA46" s="17">
-        <f t="shared" ref="AA46:AA52" si="155">AB21</f>
-        <v>15</v>
-      </c>
-      <c r="AB46" s="16">
+      <c r="AA49" s="18">
+        <f t="shared" ref="AA49:AA55" si="155">AB24</f>
+        <v>15</v>
+      </c>
+      <c r="AB49" s="17">
         <f t="shared" si="154"/>
         <v>1500</v>
       </c>
-      <c r="AC46" s="17">
-        <f t="shared" ref="AC46:AC52" si="156">AD21</f>
-        <v>15</v>
-      </c>
-      <c r="AD46" s="16">
-        <f t="shared" ref="AD46" si="157">AD7</f>
+      <c r="AC49" s="18">
+        <f t="shared" ref="AC49:AC55" si="156">AD24</f>
+        <v>15</v>
+      </c>
+      <c r="AD49" s="17">
+        <f t="shared" ref="AD49" si="157">AD10</f>
         <v>1500</v>
       </c>
-      <c r="AE46" s="17">
-        <f t="shared" ref="AE46:AE52" si="158">AF21</f>
-        <v>15</v>
-      </c>
-      <c r="AF46" s="16">
-        <f t="shared" ref="AF46" si="159">AF7</f>
+      <c r="AE49" s="18">
+        <f t="shared" ref="AE49:AE55" si="158">AF24</f>
+        <v>15</v>
+      </c>
+      <c r="AF49" s="17">
+        <f t="shared" ref="AF49" si="159">AF10</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B50" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C50" s="52">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D50" s="41">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E50" s="50">
         <f t="shared" si="135"/>
         <v>14</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F50" s="14">
         <f t="shared" si="136"/>
         <v>285</v>
       </c>
-      <c r="G47" s="18">
-        <f t="shared" ref="G47" si="160">H22</f>
+      <c r="G50" s="19">
+        <f t="shared" ref="G50" si="160">H25</f>
         <v>11</v>
       </c>
-      <c r="H47" s="13">
-        <f t="shared" ref="H47" si="161">H8</f>
+      <c r="H50" s="14">
+        <f t="shared" ref="H50" si="161">H11</f>
         <v>210</v>
       </c>
-      <c r="I47" s="18">
-        <f t="shared" ref="I47" si="162">J22</f>
+      <c r="I50" s="19">
+        <f t="shared" ref="I50" si="162">J25</f>
         <v>10</v>
       </c>
-      <c r="J47" s="13">
-        <f t="shared" ref="J47" si="163">J8</f>
+      <c r="J50" s="14">
+        <f t="shared" ref="J50" si="163">J11</f>
         <v>195</v>
       </c>
-      <c r="K47" s="18">
-        <f t="shared" ref="K47" si="164">L22</f>
+      <c r="K50" s="19">
+        <f t="shared" ref="K50" si="164">L25</f>
         <v>12</v>
       </c>
-      <c r="L47" s="13">
-        <f t="shared" ref="L47" si="165">L8</f>
+      <c r="L50" s="14">
+        <f t="shared" ref="L50" si="165">L11</f>
         <v>240</v>
       </c>
-      <c r="M47" s="18">
-        <f t="shared" ref="M47" si="166">N22</f>
+      <c r="M50" s="19">
+        <f t="shared" ref="M50" si="166">N25</f>
         <v>16</v>
       </c>
-      <c r="N47" s="13">
-        <f t="shared" ref="N47" si="167">N8</f>
+      <c r="N50" s="14">
+        <f t="shared" ref="N50" si="167">N11</f>
         <v>315</v>
       </c>
-      <c r="O47" s="18">
-        <f t="shared" ref="O47" si="168">P22</f>
+      <c r="O50" s="19">
+        <f t="shared" ref="O50" si="168">P25</f>
         <v>17</v>
       </c>
-      <c r="P47" s="13">
-        <f t="shared" ref="P47:R47" si="169">P8</f>
+      <c r="P50" s="14">
+        <f t="shared" ref="P50:R50" si="169">P11</f>
         <v>338.99999999999994</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="Q50" s="19">
         <f t="shared" si="147"/>
         <v>15</v>
       </c>
-      <c r="R47" s="13">
+      <c r="R50" s="14">
         <f t="shared" si="169"/>
         <v>300</v>
       </c>
-      <c r="S47" s="18">
+      <c r="S50" s="19">
         <f t="shared" si="148"/>
         <v>15</v>
       </c>
-      <c r="T47" s="13">
-        <f t="shared" ref="T47:V47" si="170">T8</f>
-        <v>300</v>
-      </c>
-      <c r="U47" s="18">
+      <c r="T50" s="14">
+        <f t="shared" ref="T50:V50" si="170">T11</f>
+        <v>300</v>
+      </c>
+      <c r="U50" s="19">
         <f t="shared" si="150"/>
         <v>15</v>
       </c>
-      <c r="V47" s="13">
+      <c r="V50" s="14">
         <f t="shared" si="170"/>
         <v>300</v>
       </c>
-      <c r="W47" s="18">
+      <c r="W50" s="19">
         <f t="shared" si="151"/>
         <v>15</v>
       </c>
-      <c r="X47" s="13">
-        <f t="shared" ref="X47" si="171">X8</f>
-        <v>300</v>
-      </c>
-      <c r="Y47" s="18">
+      <c r="X50" s="14">
+        <f t="shared" ref="X50" si="171">X11</f>
+        <v>300</v>
+      </c>
+      <c r="Y50" s="19">
         <f t="shared" si="153"/>
         <v>15</v>
       </c>
-      <c r="Z47" s="13">
-        <f t="shared" ref="Z47:AB47" si="172">Z8</f>
-        <v>300</v>
-      </c>
-      <c r="AA47" s="18">
+      <c r="Z50" s="14">
+        <f t="shared" ref="Z50:AB50" si="172">Z11</f>
+        <v>300</v>
+      </c>
+      <c r="AA50" s="19">
         <f t="shared" si="155"/>
         <v>15</v>
       </c>
-      <c r="AB47" s="13">
+      <c r="AB50" s="14">
         <f t="shared" si="172"/>
         <v>300</v>
       </c>
-      <c r="AC47" s="18">
+      <c r="AC50" s="19">
         <f t="shared" si="156"/>
         <v>15</v>
       </c>
-      <c r="AD47" s="13">
-        <f t="shared" ref="AD47" si="173">AD8</f>
-        <v>300</v>
-      </c>
-      <c r="AE47" s="18">
+      <c r="AD50" s="14">
+        <f t="shared" ref="AD50" si="173">AD11</f>
+        <v>300</v>
+      </c>
+      <c r="AE50" s="19">
         <f t="shared" si="158"/>
         <v>15</v>
       </c>
-      <c r="AF47" s="13">
-        <f t="shared" ref="AF47" si="174">AF8</f>
+      <c r="AF50" s="14">
+        <f t="shared" ref="AF50" si="174">AF11</f>
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B51" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C51" s="52">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D51" s="41">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E51" s="50">
         <f t="shared" si="135"/>
         <v>14</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F51" s="14">
         <f t="shared" si="136"/>
         <v>285</v>
       </c>
-      <c r="G48" s="18">
-        <f t="shared" ref="G48" si="175">H23</f>
+      <c r="G51" s="19">
+        <f t="shared" ref="G51" si="175">H26</f>
         <v>11</v>
       </c>
-      <c r="H48" s="13">
-        <f t="shared" ref="H48" si="176">H9</f>
+      <c r="H51" s="14">
+        <f t="shared" ref="H51" si="176">H12</f>
         <v>225</v>
       </c>
-      <c r="I48" s="18">
-        <f t="shared" ref="I48" si="177">J23</f>
+      <c r="I51" s="19">
+        <f t="shared" ref="I51" si="177">J26</f>
         <v>14</v>
       </c>
-      <c r="J48" s="13">
-        <f t="shared" ref="J48" si="178">J9</f>
+      <c r="J51" s="14">
+        <f t="shared" ref="J51" si="178">J12</f>
         <v>270</v>
       </c>
-      <c r="K48" s="18">
-        <f t="shared" ref="K48" si="179">L23</f>
+      <c r="K51" s="19">
+        <f t="shared" ref="K51" si="179">L26</f>
         <v>12</v>
       </c>
-      <c r="L48" s="13">
-        <f t="shared" ref="L48" si="180">L9</f>
+      <c r="L51" s="14">
+        <f t="shared" ref="L51" si="180">L12</f>
         <v>240</v>
       </c>
-      <c r="M48" s="18">
-        <f t="shared" ref="M48" si="181">N23</f>
+      <c r="M51" s="19">
+        <f t="shared" ref="M51" si="181">N26</f>
         <v>13</v>
       </c>
-      <c r="N48" s="13">
-        <f t="shared" ref="N48" si="182">N9</f>
+      <c r="N51" s="14">
+        <f t="shared" ref="N51" si="182">N12</f>
         <v>255</v>
       </c>
-      <c r="O48" s="18">
-        <f t="shared" ref="O48" si="183">P23</f>
+      <c r="O51" s="19">
+        <f t="shared" ref="O51" si="183">P26</f>
         <v>16</v>
       </c>
-      <c r="P48" s="13">
-        <f t="shared" ref="P48:R48" si="184">P9</f>
+      <c r="P51" s="14">
+        <f t="shared" ref="P51:R51" si="184">P12</f>
         <v>318</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="Q51" s="19">
         <f t="shared" si="147"/>
         <v>19</v>
       </c>
-      <c r="R48" s="13">
+      <c r="R51" s="14">
         <f t="shared" si="184"/>
         <v>375</v>
       </c>
-      <c r="S48" s="18">
+      <c r="S51" s="19">
         <f t="shared" si="148"/>
         <v>15</v>
       </c>
-      <c r="T48" s="13">
-        <f t="shared" ref="T48:V48" si="185">T9</f>
-        <v>300</v>
-      </c>
-      <c r="U48" s="18">
+      <c r="T51" s="14">
+        <f t="shared" ref="T51:V51" si="185">T12</f>
+        <v>300</v>
+      </c>
+      <c r="U51" s="19">
         <f t="shared" si="150"/>
         <v>15</v>
       </c>
-      <c r="V48" s="13">
+      <c r="V51" s="14">
         <f t="shared" si="185"/>
         <v>300</v>
       </c>
-      <c r="W48" s="18">
+      <c r="W51" s="19">
         <f t="shared" si="151"/>
         <v>15</v>
       </c>
-      <c r="X48" s="13">
-        <f t="shared" ref="X48" si="186">X9</f>
-        <v>300</v>
-      </c>
-      <c r="Y48" s="18">
+      <c r="X51" s="14">
+        <f t="shared" ref="X51" si="186">X12</f>
+        <v>300</v>
+      </c>
+      <c r="Y51" s="19">
         <f t="shared" si="153"/>
         <v>15</v>
       </c>
-      <c r="Z48" s="13">
-        <f t="shared" ref="Z48:AB48" si="187">Z9</f>
-        <v>300</v>
-      </c>
-      <c r="AA48" s="18">
+      <c r="Z51" s="14">
+        <f t="shared" ref="Z51:AB51" si="187">Z12</f>
+        <v>300</v>
+      </c>
+      <c r="AA51" s="19">
         <f t="shared" si="155"/>
         <v>15</v>
       </c>
-      <c r="AB48" s="13">
+      <c r="AB51" s="14">
         <f t="shared" si="187"/>
         <v>300</v>
       </c>
-      <c r="AC48" s="18">
+      <c r="AC51" s="19">
         <f t="shared" si="156"/>
         <v>15</v>
       </c>
-      <c r="AD48" s="13">
-        <f t="shared" ref="AD48" si="188">AD9</f>
-        <v>300</v>
-      </c>
-      <c r="AE48" s="18">
+      <c r="AD51" s="14">
+        <f t="shared" ref="AD51" si="188">AD12</f>
+        <v>300</v>
+      </c>
+      <c r="AE51" s="19">
         <f t="shared" si="158"/>
         <v>15</v>
       </c>
-      <c r="AF48" s="13">
-        <f t="shared" ref="AF48" si="189">AF9</f>
+      <c r="AF51" s="14">
+        <f t="shared" ref="AF51" si="189">AF12</f>
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="27" t="s">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C52" s="51">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D52" s="39">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E52" s="49">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F52" s="17">
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
-      <c r="G49" s="17">
-        <f t="shared" ref="G49" si="190">H24</f>
+      <c r="G52" s="18">
+        <f t="shared" ref="G52" si="190">H27</f>
         <v>18</v>
       </c>
-      <c r="H49" s="16">
-        <f t="shared" ref="H49" si="191">H10</f>
+      <c r="H52" s="17">
+        <f t="shared" ref="H52" si="191">H13</f>
         <v>360</v>
       </c>
-      <c r="I49" s="17">
-        <f t="shared" ref="I49" si="192">J24</f>
+      <c r="I52" s="18">
+        <f t="shared" ref="I52" si="192">J27</f>
         <v>16</v>
       </c>
-      <c r="J49" s="16">
-        <f t="shared" ref="J49" si="193">J10</f>
+      <c r="J52" s="17">
+        <f t="shared" ref="J52" si="193">J13</f>
         <v>315</v>
       </c>
-      <c r="K49" s="17">
-        <f t="shared" ref="K49" si="194">L24</f>
+      <c r="K52" s="18">
+        <f t="shared" ref="K52" si="194">L27</f>
         <v>18</v>
       </c>
-      <c r="L49" s="16">
-        <f t="shared" ref="L49" si="195">L10</f>
+      <c r="L52" s="17">
+        <f t="shared" ref="L52" si="195">L13</f>
         <v>360</v>
       </c>
-      <c r="M49" s="17">
-        <f t="shared" ref="M49" si="196">N24</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="16">
-        <f t="shared" ref="N49" si="197">N10</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="17">
-        <f t="shared" ref="O49" si="198">P24</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="16">
-        <f t="shared" ref="P49:R49" si="199">P10</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="17">
+      <c r="M52" s="18">
+        <f t="shared" ref="M52" si="196">N27</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="17">
+        <f t="shared" ref="N52" si="197">N13</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
+        <f t="shared" ref="O52" si="198">P27</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="17">
+        <f t="shared" ref="P52:R52" si="199">P13</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="18">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="16">
+        <v>14</v>
+      </c>
+      <c r="R52" s="17">
         <f t="shared" si="199"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="17">
+        <v>285</v>
+      </c>
+      <c r="S52" s="18">
         <f t="shared" si="148"/>
         <v>15</v>
       </c>
-      <c r="T49" s="16">
-        <f t="shared" ref="T49:V49" si="200">T10</f>
-        <v>300</v>
-      </c>
-      <c r="U49" s="17">
+      <c r="T52" s="17">
+        <f t="shared" ref="T52:V52" si="200">T13</f>
+        <v>300</v>
+      </c>
+      <c r="U52" s="18">
         <f t="shared" si="150"/>
         <v>15</v>
       </c>
-      <c r="V49" s="16">
+      <c r="V52" s="17">
         <f t="shared" si="200"/>
         <v>300</v>
       </c>
-      <c r="W49" s="17">
+      <c r="W52" s="18">
         <f t="shared" si="151"/>
         <v>15</v>
       </c>
-      <c r="X49" s="16">
-        <f t="shared" ref="X49" si="201">X10</f>
-        <v>300</v>
-      </c>
-      <c r="Y49" s="17">
+      <c r="X52" s="17">
+        <f t="shared" ref="X52" si="201">X13</f>
+        <v>300</v>
+      </c>
+      <c r="Y52" s="18">
         <f t="shared" si="153"/>
         <v>15</v>
       </c>
-      <c r="Z49" s="16">
-        <f t="shared" ref="Z49:AB49" si="202">Z10</f>
-        <v>300</v>
-      </c>
-      <c r="AA49" s="17">
+      <c r="Z52" s="17">
+        <f t="shared" ref="Z52:AB52" si="202">Z13</f>
+        <v>300</v>
+      </c>
+      <c r="AA52" s="18">
         <f t="shared" si="155"/>
         <v>15</v>
       </c>
-      <c r="AB49" s="16">
+      <c r="AB52" s="17">
         <f t="shared" si="202"/>
         <v>300</v>
       </c>
-      <c r="AC49" s="17">
+      <c r="AC52" s="18">
         <f t="shared" si="156"/>
         <v>15</v>
       </c>
-      <c r="AD49" s="16">
-        <f t="shared" ref="AD49" si="203">AD10</f>
-        <v>300</v>
-      </c>
-      <c r="AE49" s="17">
+      <c r="AD52" s="17">
+        <f t="shared" ref="AD52" si="203">AD13</f>
+        <v>300</v>
+      </c>
+      <c r="AE52" s="18">
         <f t="shared" si="158"/>
         <v>15</v>
       </c>
-      <c r="AF49" s="16">
-        <f t="shared" ref="AF49" si="204">AF10</f>
+      <c r="AF52" s="17">
+        <f t="shared" ref="AF52" si="204">AF13</f>
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B53" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C53" s="51">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D53" s="39">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E53" s="49">
         <f t="shared" si="135"/>
         <v>14</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F53" s="17">
         <f t="shared" si="136"/>
         <v>270</v>
       </c>
-      <c r="G50" s="17">
-        <f t="shared" ref="G50" si="205">H25</f>
+      <c r="G53" s="18">
+        <f t="shared" ref="G53" si="205">H28</f>
         <v>18</v>
       </c>
-      <c r="H50" s="16">
-        <f t="shared" ref="H50" si="206">H11</f>
+      <c r="H53" s="17">
+        <f t="shared" ref="H53" si="206">H14</f>
         <v>360</v>
       </c>
-      <c r="I50" s="17">
-        <f t="shared" ref="I50" si="207">J25</f>
+      <c r="I53" s="18">
+        <f t="shared" ref="I53" si="207">J28</f>
         <v>18</v>
       </c>
-      <c r="J50" s="16">
-        <f t="shared" ref="J50" si="208">J11</f>
+      <c r="J53" s="17">
+        <f t="shared" ref="J53" si="208">J14</f>
         <v>360</v>
       </c>
-      <c r="K50" s="17">
-        <f t="shared" ref="K50" si="209">L25</f>
+      <c r="K53" s="18">
+        <f t="shared" ref="K53" si="209">L28</f>
         <v>16</v>
       </c>
-      <c r="L50" s="16">
-        <f t="shared" ref="L50" si="210">L11</f>
+      <c r="L53" s="17">
+        <f t="shared" ref="L53" si="210">L14</f>
         <v>315</v>
       </c>
-      <c r="M50" s="17">
-        <f t="shared" ref="M50" si="211">N25</f>
+      <c r="M53" s="18">
+        <f t="shared" ref="M53" si="211">N28</f>
         <v>13</v>
       </c>
-      <c r="N50" s="16">
-        <f t="shared" ref="N50" si="212">N11</f>
+      <c r="N53" s="17">
+        <f t="shared" ref="N53" si="212">N14</f>
         <v>255</v>
       </c>
-      <c r="O50" s="17">
-        <f t="shared" ref="O50" si="213">P25</f>
+      <c r="O53" s="18">
+        <f t="shared" ref="O53" si="213">P28</f>
         <v>14</v>
       </c>
-      <c r="P50" s="16">
-        <f t="shared" ref="P50:R50" si="214">P11</f>
+      <c r="P53" s="17">
+        <f t="shared" ref="P53:R53" si="214">P14</f>
         <v>288</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q53" s="18">
         <f t="shared" si="147"/>
         <v>18</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R53" s="17">
         <f t="shared" si="214"/>
         <v>360</v>
       </c>
-      <c r="S50" s="17">
+      <c r="S53" s="18">
         <f t="shared" si="148"/>
         <v>15</v>
       </c>
-      <c r="T50" s="16">
-        <f t="shared" ref="T50:V50" si="215">T11</f>
-        <v>300</v>
-      </c>
-      <c r="U50" s="17">
+      <c r="T53" s="17">
+        <f t="shared" ref="T53:V53" si="215">T14</f>
+        <v>300</v>
+      </c>
+      <c r="U53" s="18">
         <f t="shared" si="150"/>
         <v>15</v>
       </c>
-      <c r="V50" s="16">
+      <c r="V53" s="17">
         <f t="shared" si="215"/>
         <v>300</v>
       </c>
-      <c r="W50" s="17">
+      <c r="W53" s="18">
         <f t="shared" si="151"/>
         <v>15</v>
       </c>
-      <c r="X50" s="16">
-        <f t="shared" ref="X50" si="216">X11</f>
-        <v>300</v>
-      </c>
-      <c r="Y50" s="17">
+      <c r="X53" s="17">
+        <f t="shared" ref="X53" si="216">X14</f>
+        <v>300</v>
+      </c>
+      <c r="Y53" s="18">
         <f t="shared" si="153"/>
         <v>15</v>
       </c>
-      <c r="Z50" s="16">
-        <f t="shared" ref="Z50:AB50" si="217">Z11</f>
-        <v>300</v>
-      </c>
-      <c r="AA50" s="17">
+      <c r="Z53" s="17">
+        <f t="shared" ref="Z53:AB53" si="217">Z14</f>
+        <v>300</v>
+      </c>
+      <c r="AA53" s="18">
         <f t="shared" si="155"/>
         <v>15</v>
       </c>
-      <c r="AB50" s="16">
+      <c r="AB53" s="17">
         <f t="shared" si="217"/>
         <v>300</v>
       </c>
-      <c r="AC50" s="17">
+      <c r="AC53" s="18">
         <f t="shared" si="156"/>
         <v>15</v>
       </c>
-      <c r="AD50" s="16">
-        <f t="shared" ref="AD50" si="218">AD11</f>
-        <v>300</v>
-      </c>
-      <c r="AE50" s="17">
+      <c r="AD53" s="17">
+        <f t="shared" ref="AD53" si="218">AD14</f>
+        <v>300</v>
+      </c>
+      <c r="AE53" s="18">
         <f t="shared" si="158"/>
         <v>15</v>
       </c>
-      <c r="AF50" s="16">
-        <f t="shared" ref="AF50" si="219">AF11</f>
+      <c r="AF53" s="17">
+        <f t="shared" ref="AF53" si="219">AF14</f>
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B54" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C54" s="52">
         <f t="shared" si="135"/>
         <v>20</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D54" s="41">
         <f t="shared" si="136"/>
         <v>400</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E54" s="50">
         <f t="shared" si="135"/>
         <v>22</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F54" s="14">
         <f t="shared" si="136"/>
         <v>432</v>
       </c>
-      <c r="G51" s="18">
-        <f t="shared" ref="G51" si="220">H26</f>
+      <c r="G54" s="19">
+        <f t="shared" ref="G54" si="220">H29</f>
         <v>20</v>
       </c>
-      <c r="H51" s="13">
-        <f t="shared" ref="H51" si="221">H12</f>
+      <c r="H54" s="14">
+        <f t="shared" ref="H54" si="221">H15</f>
         <v>400</v>
       </c>
-      <c r="I51" s="18">
-        <f t="shared" ref="I51" si="222">J26</f>
+      <c r="I54" s="19">
+        <f t="shared" ref="I54" si="222">J29</f>
         <v>14</v>
       </c>
-      <c r="J51" s="13">
-        <f t="shared" ref="J51" si="223">J12</f>
+      <c r="J54" s="14">
+        <f t="shared" ref="J54" si="223">J15</f>
         <v>280</v>
       </c>
-      <c r="K51" s="18">
-        <f t="shared" ref="K51" si="224">L26</f>
+      <c r="K54" s="19">
+        <f t="shared" ref="K54" si="224">L29</f>
         <v>18</v>
       </c>
-      <c r="L51" s="13">
-        <f t="shared" ref="L51" si="225">L12</f>
+      <c r="L54" s="14">
+        <f t="shared" ref="L54" si="225">L15</f>
         <v>360</v>
       </c>
-      <c r="M51" s="18">
-        <f t="shared" ref="M51" si="226">N26</f>
+      <c r="M54" s="19">
+        <f t="shared" ref="M54" si="226">N29</f>
         <v>24</v>
       </c>
-      <c r="N51" s="13">
-        <f t="shared" ref="N51" si="227">N12</f>
+      <c r="N54" s="14">
+        <f t="shared" ref="N54" si="227">N15</f>
         <v>480</v>
       </c>
-      <c r="O51" s="18">
-        <f t="shared" ref="O51" si="228">P26</f>
+      <c r="O54" s="19">
+        <f t="shared" ref="O54" si="228">P29</f>
         <v>18</v>
       </c>
-      <c r="P51" s="13">
-        <f t="shared" ref="P51:R51" si="229">P12</f>
+      <c r="P54" s="14">
+        <f t="shared" ref="P54:R54" si="229">P15</f>
         <v>368</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q54" s="19">
         <f t="shared" si="147"/>
         <v>16</v>
       </c>
-      <c r="R51" s="13">
+      <c r="R54" s="14">
         <f t="shared" si="229"/>
         <v>320</v>
       </c>
-      <c r="S51" s="18">
+      <c r="S54" s="19">
         <f t="shared" si="148"/>
         <v>20</v>
       </c>
-      <c r="T51" s="13">
-        <f t="shared" ref="T51:V51" si="230">T12</f>
+      <c r="T54" s="14">
+        <f t="shared" ref="T54:V54" si="230">T15</f>
         <v>400</v>
       </c>
-      <c r="U51" s="18">
+      <c r="U54" s="19">
         <f t="shared" si="150"/>
         <v>20</v>
       </c>
-      <c r="V51" s="13">
+      <c r="V54" s="14">
         <f t="shared" si="230"/>
         <v>400</v>
       </c>
-      <c r="W51" s="18">
+      <c r="W54" s="19">
         <f t="shared" si="151"/>
         <v>20</v>
       </c>
-      <c r="X51" s="13">
-        <f t="shared" ref="X51" si="231">X12</f>
+      <c r="X54" s="14">
+        <f t="shared" ref="X54" si="231">X15</f>
         <v>400</v>
       </c>
-      <c r="Y51" s="18">
+      <c r="Y54" s="19">
         <f t="shared" si="153"/>
         <v>20</v>
       </c>
-      <c r="Z51" s="13">
-        <f t="shared" ref="Z51:AB51" si="232">Z12</f>
+      <c r="Z54" s="14">
+        <f t="shared" ref="Z54:AB54" si="232">Z15</f>
         <v>400</v>
       </c>
-      <c r="AA51" s="18">
+      <c r="AA54" s="19">
         <f t="shared" si="155"/>
         <v>20</v>
       </c>
-      <c r="AB51" s="13">
+      <c r="AB54" s="14">
         <f t="shared" si="232"/>
         <v>400</v>
       </c>
-      <c r="AC51" s="18">
+      <c r="AC54" s="19">
         <f t="shared" si="156"/>
         <v>20</v>
       </c>
-      <c r="AD51" s="13">
-        <f t="shared" ref="AD51" si="233">AD12</f>
+      <c r="AD54" s="14">
+        <f t="shared" ref="AD54" si="233">AD15</f>
         <v>400</v>
       </c>
-      <c r="AE51" s="18">
+      <c r="AE54" s="19">
         <f t="shared" si="158"/>
         <v>20</v>
       </c>
-      <c r="AF51" s="13">
-        <f t="shared" ref="AF51" si="234">AF12</f>
+      <c r="AF54" s="14">
+        <f t="shared" ref="AF54" si="234">AF15</f>
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+    <row r="55" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B55" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C55" s="53">
         <f t="shared" si="135"/>
         <v>20</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D55" s="54">
         <f t="shared" si="136"/>
         <v>400</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E55" s="50">
         <f t="shared" si="135"/>
         <v>23</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F55" s="14">
         <f t="shared" si="136"/>
         <v>455.99999999999994</v>
       </c>
-      <c r="G52" s="18">
-        <f t="shared" ref="G52" si="235">H27</f>
+      <c r="G55" s="19">
+        <f t="shared" ref="G55" si="235">H30</f>
         <v>21</v>
       </c>
-      <c r="H52" s="13">
-        <f t="shared" ref="H52" si="236">H13</f>
+      <c r="H55" s="14">
+        <f t="shared" ref="H55" si="236">H16</f>
         <v>420</v>
       </c>
-      <c r="I52" s="18">
-        <f t="shared" ref="I52" si="237">J27</f>
+      <c r="I55" s="19">
+        <f t="shared" ref="I55" si="237">J30</f>
         <v>22</v>
       </c>
-      <c r="J52" s="13">
-        <f t="shared" ref="J52" si="238">J13</f>
+      <c r="J55" s="14">
+        <f t="shared" ref="J55" si="238">J16</f>
         <v>440.00000000000006</v>
       </c>
-      <c r="K52" s="18">
-        <f t="shared" ref="K52" si="239">L27</f>
+      <c r="K55" s="19">
+        <f t="shared" ref="K55" si="239">L30</f>
         <v>23</v>
       </c>
-      <c r="L52" s="13">
-        <f t="shared" ref="L52" si="240">L13</f>
+      <c r="L55" s="14">
+        <f t="shared" ref="L55" si="240">L16</f>
         <v>459.99999999999994</v>
       </c>
-      <c r="M52" s="18">
-        <f t="shared" ref="M52" si="241">N27</f>
+      <c r="M55" s="19">
+        <f t="shared" ref="M55" si="241">N30</f>
         <v>24</v>
       </c>
-      <c r="N52" s="13">
-        <f t="shared" ref="N52" si="242">N13</f>
+      <c r="N55" s="14">
+        <f t="shared" ref="N55" si="242">N16</f>
         <v>480</v>
       </c>
-      <c r="O52" s="18">
-        <f t="shared" ref="O52" si="243">P27</f>
+      <c r="O55" s="19">
+        <f t="shared" ref="O55" si="243">P30</f>
         <v>18</v>
       </c>
-      <c r="P52" s="13">
-        <f t="shared" ref="P52:R52" si="244">P13</f>
+      <c r="P55" s="14">
+        <f t="shared" ref="P55:R55" si="244">P16</f>
         <v>360</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="Q55" s="19">
         <f t="shared" si="147"/>
         <v>18</v>
       </c>
-      <c r="R52" s="13">
+      <c r="R55" s="14">
         <f t="shared" si="244"/>
         <v>360</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S55" s="19">
         <f t="shared" si="148"/>
         <v>20</v>
       </c>
-      <c r="T52" s="13">
-        <f t="shared" ref="T52:V52" si="245">T13</f>
+      <c r="T55" s="14">
+        <f t="shared" ref="T55:V55" si="245">T16</f>
         <v>400</v>
       </c>
-      <c r="U52" s="18">
+      <c r="U55" s="19">
         <f t="shared" si="150"/>
         <v>20</v>
       </c>
-      <c r="V52" s="13">
+      <c r="V55" s="14">
         <f t="shared" si="245"/>
         <v>400</v>
       </c>
-      <c r="W52" s="18">
+      <c r="W55" s="19">
         <f t="shared" si="151"/>
         <v>20</v>
       </c>
-      <c r="X52" s="13">
-        <f t="shared" ref="X52" si="246">X13</f>
+      <c r="X55" s="14">
+        <f t="shared" ref="X55" si="246">X16</f>
         <v>400</v>
       </c>
-      <c r="Y52" s="18">
+      <c r="Y55" s="19">
         <f t="shared" si="153"/>
         <v>20</v>
       </c>
-      <c r="Z52" s="13">
-        <f t="shared" ref="Z52:AB52" si="247">Z13</f>
+      <c r="Z55" s="14">
+        <f t="shared" ref="Z55:AB55" si="247">Z16</f>
         <v>400</v>
       </c>
-      <c r="AA52" s="18">
+      <c r="AA55" s="19">
         <f t="shared" si="155"/>
         <v>20</v>
       </c>
-      <c r="AB52" s="13">
+      <c r="AB55" s="14">
         <f t="shared" si="247"/>
         <v>400</v>
       </c>
-      <c r="AC52" s="18">
+      <c r="AC55" s="19">
         <f t="shared" si="156"/>
         <v>20</v>
       </c>
-      <c r="AD52" s="13">
-        <f t="shared" ref="AD52" si="248">AD13</f>
+      <c r="AD55" s="14">
+        <f t="shared" ref="AD55" si="248">AD16</f>
         <v>400</v>
       </c>
-      <c r="AE52" s="18">
+      <c r="AE55" s="19">
         <f t="shared" si="158"/>
         <v>20</v>
       </c>
-      <c r="AF52" s="13">
-        <f t="shared" ref="AF52" si="249">AF13</f>
+      <c r="AF55" s="14">
+        <f t="shared" ref="AF55" si="249">AF16</f>
         <v>400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q18:R18"/>
+  <mergeCells count="47">
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
   <si>
     <t>Reminiscence Stat Spreadsheet</t>
   </si>
@@ -130,6 +130,9 @@
     <t>In the Lvl 99 section, enter in percentages
 relative to the Average class.  This will generate stat values at Lvl 99 and Lvl 1 to be used in the class creation section of the database.  For advanced tweaking, change the percentages at Lvl 1 as well (not advised)</t>
   </si>
+  <si>
+    <t>Rogue</t>
+  </si>
 </sst>
 </file>
 
@@ -521,30 +524,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,15 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,6 +565,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -597,6 +582,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,10 +905,10 @@
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,14 +918,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:32" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
@@ -933,22 +936,22 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
@@ -959,72 +962,72 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
+      <c r="L7" s="49"/>
+      <c r="M7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
+      <c r="N7" s="49"/>
+      <c r="O7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27" t="s">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27" t="s">
+      <c r="V7" s="49"/>
+      <c r="W7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27" t="s">
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27" t="s">
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27" t="s">
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27" t="s">
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF7" s="27"/>
+      <c r="AF7" s="49"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1116,16 +1119,16 @@
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="38">
-        <v>1</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
         <v>7000</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>1</v>
       </c>
       <c r="F9" s="17">
@@ -1175,11 +1178,11 @@
         <v>8049.9999999999991</v>
       </c>
       <c r="S9" s="16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T9" s="17">
         <f>S9*$D9</f>
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="U9" s="16">
         <v>1</v>
@@ -1228,16 +1231,16 @@
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="38">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33">
         <v>1500</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>0</v>
       </c>
       <c r="F10" s="17">
@@ -1287,11 +1290,11 @@
         <v>1500</v>
       </c>
       <c r="S10" s="16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T10" s="17">
         <f t="shared" ref="T10:T16" si="6">S10*$D10</f>
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="U10" s="16">
         <v>1</v>
@@ -1340,16 +1343,16 @@
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41">
-        <v>300</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35">
+        <v>300</v>
+      </c>
+      <c r="E11" s="28">
         <v>0.95</v>
       </c>
       <c r="F11" s="14">
@@ -1399,11 +1402,11 @@
         <v>300</v>
       </c>
       <c r="S11" s="13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U11" s="13">
         <v>1</v>
@@ -1452,16 +1455,16 @@
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="40">
-        <v>1</v>
-      </c>
-      <c r="D12" s="41">
-        <v>300</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35">
+        <v>300</v>
+      </c>
+      <c r="E12" s="28">
         <v>0.95</v>
       </c>
       <c r="F12" s="14">
@@ -1511,11 +1514,11 @@
         <v>375</v>
       </c>
       <c r="S12" s="13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T12" s="14">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U12" s="13">
         <v>1</v>
@@ -1564,16 +1567,16 @@
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="38">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39">
-        <v>300</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>300</v>
+      </c>
+      <c r="E13" s="27">
         <v>0</v>
       </c>
       <c r="F13" s="17">
@@ -1623,11 +1626,11 @@
         <v>285</v>
       </c>
       <c r="S13" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T13" s="17">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U13" s="16">
         <v>1</v>
@@ -1676,16 +1679,16 @@
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="38">
-        <v>1</v>
-      </c>
-      <c r="D14" s="39">
-        <v>300</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <v>300</v>
+      </c>
+      <c r="E14" s="27">
         <v>0.9</v>
       </c>
       <c r="F14" s="17">
@@ -1735,11 +1738,11 @@
         <v>360</v>
       </c>
       <c r="S14" s="16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T14" s="17">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U14" s="16">
         <v>1</v>
@@ -1788,16 +1791,16 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="40">
-        <v>1</v>
-      </c>
-      <c r="D15" s="41">
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
         <v>400</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="28">
         <v>1.08</v>
       </c>
       <c r="F15" s="14">
@@ -1847,11 +1850,11 @@
         <v>320</v>
       </c>
       <c r="S15" s="13">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="T15" s="14">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="U15" s="13">
         <v>1</v>
@@ -1900,16 +1903,16 @@
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="41">
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35">
         <v>400</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="28">
         <v>1.1399999999999999</v>
       </c>
       <c r="F16" s="14">
@@ -1959,11 +1962,11 @@
         <v>360</v>
       </c>
       <c r="S16" s="13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T16" s="14">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="U16" s="13">
         <v>1</v>
@@ -2009,17 +2012,17 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <f>SUM(C9:C16)-8</f>
         <v>0</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="29">
         <f>SUM(E9:E16)-8</f>
         <v>-1.9800000000000004</v>
       </c>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="S17" s="4">
         <f>SUM(S9:S16)-8</f>
-        <v>0</v>
+        <v>-0.84999999999999964</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>25</v>
@@ -2126,87 +2129,87 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="58" t="str">
         <f>C7</f>
         <v>Average</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="44" t="str">
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="str">
         <f>E7</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24" t="str">
+      <c r="F21" s="51"/>
+      <c r="G21" s="50" t="str">
         <f>G7</f>
         <v>Scholar</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24" t="str">
+      <c r="H21" s="51"/>
+      <c r="I21" s="50" t="str">
         <f>I7</f>
         <v>White Mage</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24" t="str">
+      <c r="J21" s="51"/>
+      <c r="K21" s="50" t="str">
         <f>K7</f>
         <v>Black Mage</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24" t="str">
+      <c r="L21" s="51"/>
+      <c r="M21" s="50" t="str">
         <f>M7</f>
         <v>Archer</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24" t="str">
+      <c r="N21" s="51"/>
+      <c r="O21" s="50" t="str">
         <f>O7</f>
         <v>Warrior</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24" t="str">
+      <c r="P21" s="51"/>
+      <c r="Q21" s="50" t="str">
         <f>Q7</f>
         <v>Sheep</v>
       </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="24" t="str">
+      <c r="R21" s="51"/>
+      <c r="S21" s="50" t="str">
         <f>S7</f>
-        <v>New Class</v>
-      </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="24" t="str">
+        <v>Rogue</v>
+      </c>
+      <c r="T21" s="51"/>
+      <c r="U21" s="50" t="str">
         <f>U7</f>
         <v>New Class</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="24" t="str">
+      <c r="V21" s="51"/>
+      <c r="W21" s="50" t="str">
         <f>W7</f>
         <v>New Class</v>
       </c>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="24" t="str">
+      <c r="X21" s="51"/>
+      <c r="Y21" s="50" t="str">
         <f>Y7</f>
         <v>New Class</v>
       </c>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="24" t="str">
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="50" t="str">
         <f>AA7</f>
         <v>New Class</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="24" t="str">
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="50" t="str">
         <f>AC7</f>
         <v>New Class</v>
       </c>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="24" t="str">
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="50" t="str">
         <f>AE7</f>
         <v>New Class</v>
       </c>
-      <c r="AF21" s="25"/>
+      <c r="AF21" s="51"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -2298,18 +2301,18 @@
       <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="32">
         <f t="shared" ref="C23:C30" si="13">C9</f>
         <v>1</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="33">
         <f t="shared" ref="D23:D30" si="14">D9/C35</f>
         <v>70</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="27">
         <f t="shared" ref="E23:E30" si="15">E9</f>
         <v>1</v>
       </c>
@@ -2366,15 +2369,15 @@
         <v>81</v>
       </c>
       <c r="S23" s="16">
-        <f t="shared" ref="S23:T23" si="27">S9</f>
-        <v>1</v>
+        <f t="shared" ref="S23" si="27">S9</f>
+        <v>0.9</v>
       </c>
       <c r="T23" s="17">
         <f t="shared" ref="T23:V23" si="28">ROUND(S23*$D23,0)</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="U23" s="16">
-        <f t="shared" ref="U23:V23" si="29">U9</f>
+        <f t="shared" ref="U23" si="29">U9</f>
         <v>1</v>
       </c>
       <c r="V23" s="17">
@@ -2382,7 +2385,7 @@
         <v>70</v>
       </c>
       <c r="W23" s="16">
-        <f t="shared" ref="W23:X23" si="30">W9</f>
+        <f t="shared" ref="W23" si="30">W9</f>
         <v>1</v>
       </c>
       <c r="X23" s="17">
@@ -2390,7 +2393,7 @@
         <v>70</v>
       </c>
       <c r="Y23" s="16">
-        <f t="shared" ref="Y23:Z23" si="32">Y9</f>
+        <f t="shared" ref="Y23" si="32">Y9</f>
         <v>1</v>
       </c>
       <c r="Z23" s="17">
@@ -2398,7 +2401,7 @@
         <v>70</v>
       </c>
       <c r="AA23" s="16">
-        <f t="shared" ref="AA23:AB23" si="34">AA9</f>
+        <f t="shared" ref="AA23" si="34">AA9</f>
         <v>1</v>
       </c>
       <c r="AB23" s="17">
@@ -2406,7 +2409,7 @@
         <v>70</v>
       </c>
       <c r="AC23" s="16">
-        <f t="shared" ref="AC23:AD23" si="35">AC9</f>
+        <f t="shared" ref="AC23" si="35">AC9</f>
         <v>1</v>
       </c>
       <c r="AD23" s="17">
@@ -2414,7 +2417,7 @@
         <v>70</v>
       </c>
       <c r="AE23" s="16">
-        <f t="shared" ref="AE23:AF23" si="37">AE9</f>
+        <f t="shared" ref="AE23" si="37">AE9</f>
         <v>1</v>
       </c>
       <c r="AF23" s="17">
@@ -2426,18 +2429,18 @@
       <c r="A24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="32">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="33">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -2494,15 +2497,15 @@
         <v>15</v>
       </c>
       <c r="S24" s="16">
-        <f t="shared" ref="S24:T24" si="39">S10</f>
-        <v>1</v>
+        <f t="shared" ref="S24" si="39">S10</f>
+        <v>0.4</v>
       </c>
       <c r="T24" s="17">
         <f t="shared" ref="T24:V24" si="40">ROUND(S24*$D24,0)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" ref="U24:V24" si="41">U10</f>
+        <f t="shared" ref="U24" si="41">U10</f>
         <v>1</v>
       </c>
       <c r="V24" s="17">
@@ -2510,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="W24" s="16">
-        <f t="shared" ref="W24:X24" si="42">W10</f>
+        <f t="shared" ref="W24" si="42">W10</f>
         <v>1</v>
       </c>
       <c r="X24" s="17">
@@ -2518,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="Y24" s="16">
-        <f t="shared" ref="Y24:Z24" si="44">Y10</f>
+        <f t="shared" ref="Y24" si="44">Y10</f>
         <v>1</v>
       </c>
       <c r="Z24" s="17">
@@ -2526,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="AA24" s="16">
-        <f t="shared" ref="AA24:AB24" si="46">AA10</f>
+        <f t="shared" ref="AA24" si="46">AA10</f>
         <v>1</v>
       </c>
       <c r="AB24" s="17">
@@ -2534,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="AC24" s="16">
-        <f t="shared" ref="AC24:AD24" si="47">AC10</f>
+        <f t="shared" ref="AC24" si="47">AC10</f>
         <v>1</v>
       </c>
       <c r="AD24" s="17">
@@ -2542,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="AE24" s="16">
-        <f t="shared" ref="AE24:AF24" si="49">AE10</f>
+        <f t="shared" ref="AE24" si="49">AE10</f>
         <v>1</v>
       </c>
       <c r="AF24" s="17">
@@ -2554,18 +2557,18 @@
       <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="34">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="35">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="28">
         <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
@@ -2622,15 +2625,15 @@
         <v>15</v>
       </c>
       <c r="S25" s="13">
-        <f t="shared" ref="S25:T25" si="51">S11</f>
-        <v>1</v>
+        <f t="shared" ref="S25" si="51">S11</f>
+        <v>0.95</v>
       </c>
       <c r="T25" s="14">
         <f t="shared" ref="T25:V25" si="52">ROUND(S25*$D25,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U25" s="13">
-        <f t="shared" ref="U25:V25" si="53">U11</f>
+        <f t="shared" ref="U25" si="53">U11</f>
         <v>1</v>
       </c>
       <c r="V25" s="14">
@@ -2638,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="W25" s="13">
-        <f t="shared" ref="W25:X25" si="54">W11</f>
+        <f t="shared" ref="W25" si="54">W11</f>
         <v>1</v>
       </c>
       <c r="X25" s="14">
@@ -2646,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="Y25" s="13">
-        <f t="shared" ref="Y25:Z25" si="56">Y11</f>
+        <f t="shared" ref="Y25" si="56">Y11</f>
         <v>1</v>
       </c>
       <c r="Z25" s="14">
@@ -2654,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="AA25" s="13">
-        <f t="shared" ref="AA25:AB25" si="58">AA11</f>
+        <f t="shared" ref="AA25" si="58">AA11</f>
         <v>1</v>
       </c>
       <c r="AB25" s="14">
@@ -2662,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="AC25" s="13">
-        <f t="shared" ref="AC25:AD25" si="59">AC11</f>
+        <f t="shared" ref="AC25" si="59">AC11</f>
         <v>1</v>
       </c>
       <c r="AD25" s="14">
@@ -2670,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AE25" s="13">
-        <f t="shared" ref="AE25:AF25" si="61">AE11</f>
+        <f t="shared" ref="AE25" si="61">AE11</f>
         <v>1</v>
       </c>
       <c r="AF25" s="14">
@@ -2682,18 +2685,18 @@
       <c r="A26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="34">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="35">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="28">
         <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
@@ -2750,15 +2753,15 @@
         <v>19</v>
       </c>
       <c r="S26" s="13">
-        <f t="shared" ref="S26:T26" si="63">S12</f>
-        <v>1</v>
+        <f t="shared" ref="S26" si="63">S12</f>
+        <v>0.95</v>
       </c>
       <c r="T26" s="14">
         <f t="shared" ref="T26:V26" si="64">ROUND(S26*$D26,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U26" s="13">
-        <f t="shared" ref="U26:V26" si="65">U12</f>
+        <f t="shared" ref="U26" si="65">U12</f>
         <v>1</v>
       </c>
       <c r="V26" s="14">
@@ -2766,7 +2769,7 @@
         <v>15</v>
       </c>
       <c r="W26" s="13">
-        <f t="shared" ref="W26:X26" si="66">W12</f>
+        <f t="shared" ref="W26" si="66">W12</f>
         <v>1</v>
       </c>
       <c r="X26" s="14">
@@ -2774,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="Y26" s="13">
-        <f t="shared" ref="Y26:Z26" si="68">Y12</f>
+        <f t="shared" ref="Y26" si="68">Y12</f>
         <v>1</v>
       </c>
       <c r="Z26" s="14">
@@ -2782,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="AA26" s="13">
-        <f t="shared" ref="AA26:AB26" si="70">AA12</f>
+        <f t="shared" ref="AA26" si="70">AA12</f>
         <v>1</v>
       </c>
       <c r="AB26" s="14">
@@ -2790,7 +2793,7 @@
         <v>15</v>
       </c>
       <c r="AC26" s="13">
-        <f t="shared" ref="AC26:AD26" si="71">AC12</f>
+        <f t="shared" ref="AC26" si="71">AC12</f>
         <v>1</v>
       </c>
       <c r="AD26" s="14">
@@ -2798,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="AE26" s="13">
-        <f t="shared" ref="AE26:AF26" si="73">AE12</f>
+        <f t="shared" ref="AE26" si="73">AE12</f>
         <v>1</v>
       </c>
       <c r="AF26" s="14">
@@ -2810,18 +2813,18 @@
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="32">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="33">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -2878,15 +2881,15 @@
         <v>14</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" ref="S27:T27" si="75">S13</f>
-        <v>1</v>
+        <f t="shared" ref="S27" si="75">S13</f>
+        <v>0.5</v>
       </c>
       <c r="T27" s="17">
         <f t="shared" ref="T27:V27" si="76">ROUND(S27*$D27,0)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" ref="U27:V27" si="77">U13</f>
+        <f t="shared" ref="U27" si="77">U13</f>
         <v>1</v>
       </c>
       <c r="V27" s="17">
@@ -2894,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="W27" s="16">
-        <f t="shared" ref="W27:X27" si="78">W13</f>
+        <f t="shared" ref="W27" si="78">W13</f>
         <v>1</v>
       </c>
       <c r="X27" s="17">
@@ -2902,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="Y27" s="16">
-        <f t="shared" ref="Y27:Z27" si="80">Y13</f>
+        <f t="shared" ref="Y27" si="80">Y13</f>
         <v>1</v>
       </c>
       <c r="Z27" s="17">
@@ -2910,7 +2913,7 @@
         <v>15</v>
       </c>
       <c r="AA27" s="16">
-        <f t="shared" ref="AA27:AB27" si="82">AA13</f>
+        <f t="shared" ref="AA27" si="82">AA13</f>
         <v>1</v>
       </c>
       <c r="AB27" s="17">
@@ -2918,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="AC27" s="16">
-        <f t="shared" ref="AC27:AD27" si="83">AC13</f>
+        <f t="shared" ref="AC27" si="83">AC13</f>
         <v>1</v>
       </c>
       <c r="AD27" s="17">
@@ -2926,7 +2929,7 @@
         <v>15</v>
       </c>
       <c r="AE27" s="16">
-        <f t="shared" ref="AE27:AF27" si="85">AE13</f>
+        <f t="shared" ref="AE27" si="85">AE13</f>
         <v>1</v>
       </c>
       <c r="AF27" s="17">
@@ -2938,18 +2941,18 @@
       <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="32">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="33">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="27">
         <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
@@ -3006,15 +3009,15 @@
         <v>18</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" ref="S28:T28" si="87">S14</f>
-        <v>1</v>
+        <f t="shared" ref="S28" si="87">S14</f>
+        <v>0.95</v>
       </c>
       <c r="T28" s="17">
         <f t="shared" ref="T28:V28" si="88">ROUND(S28*$D28,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" ref="U28:V28" si="89">U14</f>
+        <f t="shared" ref="U28" si="89">U14</f>
         <v>1</v>
       </c>
       <c r="V28" s="17">
@@ -3022,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="W28" s="16">
-        <f t="shared" ref="W28:X28" si="90">W14</f>
+        <f t="shared" ref="W28" si="90">W14</f>
         <v>1</v>
       </c>
       <c r="X28" s="17">
@@ -3030,7 +3033,7 @@
         <v>15</v>
       </c>
       <c r="Y28" s="16">
-        <f t="shared" ref="Y28:Z28" si="92">Y14</f>
+        <f t="shared" ref="Y28" si="92">Y14</f>
         <v>1</v>
       </c>
       <c r="Z28" s="17">
@@ -3038,7 +3041,7 @@
         <v>15</v>
       </c>
       <c r="AA28" s="16">
-        <f t="shared" ref="AA28:AB28" si="94">AA14</f>
+        <f t="shared" ref="AA28" si="94">AA14</f>
         <v>1</v>
       </c>
       <c r="AB28" s="17">
@@ -3046,7 +3049,7 @@
         <v>15</v>
       </c>
       <c r="AC28" s="16">
-        <f t="shared" ref="AC28:AD28" si="95">AC14</f>
+        <f t="shared" ref="AC28" si="95">AC14</f>
         <v>1</v>
       </c>
       <c r="AD28" s="17">
@@ -3054,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="AE28" s="16">
-        <f t="shared" ref="AE28:AF28" si="97">AE14</f>
+        <f t="shared" ref="AE28" si="97">AE14</f>
         <v>1</v>
       </c>
       <c r="AF28" s="17">
@@ -3066,18 +3069,18 @@
       <c r="A29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="34">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="35">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="28">
         <f t="shared" si="15"/>
         <v>1.08</v>
       </c>
@@ -3134,15 +3137,15 @@
         <v>16</v>
       </c>
       <c r="S29" s="13">
-        <f t="shared" ref="S29:T29" si="99">S15</f>
-        <v>1</v>
+        <f t="shared" ref="S29" si="99">S15</f>
+        <v>1.3</v>
       </c>
       <c r="T29" s="14">
         <f t="shared" ref="T29:V29" si="100">ROUND(S29*$D29,0)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U29" s="13">
-        <f t="shared" ref="U29:V29" si="101">U15</f>
+        <f t="shared" ref="U29" si="101">U15</f>
         <v>1</v>
       </c>
       <c r="V29" s="14">
@@ -3150,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="W29" s="13">
-        <f t="shared" ref="W29:X29" si="102">W15</f>
+        <f t="shared" ref="W29" si="102">W15</f>
         <v>1</v>
       </c>
       <c r="X29" s="14">
@@ -3158,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="Y29" s="13">
-        <f t="shared" ref="Y29:Z29" si="104">Y15</f>
+        <f t="shared" ref="Y29" si="104">Y15</f>
         <v>1</v>
       </c>
       <c r="Z29" s="14">
@@ -3166,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="AA29" s="13">
-        <f t="shared" ref="AA29:AB29" si="106">AA15</f>
+        <f t="shared" ref="AA29" si="106">AA15</f>
         <v>1</v>
       </c>
       <c r="AB29" s="14">
@@ -3174,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="AC29" s="13">
-        <f t="shared" ref="AC29:AD29" si="107">AC15</f>
+        <f t="shared" ref="AC29" si="107">AC15</f>
         <v>1</v>
       </c>
       <c r="AD29" s="14">
@@ -3182,7 +3185,7 @@
         <v>20</v>
       </c>
       <c r="AE29" s="13">
-        <f t="shared" ref="AE29:AF29" si="109">AE15</f>
+        <f t="shared" ref="AE29" si="109">AE15</f>
         <v>1</v>
       </c>
       <c r="AF29" s="14">
@@ -3194,18 +3197,18 @@
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="34">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="35">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="28">
         <f t="shared" si="15"/>
         <v>1.1399999999999999</v>
       </c>
@@ -3262,15 +3265,15 @@
         <v>18</v>
       </c>
       <c r="S30" s="13">
-        <f t="shared" ref="S30:T30" si="111">S16</f>
-        <v>1</v>
+        <f t="shared" ref="S30" si="111">S16</f>
+        <v>1.2</v>
       </c>
       <c r="T30" s="14">
         <f t="shared" ref="T30:V30" si="112">ROUND(S30*$D30,0)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="U30" s="13">
-        <f t="shared" ref="U30:V30" si="113">U16</f>
+        <f t="shared" ref="U30" si="113">U16</f>
         <v>1</v>
       </c>
       <c r="V30" s="14">
@@ -3278,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="W30" s="13">
-        <f t="shared" ref="W30:X30" si="114">W16</f>
+        <f t="shared" ref="W30" si="114">W16</f>
         <v>1</v>
       </c>
       <c r="X30" s="14">
@@ -3286,7 +3289,7 @@
         <v>20</v>
       </c>
       <c r="Y30" s="13">
-        <f t="shared" ref="Y30:Z30" si="116">Y16</f>
+        <f t="shared" ref="Y30" si="116">Y16</f>
         <v>1</v>
       </c>
       <c r="Z30" s="14">
@@ -3294,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="AA30" s="13">
-        <f t="shared" ref="AA30:AB30" si="118">AA16</f>
+        <f t="shared" ref="AA30" si="118">AA16</f>
         <v>1</v>
       </c>
       <c r="AB30" s="14">
@@ -3302,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="AC30" s="13">
-        <f t="shared" ref="AC30:AD30" si="119">AC16</f>
+        <f t="shared" ref="AC30" si="119">AC16</f>
         <v>1</v>
       </c>
       <c r="AD30" s="14">
@@ -3310,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="AE30" s="13">
-        <f t="shared" ref="AE30:AF30" si="121">AE16</f>
+        <f t="shared" ref="AE30" si="121">AE16</f>
         <v>1</v>
       </c>
       <c r="AF30" s="14">
@@ -3319,17 +3322,17 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="36">
         <f>SUM(C23:C30)-8</f>
         <v>0</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="29">
         <f>SUM(E23:E30)-8</f>
         <v>-1.9800000000000004</v>
       </c>
@@ -3380,7 +3383,7 @@
       </c>
       <c r="S31" s="4">
         <f>SUM(S23:S30)-8</f>
-        <v>0</v>
+        <v>-0.84999999999999964</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>25</v>
@@ -3507,87 +3510,87 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="C46" s="45" t="str">
+      <c r="C46" s="58" t="str">
         <f>C21</f>
         <v>Average</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="44" t="str">
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="str">
         <f t="shared" ref="E46" si="123">E21</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="24" t="str">
+      <c r="F46" s="51"/>
+      <c r="G46" s="50" t="str">
         <f t="shared" ref="G46" si="124">G21</f>
         <v>Scholar</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="24" t="str">
+      <c r="H46" s="51"/>
+      <c r="I46" s="50" t="str">
         <f t="shared" ref="I46" si="125">I21</f>
         <v>White Mage</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="24" t="str">
+      <c r="J46" s="51"/>
+      <c r="K46" s="50" t="str">
         <f t="shared" ref="K46" si="126">K21</f>
         <v>Black Mage</v>
       </c>
-      <c r="L46" s="25"/>
-      <c r="M46" s="24" t="str">
+      <c r="L46" s="51"/>
+      <c r="M46" s="50" t="str">
         <f t="shared" ref="M46" si="127">M21</f>
         <v>Archer</v>
       </c>
-      <c r="N46" s="25"/>
-      <c r="O46" s="24" t="str">
+      <c r="N46" s="51"/>
+      <c r="O46" s="50" t="str">
         <f t="shared" ref="O46:S46" si="128">O21</f>
         <v>Warrior</v>
       </c>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="24" t="str">
+      <c r="P46" s="51"/>
+      <c r="Q46" s="50" t="str">
         <f t="shared" si="128"/>
         <v>Sheep</v>
       </c>
-      <c r="R46" s="25"/>
-      <c r="S46" s="24" t="str">
+      <c r="R46" s="51"/>
+      <c r="S46" s="50" t="str">
         <f t="shared" si="128"/>
+        <v>Rogue</v>
+      </c>
+      <c r="T46" s="51"/>
+      <c r="U46" s="50" t="str">
+        <f t="shared" ref="U46" si="129">U21</f>
         <v>New Class</v>
       </c>
-      <c r="T46" s="25"/>
-      <c r="U46" s="24" t="str">
-        <f t="shared" ref="U46:V46" si="129">U21</f>
+      <c r="V46" s="51"/>
+      <c r="W46" s="50" t="str">
+        <f t="shared" ref="W46" si="130">W21</f>
         <v>New Class</v>
       </c>
-      <c r="V46" s="25"/>
-      <c r="W46" s="24" t="str">
-        <f t="shared" ref="W46:X46" si="130">W21</f>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="50" t="str">
+        <f t="shared" ref="Y46" si="131">Y21</f>
         <v>New Class</v>
       </c>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="24" t="str">
-        <f t="shared" ref="Y46:Z46" si="131">Y21</f>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="50" t="str">
+        <f t="shared" ref="AA46" si="132">AA21</f>
         <v>New Class</v>
       </c>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="24" t="str">
-        <f t="shared" ref="AA46:AB46" si="132">AA21</f>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="50" t="str">
+        <f t="shared" ref="AC46" si="133">AC21</f>
         <v>New Class</v>
       </c>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="24" t="str">
-        <f t="shared" ref="AC46:AD46" si="133">AC21</f>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="50" t="str">
+        <f t="shared" ref="AE46" si="134">AE21</f>
         <v>New Class</v>
       </c>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="24" t="str">
-        <f t="shared" ref="AE46:AF46" si="134">AE21</f>
-        <v>New Class</v>
-      </c>
-      <c r="AF46" s="25"/>
+      <c r="AF46" s="51"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="11" t="s">
@@ -3679,18 +3682,18 @@
       <c r="A48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="42">
         <f>D23</f>
         <v>70</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="33">
         <f>D9</f>
         <v>7000</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="40">
         <f>F23</f>
         <v>70</v>
       </c>
@@ -3748,11 +3751,11 @@
       </c>
       <c r="S48" s="18">
         <f>T23</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T48" s="17">
         <f>T9</f>
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="U48" s="18">
         <f>V23</f>
@@ -3807,18 +3810,18 @@
       <c r="A49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="42">
         <f t="shared" ref="C49:E55" si="135">D24</f>
         <v>15</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="33">
         <f t="shared" ref="D49:F55" si="136">D10</f>
         <v>1500</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="40">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
@@ -3876,11 +3879,11 @@
       </c>
       <c r="S49" s="18">
         <f t="shared" ref="S49:S55" si="148">T24</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="T49" s="17">
         <f t="shared" ref="T49:V49" si="149">T10</f>
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="U49" s="18">
         <f t="shared" ref="U49:U55" si="150">V24</f>
@@ -3935,18 +3938,18 @@
       <c r="A50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="43">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="35">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="41">
         <f t="shared" si="135"/>
         <v>14</v>
       </c>
@@ -4004,11 +4007,11 @@
       </c>
       <c r="S50" s="19">
         <f t="shared" si="148"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T50" s="14">
         <f t="shared" ref="T50:V50" si="170">T11</f>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U50" s="19">
         <f t="shared" si="150"/>
@@ -4063,18 +4066,18 @@
       <c r="A51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="43">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="35">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="41">
         <f t="shared" si="135"/>
         <v>14</v>
       </c>
@@ -4132,11 +4135,11 @@
       </c>
       <c r="S51" s="19">
         <f t="shared" si="148"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T51" s="14">
         <f t="shared" ref="T51:V51" si="185">T12</f>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U51" s="19">
         <f t="shared" si="150"/>
@@ -4191,18 +4194,18 @@
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="42">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="33">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="40">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
@@ -4260,11 +4263,11 @@
       </c>
       <c r="S52" s="18">
         <f t="shared" si="148"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T52" s="17">
         <f t="shared" ref="T52:V52" si="200">T13</f>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U52" s="18">
         <f t="shared" si="150"/>
@@ -4319,18 +4322,18 @@
       <c r="A53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="42">
         <f t="shared" si="135"/>
         <v>15</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="33">
         <f t="shared" si="136"/>
         <v>300</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="40">
         <f t="shared" si="135"/>
         <v>14</v>
       </c>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="S53" s="18">
         <f t="shared" si="148"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T53" s="17">
         <f t="shared" ref="T53:V53" si="215">T14</f>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U53" s="18">
         <f t="shared" si="150"/>
@@ -4447,18 +4450,18 @@
       <c r="A54" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="43">
         <f t="shared" si="135"/>
         <v>20</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="35">
         <f t="shared" si="136"/>
         <v>400</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="41">
         <f t="shared" si="135"/>
         <v>22</v>
       </c>
@@ -4516,11 +4519,11 @@
       </c>
       <c r="S54" s="19">
         <f t="shared" si="148"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="T54" s="14">
         <f t="shared" ref="T54:V54" si="230">T15</f>
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="U54" s="19">
         <f t="shared" si="150"/>
@@ -4575,18 +4578,18 @@
       <c r="A55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="44">
         <f t="shared" si="135"/>
         <v>20</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D55" s="45">
         <f t="shared" si="136"/>
         <v>400</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="41">
         <f t="shared" si="135"/>
         <v>23</v>
       </c>
@@ -4644,11 +4647,11 @@
       </c>
       <c r="S55" s="19">
         <f t="shared" si="148"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T55" s="14">
         <f t="shared" ref="T55:V55" si="245">T16</f>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="U55" s="19">
         <f t="shared" si="150"/>
@@ -4701,6 +4704,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U46:V46"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="AE46:AF46"/>
@@ -4717,37 +4751,6 @@
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="Y21:Z21"/>
     <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20010" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S10" sqref="S10"/>

--- a/Stat Spreadsheet.xlsx
+++ b/Stat Spreadsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="40">
   <si>
     <t>Reminiscence Stat Spreadsheet</t>
   </si>
@@ -133,6 +133,9 @@
   <si>
     <t>Rogue</t>
   </si>
+  <si>
+    <t>Digger</t>
+  </si>
 </sst>
 </file>
 
@@ -565,13 +568,31 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,24 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,10 +908,10 @@
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,14 +921,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:32" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
@@ -946,12 +949,12 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
@@ -962,66 +965,66 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="51" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49" t="s">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49" t="s">
+      <c r="N7" s="57"/>
+      <c r="O7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49" t="s">
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49" t="s">
+      <c r="R7" s="57"/>
+      <c r="S7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49" t="s">
+      <c r="T7" s="57"/>
+      <c r="U7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49" t="s">
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49" t="s">
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49" t="s">
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49" t="s">
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF7" s="49"/>
+      <c r="AF7" s="57"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
@@ -1185,11 +1188,11 @@
         <v>6300</v>
       </c>
       <c r="U9" s="16">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="V9" s="17">
         <f>U9*$D9</f>
-        <v>7000</v>
+        <v>7140</v>
       </c>
       <c r="W9" s="16">
         <v>1</v>
@@ -1297,11 +1300,11 @@
         <v>600</v>
       </c>
       <c r="U10" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="17">
         <f t="shared" ref="V10:V16" si="7">U10*$D10</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="W10" s="16">
         <v>1</v>
@@ -1409,11 +1412,11 @@
         <v>285</v>
       </c>
       <c r="U11" s="13">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="V11" s="14">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="W11" s="13">
         <v>1</v>
@@ -1521,11 +1524,11 @@
         <v>285</v>
       </c>
       <c r="U12" s="13">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>338.99999999999994</v>
       </c>
       <c r="W12" s="13">
         <v>1</v>
@@ -1633,11 +1636,11 @@
         <v>150</v>
       </c>
       <c r="U13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="17">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W13" s="16">
         <v>1</v>
@@ -1745,11 +1748,11 @@
         <v>285</v>
       </c>
       <c r="U14" s="16">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="V14" s="17">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="W14" s="16">
         <v>1</v>
@@ -1857,11 +1860,11 @@
         <v>520</v>
       </c>
       <c r="U15" s="13">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="W15" s="13">
         <v>1</v>
@@ -1969,11 +1972,11 @@
         <v>480</v>
       </c>
       <c r="U16" s="13">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="V16" s="14">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="W16" s="13">
         <v>1</v>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="U17" s="4">
         <f>SUM(U9:U16)-8</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>25</v>
@@ -2129,81 +2132,81 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="C21" s="58" t="str">
+      <c r="C21" s="49" t="str">
         <f>C7</f>
         <v>Average</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="str">
+      <c r="D21" s="50"/>
+      <c r="E21" s="51" t="str">
         <f>E7</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="50" t="str">
+      <c r="F21" s="52"/>
+      <c r="G21" s="53" t="str">
         <f>G7</f>
         <v>Scholar</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="50" t="str">
+      <c r="H21" s="52"/>
+      <c r="I21" s="53" t="str">
         <f>I7</f>
         <v>White Mage</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50" t="str">
+      <c r="J21" s="52"/>
+      <c r="K21" s="53" t="str">
         <f>K7</f>
         <v>Black Mage</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="50" t="str">
+      <c r="L21" s="52"/>
+      <c r="M21" s="53" t="str">
         <f>M7</f>
         <v>Archer</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="50" t="str">
+      <c r="N21" s="52"/>
+      <c r="O21" s="53" t="str">
         <f>O7</f>
         <v>Warrior</v>
       </c>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="50" t="str">
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53" t="str">
         <f>Q7</f>
         <v>Sheep</v>
       </c>
-      <c r="R21" s="51"/>
-      <c r="S21" s="50" t="str">
+      <c r="R21" s="52"/>
+      <c r="S21" s="53" t="str">
         <f>S7</f>
         <v>Rogue</v>
       </c>
-      <c r="T21" s="51"/>
-      <c r="U21" s="50" t="str">
+      <c r="T21" s="52"/>
+      <c r="U21" s="53" t="str">
         <f>U7</f>
-        <v>New Class</v>
-      </c>
-      <c r="V21" s="51"/>
-      <c r="W21" s="50" t="str">
+        <v>Digger</v>
+      </c>
+      <c r="V21" s="52"/>
+      <c r="W21" s="53" t="str">
         <f>W7</f>
         <v>New Class</v>
       </c>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="50" t="str">
+      <c r="X21" s="52"/>
+      <c r="Y21" s="53" t="str">
         <f>Y7</f>
         <v>New Class</v>
       </c>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="50" t="str">
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53" t="str">
         <f>AA7</f>
         <v>New Class</v>
       </c>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="50" t="str">
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="53" t="str">
         <f>AC7</f>
         <v>New Class</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="50" t="str">
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="53" t="str">
         <f>AE7</f>
         <v>New Class</v>
       </c>
-      <c r="AF21" s="51"/>
+      <c r="AF21" s="52"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C22" s="38" t="s">
@@ -2378,11 +2381,11 @@
       </c>
       <c r="U23" s="16">
         <f t="shared" ref="U23" si="29">U9</f>
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="V23" s="17">
         <f t="shared" si="28"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W23" s="16">
         <f t="shared" ref="W23" si="30">W9</f>
@@ -2506,11 +2509,11 @@
       </c>
       <c r="U24" s="16">
         <f t="shared" ref="U24" si="41">U10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="17">
         <f t="shared" si="40"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W24" s="16">
         <f t="shared" ref="W24" si="42">W10</f>
@@ -2634,11 +2637,11 @@
       </c>
       <c r="U25" s="13">
         <f t="shared" ref="U25" si="53">U11</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="V25" s="14">
         <f t="shared" si="52"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W25" s="13">
         <f t="shared" ref="W25" si="54">W11</f>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="U26" s="13">
         <f t="shared" ref="U26" si="65">U12</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="V26" s="14">
         <f t="shared" si="64"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W26" s="13">
         <f t="shared" ref="W26" si="66">W12</f>
@@ -2890,11 +2893,11 @@
       </c>
       <c r="U27" s="16">
         <f t="shared" ref="U27" si="77">U13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="17">
         <f t="shared" si="76"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" ref="W27" si="78">W13</f>
@@ -3018,11 +3021,11 @@
       </c>
       <c r="U28" s="16">
         <f t="shared" ref="U28" si="89">U14</f>
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="V28" s="17">
         <f t="shared" si="88"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" ref="W28" si="90">W14</f>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="U29" s="13">
         <f t="shared" ref="U29" si="101">U15</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V29" s="14">
         <f t="shared" si="100"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="W29" s="13">
         <f t="shared" ref="W29" si="102">W15</f>
@@ -3274,7 +3277,7 @@
       </c>
       <c r="U30" s="13">
         <f t="shared" ref="U30" si="113">U16</f>
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="V30" s="14">
         <f t="shared" si="112"/>
@@ -3390,7 +3393,7 @@
       </c>
       <c r="U31" s="4">
         <f>SUM(U23:U30)-8</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>25</v>
@@ -3510,81 +3513,81 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="C46" s="58" t="str">
+      <c r="C46" s="49" t="str">
         <f>C21</f>
         <v>Average</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="str">
+      <c r="D46" s="50"/>
+      <c r="E46" s="51" t="str">
         <f t="shared" ref="E46" si="123">E21</f>
         <v>Troublemaker</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="50" t="str">
+      <c r="F46" s="52"/>
+      <c r="G46" s="53" t="str">
         <f t="shared" ref="G46" si="124">G21</f>
         <v>Scholar</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="50" t="str">
+      <c r="H46" s="52"/>
+      <c r="I46" s="53" t="str">
         <f t="shared" ref="I46" si="125">I21</f>
         <v>White Mage</v>
       </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="50" t="str">
+      <c r="J46" s="52"/>
+      <c r="K46" s="53" t="str">
         <f t="shared" ref="K46" si="126">K21</f>
         <v>Black Mage</v>
       </c>
-      <c r="L46" s="51"/>
-      <c r="M46" s="50" t="str">
+      <c r="L46" s="52"/>
+      <c r="M46" s="53" t="str">
         <f t="shared" ref="M46" si="127">M21</f>
         <v>Archer</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="50" t="str">
+      <c r="N46" s="52"/>
+      <c r="O46" s="53" t="str">
         <f t="shared" ref="O46:S46" si="128">O21</f>
         <v>Warrior</v>
       </c>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="50" t="str">
+      <c r="P46" s="52"/>
+      <c r="Q46" s="53" t="str">
         <f t="shared" si="128"/>
         <v>Sheep</v>
       </c>
-      <c r="R46" s="51"/>
-      <c r="S46" s="50" t="str">
+      <c r="R46" s="52"/>
+      <c r="S46" s="53" t="str">
         <f t="shared" si="128"/>
         <v>Rogue</v>
       </c>
-      <c r="T46" s="51"/>
-      <c r="U46" s="50" t="str">
+      <c r="T46" s="52"/>
+      <c r="U46" s="53" t="str">
         <f t="shared" ref="U46" si="129">U21</f>
-        <v>New Class</v>
-      </c>
-      <c r="V46" s="51"/>
-      <c r="W46" s="50" t="str">
+        <v>Digger</v>
+      </c>
+      <c r="V46" s="52"/>
+      <c r="W46" s="53" t="str">
         <f t="shared" ref="W46" si="130">W21</f>
         <v>New Class</v>
       </c>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="50" t="str">
+      <c r="X46" s="52"/>
+      <c r="Y46" s="53" t="str">
         <f t="shared" ref="Y46" si="131">Y21</f>
         <v>New Class</v>
       </c>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="50" t="str">
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="53" t="str">
         <f t="shared" ref="AA46" si="132">AA21</f>
         <v>New Class</v>
       </c>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="50" t="str">
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="53" t="str">
         <f t="shared" ref="AC46" si="133">AC21</f>
         <v>New Class</v>
       </c>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="50" t="str">
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="53" t="str">
         <f t="shared" ref="AE46" si="134">AE21</f>
         <v>New Class</v>
       </c>
-      <c r="AF46" s="51"/>
+      <c r="AF46" s="52"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C47" s="38" t="s">
@@ -3759,11 +3762,11 @@
       </c>
       <c r="U48" s="18">
         <f>V23</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V48" s="17">
         <f>V9</f>
-        <v>7000</v>
+        <v>7140</v>
       </c>
       <c r="W48" s="18">
         <f>X23</f>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="U49" s="18">
         <f t="shared" ref="U49:U55" si="150">V24</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V49" s="17">
         <f t="shared" si="149"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="W49" s="18">
         <f t="shared" ref="W49:W55" si="151">X24</f>
@@ -4015,11 +4018,11 @@
       </c>
       <c r="U50" s="19">
         <f t="shared" si="150"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V50" s="14">
         <f t="shared" si="170"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="W50" s="19">
         <f t="shared" si="151"/>
@@ -4143,11 +4146,11 @@
       </c>
       <c r="U51" s="19">
         <f t="shared" si="150"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V51" s="14">
         <f t="shared" si="185"/>
-        <v>300</v>
+        <v>338.99999999999994</v>
       </c>
       <c r="W51" s="19">
         <f t="shared" si="151"/>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="U52" s="18">
         <f t="shared" si="150"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V52" s="17">
         <f t="shared" si="200"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W52" s="18">
         <f t="shared" si="151"/>
@@ -4399,11 +4402,11 @@
       </c>
       <c r="U53" s="18">
         <f t="shared" si="150"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V53" s="17">
         <f t="shared" si="215"/>
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="W53" s="18">
         <f t="shared" si="151"/>
@@ -4527,11 +4530,11 @@
       </c>
       <c r="U54" s="19">
         <f t="shared" si="150"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V54" s="14">
         <f t="shared" si="230"/>
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="W54" s="19">
         <f t="shared" si="151"/>
@@ -4659,7 +4662,7 @@
       </c>
       <c r="V55" s="14">
         <f t="shared" si="245"/>
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="W55" s="19">
         <f t="shared" si="151"/>
@@ -4704,37 +4707,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U46:V46"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="AE46:AF46"/>
@@ -4751,6 +4723,37 @@
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="Y21:Z21"/>
     <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
